--- a/dump_files/temp_data_xrv.xlsx
+++ b/dump_files/temp_data_xrv.xlsx
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
         <v>221</v>

--- a/dump_files/temp_data_xrv.xlsx
+++ b/dump_files/temp_data_xrv.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO7"/>
+  <dimension ref="A1:AO60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,93 +658,93 @@
         <v>-0.02828125</v>
       </c>
       <c r="H2" t="n">
-        <v>17.46932165056359</v>
+        <v>17.55921799714544</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2993196079344753</v>
+        <v>0.2990135635299264</v>
       </c>
       <c r="J2" t="n">
-        <v>30.01061128100363</v>
+        <v>32.34355185140625</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[[ 2.07749015e-08 -4.74561795e-09 -9.91372794e-09 -7.57322888e-07
-  -1.93621225e-06  4.32194947e-06]
- [ 7.36537811e-10  5.18770345e-07  4.00722352e-08  1.45803731e-06
-  -8.63523475e-08 -7.36264118e-08]
- [ 4.00258227e-10  4.00722352e-08  4.11932005e-08  2.73388649e-05
-  -4.69149282e-08 -1.21909570e-07]
- [ 2.31688109e-07  1.45803731e-06  2.73388649e-05  2.01220979e-02
-  -2.71560555e-05 -8.52435301e-05]
- [-6.87822159e-07 -8.63523475e-08 -4.69149282e-08 -2.71560555e-05
-   7.49044410e-05 -1.64773971e-04]
- [ 1.51325866e-06 -7.36264118e-08 -1.21909570e-07 -8.52435301e-05
-  -1.64773971e-04  3.63783445e-04]]</t>
+          <t>[[ 2.04600305e-08  1.88508152e-09  3.90330641e-09  2.84696119e-07
+  -1.91012314e-06  4.18872986e-06]
+ [ 7.36534039e-10  5.18764506e-07  4.00713149e-08  1.45792412e-06
+  -8.63518171e-08 -7.36228629e-08]
+ [ 4.00259782e-10  4.00713149e-08  4.11931600e-08  2.73390121e-05
+  -4.69149889e-08 -1.21909152e-07]
+ [ 2.31690728e-07  1.45792412e-06  2.73390121e-05  2.01222842e-02
+  -2.71562800e-05 -8.52437930e-05]
+ [-6.87821368e-07 -8.63518171e-08 -4.69149889e-08 -2.71562800e-05
+   7.49044097e-05 -1.64773902e-04]
+ [ 1.51325691e-06 -7.36228629e-08 -1.21909152e-07 -8.52437930e-05
+  -1.64773902e-04  3.63783289e-04]]</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>-0.2440667194282264</v>
+        <v>-0.2564143341788339</v>
       </c>
       <c r="M2" t="n">
-        <v>20.71709867725906</v>
+        <v>20.71708866935547</v>
       </c>
       <c r="N2" t="n">
-        <v>2.203819076492606</v>
+        <v>2.20409189512806</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03032850016820441</v>
+        <v>0.03032851481913874</v>
       </c>
       <c r="P2" t="n">
-        <v>0.002506067935683919</v>
+        <v>0.002506051591182808</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5703023045481445</v>
+        <v>0.570289431336041</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.005787569542764239</v>
+        <v>-0.005787579596279727</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02879781526336129</v>
+        <v>0.02879792260858825</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[[ 5.59229544e-08 -9.74167468e-08 -1.25175753e-07 -8.51641914e-06
-  -5.41209636e-06  7.80254319e-06]
- [-8.49623142e-09  1.56705149e-06  4.14134079e-07  1.56638085e-04
-   5.92237885e-07 -2.93293737e-06]
- [-3.20475152e-09  4.14134079e-07  2.27621439e-07  1.04540113e-04
-   2.23391196e-07 -1.39430893e-06]
- [-1.28701061e-06  1.56638085e-04  1.04540113e-04  5.00403318e-02
-   8.97123407e-05 -6.13211509e-04]
- [-1.71080464e-06  5.92237885e-07  2.23391196e-07  8.97123407e-05
-   1.10812435e-04 -1.48514100e-04]
- [ 2.29155277e-06 -2.93293737e-06 -1.39430893e-06 -6.13211509e-04
-  -1.48514100e-04  2.04459565e-04]]</t>
+          <t>[[ 5.47525256e-08 -4.55509612e-08 -5.97419314e-08 -3.78368868e-06
+  -4.80414673e-06  6.66226433e-06]
+ [-8.49619264e-09  1.56704532e-06  4.14132083e-07  1.56637561e-04
+   5.92236109e-07 -2.93292570e-06]
+ [-3.20473499e-09  4.14132083e-07  2.27620763e-07  1.04539984e-04
+   2.23390648e-07 -1.39430511e-06]
+ [-1.28700556e-06  1.56637561e-04  1.04539984e-04  5.00403527e-02
+   8.97122770e-05 -6.13210887e-04]
+ [-1.71080347e-06  5.92236109e-07  2.23390648e-07  8.97122770e-05
+   1.10812403e-04 -1.48514054e-04]
+ [ 2.29155115e-06 -2.93292570e-06 -1.39430511e-06 -6.13210887e-04
+  -1.48514054e-04  2.04459486e-04]]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>1.370463402899258</v>
+        <v>1.372685322869516</v>
       </c>
       <c r="V2" t="n">
-        <v>15.2595057019619</v>
+        <v>15.25950984444677</v>
       </c>
       <c r="W2" t="n">
-        <v>1.328063607917562</v>
+        <v>1.328034498981138</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04117554939130017</v>
+        <v>0.04117553821341226</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.003073411123018135</v>
+        <v>0.003073406292861005</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.3832827274563053</v>
+        <v>0.3832805887360101</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.01282479940818229</v>
+        <v>-0.0128248030066877</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03354214508047868</v>
+        <v>0.03354217347106182</v>
       </c>
       <c r="AC2" t="n">
         <v>-1.008998662098307</v>
@@ -810,93 +809,93 @@
         <v>-0.02984375</v>
       </c>
       <c r="H3" t="n">
-        <v>17.37503779029996</v>
+        <v>17.40631070219339</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2989834603877762</v>
+        <v>0.2986539880774514</v>
       </c>
       <c r="J3" t="n">
-        <v>30.0649071014247</v>
+        <v>32.4089172031347</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[[ 1.98867888e-08  2.20808263e-09  4.50465362e-09  3.15507735e-07
-  -1.87461569e-06  4.10757675e-06]
- [ 1.40879940e-09  5.85980464e-07  4.79352572e-08  2.94818609e-06
-  -1.64558118e-07  5.09453391e-08]
- [ 7.57669758e-10  4.79352572e-08  4.75377906e-08  3.08328432e-05
-  -8.84871891e-08 -6.43729274e-08]
- [ 4.28397708e-07  2.94818609e-06  3.08328432e-05  2.22005472e-02
-  -5.00311710e-05 -5.30025881e-05]
- [-7.76327099e-07 -1.64558118e-07 -8.84871891e-08 -5.00311710e-05
-   8.40813561e-05 -1.84759622e-04]
- [ 1.70627125e-06  5.09453391e-08 -6.43729274e-08 -5.30025881e-05
-  -1.84759622e-04  4.07495459e-04]]</t>
+          <t>[[ 1.98867883e-08  2.20808305e-09  4.50465312e-09  3.15507592e-07
+  -1.87461571e-06  4.10757680e-06]
+ [ 1.40880000e-09  5.85985792e-07  4.79362296e-08  2.94839945e-06
+  -1.64558078e-07  5.09401693e-08]
+ [ 7.57666972e-10  4.79362296e-08  4.75379750e-08  3.08328025e-05
+  -8.84866682e-08 -6.43750654e-08]
+ [ 4.28393973e-07  2.94839945e-06  3.08328025e-05  2.22004363e-02
+  -5.00306020e-05 -5.30036089e-05]
+ [-7.76328849e-07 -1.64558078e-07 -8.84866682e-08 -5.00306020e-05
+   8.40813996e-05 -1.84759721e-04]
+ [ 1.70627512e-06  5.09401693e-08 -6.43750654e-08 -5.30036089e-05
+  -1.84759721e-04  4.07495690e-04]]</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>-0.2608120599912334</v>
+        <v>-0.2608120607204167</v>
       </c>
       <c r="M3" t="n">
-        <v>20.58773121351667</v>
+        <v>20.58772361930809</v>
       </c>
       <c r="N3" t="n">
-        <v>2.204189078512247</v>
+        <v>2.204189078528362</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03051907586132863</v>
+        <v>0.03051908711892234</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002556381144383065</v>
+        <v>0.002556393774740913</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.582706227677712</v>
+        <v>0.5827147789731029</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.007166742573543816</v>
+        <v>-0.007166650093555215</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03178106159118443</v>
+        <v>0.03178078997616651</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[[ 6.02284704e-08 -4.08165395e-08 -5.38056825e-08 -3.75485942e-06
-  -5.25468829e-06  7.24110027e-06]
- [ 4.31886217e-09  1.35397416e-06  3.49979763e-07  1.36687580e-04
-  -3.01595651e-07 -1.43152874e-06]
- [ 1.64875326e-09  3.49979763e-07  2.00112690e-07  9.55044455e-05
-  -1.15133446e-07 -8.14979036e-07]
- [ 6.88441433e-07  1.36687580e-04  9.55044455e-05  4.74157359e-02
-  -4.80742574e-05 -3.88821158e-04]
- [-1.57915927e-06 -3.01595651e-07 -1.15133446e-07 -4.80742574e-05
-   1.03133606e-04 -1.36484093e-04]
- [ 2.09043615e-06 -1.43152874e-06 -8.14979036e-07 -3.88821158e-04
-  -1.36484093e-04  1.85429222e-04]]</t>
+          <t>[[ 6.02284610e-08 -4.08165102e-08 -5.38056705e-08 -3.75486313e-06
+  -5.25468679e-06  7.24109825e-06]
+ [ 4.31890674e-09  1.35398726e-06  3.49983976e-07  1.36688714e-04
+  -3.01599109e-07 -1.43154394e-06]
+ [ 1.64876550e-09  3.49983976e-07  2.00114119e-07  9.55047097e-05
+  -1.15134561e-07 -8.14984115e-07]
+ [ 6.88443089e-07  1.36688714e-04  9.55047097e-05  4.74156716e-02
+  -4.80745038e-05 -3.88821927e-04]
+ [-1.57916204e-06 -3.01599109e-07 -1.15134561e-07 -4.80745038e-05
+   1.03133683e-04 -1.36484191e-04]
+ [ 2.09043978e-06 -1.43154394e-06 -8.14984115e-07 -3.88821927e-04
+  -1.36484191e-04  1.85429374e-04]]</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>1.367438451241898</v>
+        <v>1.367438412528443</v>
       </c>
       <c r="V3" t="n">
-        <v>15.35861032965362</v>
+        <v>15.35860005862911</v>
       </c>
       <c r="W3" t="n">
-        <v>1.328103239265392</v>
+        <v>1.32810323977261</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0409098555944761</v>
+        <v>0.04090988295283741</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002968259498588192</v>
+        <v>0.002968271596932662</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.3388501850120134</v>
+        <v>0.3388557567702145</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.01127938502215044</v>
+        <v>-0.01127941878070609</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.03206643997718707</v>
+        <v>0.03206642544648479</v>
       </c>
       <c r="AC3" t="n">
         <v>-1.008999098685232</v>
@@ -961,93 +960,93 @@
         <v>-0.030625</v>
       </c>
       <c r="H4" t="n">
-        <v>17.60155914300191</v>
+        <v>17.62377121087236</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2991620217448391</v>
+        <v>0.2988530830403227</v>
       </c>
       <c r="J4" t="n">
-        <v>30.08339912542498</v>
+        <v>32.42705349068278</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[[ 2.00219326e-08  1.80362761e-09  3.76661449e-09  2.78977545e-07
-  -1.86239917e-06  4.08421360e-06]
- [ 6.70943753e-10  5.48646977e-07  4.52365292e-08  2.58341094e-06
-  -7.82225226e-08 -1.18524498e-07]
- [ 3.51450396e-10  4.52365292e-08  4.20577134e-08  2.71131748e-05
-  -4.09625153e-08 -1.39644566e-07]
- [ 1.97241472e-07  2.58341094e-06  2.71131748e-05  1.95673658e-02
-  -2.29885034e-05 -9.31206374e-05]
- [-6.96994140e-07 -7.82225226e-08 -4.09625153e-08 -2.29885034e-05
-   7.49697752e-05 -1.64952198e-04]
- [ 1.53374760e-06 -1.18524498e-07 -1.39644566e-07 -9.31206374e-05
-  -1.64952198e-04  3.64275829e-04]]</t>
+          <t>[[ 2.00219307e-08  1.80361929e-09  3.76659546e-09  2.78976220e-07
+  -1.86239868e-06  4.08421262e-06]
+ [ 6.70936420e-10  5.48648609e-07  4.52367993e-08  2.58345010e-06
+  -7.82216616e-08 -1.18527783e-07]
+ [ 3.51447066e-10  4.52367993e-08  4.20577375e-08  2.71131441e-05
+  -4.09620106e-08 -1.39645820e-07]
+ [ 1.97239444e-07  2.58345010e-06  2.71131441e-05  1.95673230e-02
+  -2.29881823e-05 -9.31211853e-05]
+ [-6.96994403e-07 -7.82216616e-08 -4.09620106e-08 -2.29881823e-05
+   7.49697834e-05 -1.64952219e-04]
+ [ 1.53374820e-06 -1.18527783e-07 -1.39645820e-07 -9.31211853e-05
+  -1.64952219e-04  3.64275883e-04]]</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>-0.2568362118298251</v>
+        <v>-0.2568361334024383</v>
       </c>
       <c r="M4" t="n">
-        <v>20.67242563942135</v>
+        <v>20.67242695293845</v>
       </c>
       <c r="N4" t="n">
-        <v>2.204101217642766</v>
+        <v>2.204101215909696</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03039403994854791</v>
+        <v>0.03039403801732371</v>
       </c>
       <c r="P4" t="n">
-        <v>0.002574857140190156</v>
+        <v>0.002574861316213088</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6209811632755079</v>
+        <v>0.62098430687969</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.006343394269744064</v>
+        <v>-0.006343317900301441</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02961613667652943</v>
+        <v>0.02961594648679085</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[[ 5.56110266e-08 -4.19489314e-08 -5.49081846e-08 -3.59501643e-06
-  -4.83945653e-06  6.68920476e-06]
- [-7.81856053e-09  1.53532976e-06  3.99927847e-07  1.48990925e-04
-   5.57260823e-07 -2.81871312e-06]
- [-2.98009317e-09  3.99927847e-07  2.21060251e-07  1.01067847e-04
-   2.12405186e-07 -1.35192899e-06]
- [-1.19130289e-06  1.48990925e-04  1.01067847e-04  4.82736486e-02
-   8.49095274e-05 -5.92066411e-04]
- [-1.67412831e-06  5.57260823e-07  2.12405186e-07  8.49095274e-05
-   1.10605964e-04 -1.48184650e-04]
- [ 2.24164753e-06 -2.81871312e-06 -1.35192899e-06 -5.92066411e-04
-  -1.48184650e-04  2.03831094e-04]]</t>
+          <t>[[ 5.56110378e-08 -4.19490502e-08 -5.49083411e-08 -3.59502256e-06
+  -4.83945832e-06  6.68920778e-06]
+ [-7.81855061e-09  1.53532779e-06  3.99927229e-07  1.48990768e-04
+   5.57260302e-07 -2.81870952e-06]
+ [-2.98008913e-09  3.99927229e-07  2.21060060e-07  1.01067818e-04
+   2.12405022e-07 -1.35192788e-06]
+ [-1.19130180e-06  1.48990768e-04  1.01067818e-04  4.82736606e-02
+   8.49095091e-05 -5.92066264e-04]
+ [-1.67412795e-06  5.57260302e-07  2.12405022e-07  8.49095091e-05
+   1.10605954e-04 -1.48184636e-04]
+ [ 2.24164703e-06 -2.81870952e-06 -1.35192788e-06 -5.92066264e-04
+  -1.48184636e-04  2.03831070e-04]]</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>1.366432627274583</v>
+        <v>1.366432641987303</v>
       </c>
       <c r="V4" t="n">
-        <v>15.41031169793031</v>
+        <v>15.41031301993375</v>
       </c>
       <c r="W4" t="n">
-        <v>1.328116417573383</v>
+        <v>1.328116417380615</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0407726036328224</v>
+        <v>0.0407726001350659</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.003104832787665323</v>
+        <v>0.003104831195880171</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.4133033861754425</v>
+        <v>0.4133026769591659</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.009434758982916788</v>
+        <v>-0.009434759098284612</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.02908501306540283</v>
+        <v>0.02908502098589913</v>
       </c>
       <c r="AC4" t="n">
         <v>-1.009000735889566</v>
@@ -1112,93 +1111,93 @@
         <v>-0.031484375</v>
       </c>
       <c r="H5" t="n">
-        <v>17.68891464427493</v>
+        <v>17.66836946431222</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2984307250039291</v>
+        <v>0.2980485648162019</v>
       </c>
       <c r="J5" t="n">
-        <v>30.03928993181421</v>
+        <v>32.36040468898645</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[[ 2.20171471e-08  2.35132880e-09  4.82280130e-09  3.45509220e-07
-  -2.06229088e-06  4.51939498e-06]
- [ 1.62529780e-09  6.17592816e-07  4.72471158e-08  1.36502095e-06
-  -1.93486467e-07  1.12282933e-07]
- [ 9.07180933e-10  4.72471158e-08  5.11309253e-08  3.38272728e-05
-  -1.07979960e-07 -4.17131448e-08]
- [ 5.23901161e-07  1.36502095e-06  3.38272728e-05  2.47326805e-02
-  -6.23579336e-05 -4.21413815e-05]
- [-8.44609482e-07 -1.93486467e-07 -1.07979960e-07 -6.23579336e-05
-   9.36592455e-05 -2.05750679e-04]
- [ 1.85586420e-06  1.12282933e-07 -4.17131448e-08 -4.21413815e-05
-  -2.05750679e-04  4.53624066e-04]]</t>
+          <t>[[ 2.20171495e-08  2.35132446e-09  4.82280054e-09  3.45509957e-07
+  -2.06229049e-06  4.51939412e-06]
+ [ 1.62529442e-09  6.17590492e-07  4.72467332e-08  1.36496380e-06
+  -1.93486022e-07  1.12283926e-07]
+ [ 9.07182233e-10  4.72467332e-08  5.11309074e-08  3.38273327e-05
+  -1.07980009e-07 -4.17129101e-08]
+ [ 5.23903247e-07  1.36496380e-06  3.38273327e-05  2.47327571e-02
+  -6.23581080e-05 -4.21413044e-05]
+ [-8.44609072e-07 -1.93486022e-07 -1.07980009e-07 -6.23581080e-05
+   9.36592313e-05 -2.05750648e-04]
+ [ 1.85586329e-06  1.12283926e-07 -4.17129101e-08 -4.21413044e-05
+  -2.05750648e-04  4.53623995e-04]]</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>-0.2605663769322475</v>
+        <v>-0.2605663541796921</v>
       </c>
       <c r="M5" t="n">
-        <v>20.72847467935829</v>
+        <v>20.72847228432671</v>
       </c>
       <c r="N5" t="n">
-        <v>2.204183649045729</v>
+        <v>2.20418364854291</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03031185557245305</v>
+        <v>0.03031185907477827</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002514022562463338</v>
+        <v>0.00251401701810172</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5505579114843332</v>
+        <v>0.5505536559104183</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.01155442469696358</v>
+        <v>-0.01155443095981062</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0417446454893355</v>
+        <v>0.0417446883300309</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[[ 5.27627490e-08 -3.39070486e-08 -4.46930320e-08 -2.99350341e-06
-  -4.58453561e-06  6.30462809e-06]
- [ 3.99868058e-09  1.37169717e-06  3.52988342e-07  1.32158021e-04
-  -2.86585740e-07 -1.45943096e-06]
- [ 1.53137451e-09  3.52988342e-07  1.97098896e-07  9.10352028e-05
-  -1.09750905e-07 -8.09608085e-07]
- [ 6.18490684e-07  1.32158021e-04  9.10352028e-05  4.39376070e-02
-  -4.43260812e-05 -3.73503715e-04]
- [-1.51665647e-06 -2.86585740e-07 -1.09750905e-07 -4.43260812e-05
-   1.00834351e-04 -1.33457605e-04]
- [ 2.00799273e-06 -1.45943096e-06 -8.09608085e-07 -3.73503715e-04
-  -1.33457605e-04  1.81389311e-04]]</t>
+          <t>[[ 5.27627464e-08 -3.39070309e-08 -4.46930057e-08 -2.99350251e-06
+  -4.58453521e-06  6.30462746e-06]
+ [ 3.99873641e-09  1.37171202e-06  3.52993193e-07  1.32159342e-04
+  -2.86589418e-07 -1.45944885e-06]
+ [ 1.53139453e-09  3.52993193e-07  1.97100596e-07  9.10355593e-05
+  -1.09752157e-07 -8.09614212e-07]
+ [ 6.18496053e-07  1.32159342e-04  9.10355593e-05  4.39375825e-02
+  -4.43263819e-05 -3.73504820e-04]
+ [-1.51665977e-06 -2.86589418e-07 -1.09752157e-07 -4.43263819e-05
+   1.00834441e-04 -1.33457719e-04]
+ [ 2.00799703e-06 -1.45944885e-06 -8.09614212e-07 -3.73504820e-04
+  -1.33457719e-04  1.81389490e-04]]</t>
         </is>
       </c>
       <c r="U5" t="n">
-        <v>1.351410006398646</v>
+        <v>1.351410005931974</v>
       </c>
       <c r="V5" t="n">
-        <v>15.48231189449881</v>
+        <v>15.4822985895986</v>
       </c>
       <c r="W5" t="n">
-        <v>1.328313275115069</v>
+        <v>1.328313275121185</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0405829914162376</v>
+        <v>0.04058302629172122</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003082352754023797</v>
+        <v>0.003082365488279201</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.4113971903748622</v>
+        <v>0.4114025998804366</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.009423470937540777</v>
+        <v>-0.00942350206377587</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.02909771152536609</v>
+        <v>0.02909768929568752</v>
       </c>
       <c r="AC5" t="n">
         <v>-1.009002591394234</v>
@@ -1263,93 +1262,93 @@
         <v>-0.027265625</v>
       </c>
       <c r="H6" t="n">
-        <v>17.48194151574652</v>
+        <v>17.52705675035662</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2983182487559374</v>
+        <v>0.2979280279718962</v>
       </c>
       <c r="J6" t="n">
-        <v>29.97455364305755</v>
+        <v>32.30192735581746</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[[ 2.03473116e-08  1.89186426e-09  3.93869690e-09  2.93899907e-07
-  -1.89061157e-06  4.14550321e-06]
- [ 1.00837522e-09  6.38956442e-07  5.82996651e-08  6.42054236e-06
-  -1.12897055e-07 -1.15680478e-07]
- [ 4.99776091e-10  5.82996651e-08  4.84798582e-08  3.04117613e-05
-  -5.59425330e-08 -1.40060219e-07]
- [ 2.72714088e-07  6.42054236e-06  3.04117613e-05  2.14145317e-02
-  -3.05256580e-05 -9.30518047e-05]
- [-7.79649470e-07 -1.12897055e-07 -5.59425330e-08 -3.05256580e-05
-   8.01262425e-05 -1.76231219e-04]
- [ 1.71505589e-06 -1.15680478e-07 -1.40060219e-07 -9.30518047e-05
-  -1.76231219e-04  3.89124660e-04]]</t>
+          <t>[[ 2.03473106e-08  1.89188035e-09  3.93872728e-09  2.93901581e-07
+  -1.89061221e-06  4.14550447e-06]
+ [ 1.00838338e-09  6.38959061e-07  5.83000864e-08  6.42058464e-06
+  -1.12898085e-07 -1.15680335e-07]
+ [ 4.99776976e-10  5.83000864e-08  4.84798680e-08  3.04116955e-05
+  -5.59428992e-08 -1.40059502e-07]
+ [ 2.72713547e-07  6.42058464e-06  3.04116955e-05  2.14144565e-02
+  -3.05257804e-05 -9.30512062e-05]
+ [-7.79649577e-07 -1.12898085e-07 -5.59428992e-08 -3.05257804e-05
+   8.01262523e-05 -1.76231238e-04]
+ [ 1.71505612e-06 -1.15680335e-07 -1.40059502e-07 -9.30512062e-05
+  -1.76231238e-04  3.89124699e-04]]</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>-0.2575867372826668</v>
+        <v>-0.2575869367602124</v>
       </c>
       <c r="M6" t="n">
-        <v>20.34769262193482</v>
+        <v>20.34769794607625</v>
       </c>
       <c r="N6" t="n">
-        <v>2.20411780270433</v>
+        <v>2.204117807112405</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03087910469222594</v>
+        <v>0.03087909661245588</v>
       </c>
       <c r="P6" t="n">
-        <v>0.002621903609501407</v>
+        <v>0.002621909407555412</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.652598113524354</v>
+        <v>0.6526027092584742</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.006834653476080122</v>
+        <v>-0.006834699138314904</v>
       </c>
       <c r="S6" t="n">
-        <v>0.03038907230866715</v>
+        <v>0.03038914320077399</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[[ 5.48425729e-08 -3.92288593e-08 -5.11215685e-08 -3.51511266e-06
-  -4.75644310e-06  6.56434827e-06]
- [-7.13191651e-09  1.29511388e-06  3.35231769e-07  1.30484268e-04
-   4.95465372e-07 -2.40941176e-06]
- [-2.70150516e-09  3.35231769e-07  1.88912647e-07  8.97046328e-05
-   1.87678824e-07 -1.16260066e-06]
- [-1.12208148e-06  1.30484268e-04  8.97046328e-05  4.43318135e-02
-   7.79529351e-05 -5.28524671e-04]
- [-1.48157248e-06  4.95465372e-07  1.87678824e-07  7.79529351e-05
-   9.61220492e-05 -1.28799096e-04]
- [ 1.98419910e-06 -2.40941176e-06 -1.16260066e-06 -5.28524671e-04
-  -1.28799096e-04  1.77109261e-04]]</t>
+          <t>[[ 5.48425289e-08 -3.92284644e-08 -5.11210518e-08 -3.51509322e-06
+  -4.75643617e-06  6.56433695e-06]
+ [-7.13183600e-09  1.29509711e-06  3.35226382e-07  1.30482820e-04
+   4.95459394e-07 -2.40937854e-06]
+ [-2.70148192e-09  3.35226382e-07  1.88910819e-07  8.97042866e-05
+   1.87676907e-07 -1.16258971e-06]
+ [-1.12207882e-06  1.30482820e-04  8.97042866e-05  4.43318862e-02
+   7.79525971e-05 -5.28522778e-04]
+ [-1.48156907e-06  4.95459394e-07  1.87676907e-07  7.79525971e-05
+   9.61219532e-05 -1.28798959e-04]
+ [ 1.98419447e-06 -2.40937854e-06 -1.16258971e-06 -5.28522778e-04
+  -1.28798959e-04  1.77109029e-04]]</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>1.369007873933281</v>
+        <v>1.369007801428812</v>
       </c>
       <c r="V6" t="n">
-        <v>15.33166272234152</v>
+        <v>15.3316763667887</v>
       </c>
       <c r="W6" t="n">
-        <v>1.328082677207975</v>
+        <v>1.32808267815789</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04098176056288819</v>
+        <v>0.04098172409111212</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.002980506085798089</v>
+        <v>0.002980490002545143</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3493454676793419</v>
+        <v>0.3493380943049531</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.007145570339654972</v>
+        <v>-0.007145607210899523</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.02637125184190809</v>
+        <v>0.0263713796805727</v>
       </c>
       <c r="AC6" t="n">
         <v>-1.009002263951738</v>
@@ -1414,93 +1413,93 @@
         <v>-0.0296875</v>
       </c>
       <c r="H7" t="n">
-        <v>17.42362808914329</v>
+        <v>17.6520202932093</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2984990823193912</v>
+        <v>0.2981975788775746</v>
       </c>
       <c r="J7" t="n">
-        <v>30.0489979210767</v>
+        <v>32.72830514717185</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[[ 2.35522136e-08  2.37881104e-09  4.96302735e-09  3.64065191e-07
-  -2.20050195e-06  4.82307445e-06]
- [ 1.51054878e-10  6.60513193e-07  5.64909112e-08  5.96002516e-06
-  -1.71170759e-08 -3.29240390e-07]
- [ 8.13948357e-11  5.64909112e-08  5.75301634e-08  3.74221159e-05
-  -9.20968273e-09 -2.91283975e-07]
- [ 4.62429659e-08  5.96002516e-06  3.74221159e-05  2.67144518e-02
-  -5.23177492e-06 -1.85345174e-04]
- [-9.05942821e-07 -1.71170759e-08 -9.20968273e-09 -5.23177492e-06
-   9.55439684e-05 -2.10543666e-04]
- [ 1.99640119e-06 -3.29240390e-07 -2.91283975e-07 -1.85345174e-04
-  -2.10543666e-04  4.65756504e-04]]</t>
+          <t>[[ 2.37084066e-08  2.22400406e-10  4.67189792e-10  3.47264528e-08
+  -2.20214676e-06  4.85151901e-06]
+ [ 1.51062207e-10  6.60506575e-07  5.64896939e-08  5.95976145e-06
+  -1.71179017e-08 -3.29232248e-07]
+ [ 8.13999084e-11  5.64896939e-08  5.75299554e-08  3.74221940e-05
+  -9.21019066e-09 -2.91281735e-07]
+ [ 4.62462115e-08  5.95976145e-06  3.74221940e-05  2.67146172e-02
+  -5.23209457e-06 -1.85344899e-04]
+ [-9.05940808e-07 -1.71179017e-08 -9.21019066e-09 -5.23209457e-06
+   9.55439129e-05 -2.10543541e-04]
+ [ 1.99639673e-06 -3.29232248e-07 -2.91281735e-07 -1.85344899e-04
+  -2.10543541e-04  4.65756216e-04]]</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>-0.2605499237319897</v>
+        <v>-0.2637273399528461</v>
       </c>
       <c r="M7" t="n">
-        <v>20.24348419250703</v>
+        <v>20.24348922038358</v>
       </c>
       <c r="N7" t="n">
-        <v>2.204183285439604</v>
+        <v>2.20425350670954</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03103806265477393</v>
+        <v>0.03103805494584856</v>
       </c>
       <c r="P7" t="n">
-        <v>0.002529862422411655</v>
+        <v>0.002529848054087044</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5365952770101944</v>
+        <v>0.5365853044148419</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.008094963438084839</v>
+        <v>-0.008095020428090903</v>
       </c>
       <c r="S7" t="n">
-        <v>0.03401925939212381</v>
+        <v>0.03401946118092754</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[[ 5.33738736e-08 -4.58312095e-08 -6.03978217e-08 -3.74310330e-06
-  -4.71828845e-06  6.54980962e-06]
- [-5.15340542e-09  1.29656422e-06  3.40814328e-07  1.34901115e-04
-   3.58838365e-07 -2.26616908e-06]
- [-1.98922102e-09  3.40814328e-07  2.00480217e-07  9.63705676e-05
-   1.38514897e-07 -1.15248787e-06]
- [-8.37084224e-07  1.34901115e-04  9.63705676e-05  4.80611423e-02
-   5.82885431e-05 -5.33684591e-04]
- [-1.58570753e-06  3.58838365e-07  1.38514897e-07  5.82885431e-05
-   1.03799617e-04 -1.38674007e-04]
- [ 2.11777815e-06 -2.26616908e-06 -1.15248787e-06 -5.33684591e-04
-  -1.38674007e-04  1.90071963e-04]]</t>
+          <t>[[ 5.27475505e-08 -2.45723307e-08 -3.24700937e-08 -2.08734122e-06
+  -4.55851459e-06  6.20778367e-06]
+ [-5.15341019e-09  1.29656081e-06  3.40813265e-07  1.34900873e-04
+   3.58838439e-07 -2.26616422e-06]
+ [-1.98922522e-09  3.40813265e-07  2.00479876e-07  9.63705349e-05
+   1.38515028e-07 -1.15248646e-06]
+ [-8.37087445e-07  1.34900873e-04  9.63705349e-05  4.80611864e-02
+   5.82886890e-05 -5.33684659e-04]
+ [-1.58570723e-06  3.58838439e-07  1.38515028e-07  5.82886890e-05
+   1.03799606e-04 -1.38673993e-04]
+ [ 2.11777777e-06 -2.26616422e-06 -1.15248646e-06 -5.33684659e-04
+  -1.38673993e-04  1.90071938e-04]]</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>1.372605298611185</v>
+        <v>1.374046983611787</v>
       </c>
       <c r="V7" t="n">
-        <v>15.27891176079387</v>
+        <v>15.27891287613236</v>
       </c>
       <c r="W7" t="n">
-        <v>1.328035547341052</v>
+        <v>1.32801666076223</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0411232514824938</v>
+        <v>0.04112324848055607</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.002934060328092796</v>
+        <v>0.00293405622290267</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.290884145903386</v>
+        <v>0.2908819807033615</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.01188874969085599</v>
+        <v>-0.01188873902478309</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.03305050412068586</v>
+        <v>0.03305050878635662</v>
       </c>
       <c r="AC7" t="n">
         <v>-1.009000299301225</v>
@@ -1539,6 +1538,8009 @@
         <v>1</v>
       </c>
       <c r="AO7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>206</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.407734375</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.418303514294592</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.032265625</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17.78578438470262</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2983541645901337</v>
+      </c>
+      <c r="J8" t="n">
+        <v>32.6743998214905</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[[ 2.05501150e-08  2.28633349e-09  4.78534173e-09  3.51998462e-07
+  -1.92265865e-06  4.21178305e-06]
+ [-1.40962593e-10  5.86087215e-07  5.02134984e-08  4.89487905e-06
+   1.61208381e-08 -3.61248950e-07]
+ [-7.59941474e-11  5.02134984e-08  5.08570098e-08  3.27876070e-05
+   8.70325759e-09 -2.95002957e-07]
+ [-4.27591586e-08  4.89487905e-06  3.27876070e-05  2.32615804e-02
+   4.89750363e-06 -1.83490441e-04]
+ [-8.00791846e-07  1.61208381e-08  8.70325759e-09  4.89750363e-06
+   8.53397890e-05 -1.88152654e-04]
+ [ 1.76550774e-06 -3.61248950e-07 -2.95002957e-07 -1.83490441e-04
+  -1.88152654e-04  4.16421514e-04]]</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.2647318843566837</v>
+      </c>
+      <c r="M8" t="n">
+        <v>20.30582349527488</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.204275708189183</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.03094277515335277</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.002556384367593514</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.5493886553464709</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.006006497029552126</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.02919281785817695</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>[[ 5.43671081e-08 -1.92217909e-08 -2.54217253e-08 -1.78953314e-06
+  -4.66119961e-06  6.31475676e-06]
+ [-3.76949943e-09  1.24418557e-06  3.28339724e-07  1.31373189e-04
+   2.61232972e-07 -2.07367658e-06]
+ [-1.45810894e-09  3.28339724e-07  1.95294613e-07  9.46287488e-05
+   1.01052478e-07 -1.07707994e-06]
+ [-6.18742662e-07  1.31373189e-04  9.46287488e-05  4.75084212e-02
+   4.28813351e-05 -5.04719999e-04]
+ [-1.55249908e-06  2.61232972e-07  1.01052478e-07  4.28813351e-05
+   1.01403331e-04 -1.35296845e-04]
+ [ 2.07092688e-06 -2.07367658e-06 -1.07707994e-06 -5.04719999e-04
+  -1.35296845e-04  1.85199364e-04]]</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>1.364115513733255</v>
+      </c>
+      <c r="V8" t="n">
+        <v>15.24397901085928</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.328146777395693</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.04121748857502142</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.002903962255001</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.2664914086641776</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.01212154300121173</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.03345106240311118</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-1.009001499920074</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.5045002586710446</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.513502337716941</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>86134</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>206</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4253125</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.426613312360808</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.03203125</v>
+      </c>
+      <c r="H9" t="n">
+        <v>17.58662576861403</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2982474621956466</v>
+      </c>
+      <c r="J9" t="n">
+        <v>32.65571603946004</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[[ 2.25235338e-08  2.69436326e-09  5.58020676e-09  4.06856439e-07
+  -2.11329715e-06  4.62785420e-06]
+ [-2.06291054e-11  5.78655275e-07  4.69666505e-08  3.99581277e-06
+   2.33263850e-09 -3.14941072e-07]
+ [-1.11958012e-11  4.69666505e-08  5.04967650e-08  3.34741225e-05
+   1.27839119e-09 -2.76823835e-07]
+ [-6.48294986e-09  3.99581277e-06  3.34741225e-05  2.42901871e-02
+   7.40723207e-07 -1.78073941e-04]
+ [-8.06332171e-07  2.33263850e-09  1.27839119e-09  7.40723207e-07
+   8.60358026e-05 -1.89645018e-04]
+ [ 1.77735835e-06 -3.14941072e-07 -2.76823835e-07 -1.78073941e-04
+  -1.89645018e-04  4.19611051e-04]]</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.2660960680802349</v>
+      </c>
+      <c r="M9" t="n">
+        <v>20.347761465857</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.204305858789178</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.03087900021691626</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.002487340027636039</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.5151153965666023</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.01124635163418724</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.04099670398673429</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>[[ 5.38294713e-08 -2.02688712e-08 -2.67981626e-08 -1.86309363e-06
+  -4.61558321e-06  6.26017190e-06]
+ [-1.73711397e-09  1.24121141e-06  3.25464107e-07  1.31577125e-04
+   1.19925069e-07 -1.87411356e-06]
+ [-6.71176076e-10  3.25464107e-07  1.94528358e-07  9.52741282e-05
+   4.63390018e-08 -1.00104918e-06]
+ [-2.87961961e-07  1.31577125e-04  9.52741282e-05  4.83243259e-02
+   1.98814601e-05 -4.77393741e-04]
+ [-1.56352565e-06  1.19925069e-07  4.63390018e-08  1.98814601e-05
+   1.01881305e-04 -1.35650332e-04]
+ [ 2.08154462e-06 -1.87411356e-06 -1.00104918e-06 -4.77393741e-04
+  -1.35650332e-04  1.85281545e-04]]</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>1.367499082821322</v>
+      </c>
+      <c r="V9" t="n">
+        <v>15.25439982363688</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.328102444878653</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.04118933147041102</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.002872475148010565</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.2553223764215669</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.009531374202653452</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.03001434816028593</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-1.008997788925591</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.5045016230134504</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.513498572143495</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>86202</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>206</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.42359375</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.434923110427024</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.033515625</v>
+      </c>
+      <c r="H10" t="n">
+        <v>17.62848373850775</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.2987013765125252</v>
+      </c>
+      <c r="J10" t="n">
+        <v>32.34877232059473</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[[ 2.01335666e-08  2.05144208e-09  4.30670113e-09  3.22158550e-07
+  -1.87091263e-06  4.10016612e-06]
+ [ 1.30232343e-09  5.20343816e-07  3.95280175e-08  2.10605064e-06
+  -1.51553150e-07  6.73075229e-08]
+ [ 7.40271071e-10  3.95280175e-08  4.62098766e-08  3.11922721e-05
+  -8.61329147e-08 -6.15888561e-08]
+ [ 4.37465320e-07  2.10605064e-06  3.11922721e-05  2.29689126e-02
+  -5.08998663e-05 -5.26833086e-05]
+ [-7.46789190e-07 -1.51553150e-07 -8.61329147e-08 -5.08998663e-05
+   8.15893760e-05 -1.79281757e-04]
+ [ 1.64127582e-06  6.73075229e-08 -6.15888561e-08 -5.26833086e-05
+  -1.79281757e-04  3.95405136e-04]]</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.2621270660343566</v>
+      </c>
+      <c r="M10" t="n">
+        <v>20.49115187960749</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.204218139909619</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.03066291902034323</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.002447351976078474</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4854408061768854</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.008996962329283311</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.03632263390430801</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>[[ 5.38951284e-08 -4.14582231e-08 -5.41785707e-08 -3.50694488e-06
+  -4.70937098e-06  6.51213223e-06]
+ [ 5.02207816e-09  1.51206030e-06  4.03331022e-07  1.46848458e-04
+  -3.52665153e-07 -1.60089445e-06]
+ [ 1.87525488e-09  4.03331022e-07  2.12673691e-07  9.39230509e-05
+  -1.31683214e-07 -8.48322174e-07]
+ [ 7.24202251e-07  1.46848458e-04  9.39230509e-05  4.33768741e-02
+  -5.08545013e-05 -3.75460373e-04]
+ [-1.52074730e-06 -3.52665153e-07 -1.31683214e-07 -5.08545013e-05
+   9.83744796e-05 -1.30082216e-04]
+ [ 2.01176845e-06 -1.60089445e-06 -8.48322174e-07 -3.75460373e-04
+  -1.30082216e-04  1.77051267e-04]]</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>1.365403411674149</v>
+      </c>
+      <c r="V10" t="n">
+        <v>15.24779194395916</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.32812990262933</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.04120718153993992</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.003190680595356905</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.4483489156788029</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.005231777284584556</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.0229719038400918</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-1.009000845036711</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.5045002040975025</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.513500700508793</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>86164</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>206</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.429453125</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.44323290849324</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.0321875</v>
+      </c>
+      <c r="H11" t="n">
+        <v>17.68645650538271</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.2978971188708212</v>
+      </c>
+      <c r="J11" t="n">
+        <v>32.64206690952735</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[[ 1.99957477e-08  2.16622474e-10  4.55392383e-10  3.39140650e-08
+  -1.85669245e-06  4.09013766e-06]
+ [ 1.47163597e-11  5.58456189e-07  4.48697958e-08  3.63700127e-06
+  -1.70570487e-09 -2.93425133e-07]
+ [ 8.25925993e-12  4.48697958e-08  4.90895673e-08  3.26405820e-05
+  -9.44840376e-10 -2.64339525e-07]
+ [ 4.80681602e-09  3.63700127e-06  3.26405820e-05  2.37319629e-02
+  -5.49441103e-07 -1.70878294e-04]
+ [-7.83986488e-07 -1.70570487e-09 -9.44840376e-10 -5.49441103e-07
+   8.39856744e-05 -1.85113644e-04]
+ [ 1.72799582e-06 -2.93425133e-07 -2.64339525e-07 -1.70878294e-04
+  -1.85113644e-04  4.09552380e-04]]</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.2643016506689966</v>
+      </c>
+      <c r="M11" t="n">
+        <v>20.36148458763634</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.20426619952095</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0308581885576005</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0024800231828903</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.5076018735630962</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.008454087350236122</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.03503717611672298</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>[[ 5.21453831e-08 -1.77127882e-08 -2.34839469e-08 -1.63265435e-06
+  -4.44607524e-06  6.01929885e-06]
+ [-8.51580052e-10  1.25709307e-06  3.32763854e-07  1.32190097e-04
+   5.86272936e-08 -1.82023070e-06]
+ [-3.25996895e-10  3.32763854e-07  1.93707855e-07  9.29927810e-05
+   2.24461805e-08 -9.63761447e-07]
+ [-1.37000787e-07  1.32190097e-04  9.29927810e-05  4.62892388e-02
+   9.43315908e-06 -4.51982012e-04]
+ [-1.51951492e-06  5.86272936e-08  2.24461805e-08  9.43315908e-06
+   9.83393207e-05 -1.30818919e-04]
+ [ 2.02126815e-06 -1.82023070e-06 -9.63761447e-07 -4.51982012e-04
+  -1.30818919e-04  1.78656071e-04]]</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>1.360679417022115</v>
+      </c>
+      <c r="V11" t="n">
+        <v>15.205627309208</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.328191801174144</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.04132144751025632</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.002929353813661908</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.2848251141524669</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.01394088399792145</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.03578275877689166</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-1.009000626742446</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.5044996583627243</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.51349889958392</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>86319</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13</v>
+      </c>
+      <c r="C12" t="n">
+        <v>206</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.433828125</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4515427065594561</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.032421875</v>
+      </c>
+      <c r="H12" t="n">
+        <v>17.49418460757126</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.2983711882020088</v>
+      </c>
+      <c r="J12" t="n">
+        <v>32.70170115581662</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[[ 2.04551076e-08  2.29579533e-09  4.78073811e-09  3.50404141e-07
+  -1.91224780e-06  4.18889547e-06]
+ [-7.35021542e-11  5.78504887e-07  5.02427911e-08  5.60589034e-06
+   8.28387722e-09 -3.43583417e-07]
+ [-3.93214266e-11  5.02427911e-08  5.07464774e-08  3.28148844e-05
+   4.44356703e-09 -2.84423316e-07]
+ [-2.21981785e-08  5.60589034e-06  3.28148844e-05  2.32874210e-02
+   2.50901299e-06 -1.78042309e-04]
+ [-7.93675749e-07  8.28387722e-09  4.44356703e-09  2.50901299e-06
+   8.35472441e-05 -1.84177564e-04]
+ [ 1.74961782e-06 -3.43583417e-07 -2.84423316e-07 -1.78042309e-04
+  -1.84177564e-04  4.07595300e-04]]</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.2645921316889788</v>
+      </c>
+      <c r="M12" t="n">
+        <v>20.20387193700004</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.204272619482603</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.03109891671641897</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.002542626765493624</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.5388308864374665</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.006578718039363229</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.03053617631170938</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>[[ 5.53453263e-08 -2.35591774e-08 -3.08912081e-08 -1.97631088e-06
+  -4.76368260e-06  6.47280883e-06]
+ [-1.29370561e-09  1.39224582e-06  3.68002830e-07  1.47313508e-04
+   8.92494203e-08 -2.05108129e-06]
+ [-4.98253451e-10  3.68002830e-07  2.17446800e-07  1.05250107e-04
+   3.43765985e-08 -1.09471011e-06]
+ [-2.11192107e-07  1.47313508e-04  1.05250107e-04  5.27829317e-02
+   1.45711846e-05 -5.17035043e-04]
+ [-1.72240801e-06  8.92494203e-08  3.43765985e-08  1.45711846e-05
+   1.11944613e-04 -1.48963480e-04]
+ [ 2.29182211e-06 -2.05108129e-06 -1.09471011e-06 -5.17035043e-04
+  -1.48963480e-04  2.03430254e-04]]</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>1.364736910204845</v>
+      </c>
+      <c r="V12" t="n">
+        <v>15.21976448833103</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.328138635454557</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.04128306526685677</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.002904729876973594</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.2677763544068882</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.01432462219106637</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.0363029765258497</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-1.009001827362074</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.5045011318493344</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.513503811207303</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>86216</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>206</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.44921875</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.4598525046256721</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.034765625</v>
+      </c>
+      <c r="H13" t="n">
+        <v>17.87052819931295</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.2980841728495727</v>
+      </c>
+      <c r="J13" t="n">
+        <v>32.63773925988927</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>[[ 2.14089726e-08  1.90967080e-10  4.00089732e-10  3.02795669e-08
+  -1.98230079e-06  4.36728380e-06]
+ [ 5.24626568e-11  6.03945388e-07  4.99247138e-08  4.32988771e-06
+  -6.00361837e-09 -3.12734817e-07]
+ [ 2.84148432e-11  4.99247138e-08  5.11382522e-08  3.35796581e-05
+  -3.23890649e-09 -2.70568976e-07]
+ [ 1.62955031e-08  4.32988771e-06  3.35796581e-05  2.42550486e-02
+  -1.85697154e-06 -1.72994633e-04]
+ [-8.20486283e-07 -6.00361837e-09 -3.23890649e-09 -1.85697154e-06
+   8.71327214e-05 -1.92037356e-04]
+ [ 1.80833518e-06 -3.12734817e-07 -2.70568976e-07 -1.72994633e-04
+  -1.92037356e-04  4.24850191e-04]]</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.2635232376995145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>20.37388216462207</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.20424899589141</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.03083941124431323</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.002513660514033155</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.5432217004556492</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.005321464044016005</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.02780906253455485</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>[[ 6.04050947e-08 -2.22980699e-08 -2.91953819e-08 -1.90136561e-06
+  -5.18192654e-06  7.02154575e-06]
+ [-6.46143879e-11  1.39323606e-06  3.65563593e-07  1.43299126e-04
+   4.42781672e-09 -1.91078219e-06]
+ [-2.43218921e-11  3.65563593e-07  2.05751519e-07  9.76778521e-05
+   1.66943434e-09 -9.94142566e-07]
+ [-1.01003607e-08  1.43299126e-04  9.76778521e-05  4.81876569e-02
+   6.93352921e-07 -4.62460413e-04]
+ [-1.59606934e-06  4.42781672e-09  1.66943434e-09  6.93352921e-07
+   1.02439201e-04 -1.36161220e-04]
+ [ 2.12147116e-06 -1.91078219e-06 -9.94142566e-07 -4.62460413e-04
+  -1.36161220e-04  1.85897468e-04]]</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>1.356683879765086</v>
+      </c>
+      <c r="V13" t="n">
+        <v>15.22808574257322</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.328244159238979</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.04126050649697658</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.002968710860049413</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.328674986999837</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.01228461177142472</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.03337384272969188</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-1.008998771245003</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.5045004223917441</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.513506103309124</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>86109</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>206</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.46625</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.468162302691888</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.031328125</v>
+      </c>
+      <c r="H14" t="n">
+        <v>17.57995689745068</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.2983045111852842</v>
+      </c>
+      <c r="J14" t="n">
+        <v>32.31891449568883</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>[[ 2.12663131e-08  2.38659525e-09  4.91674467e-09  3.50767394e-07
+  -1.99965590e-06  4.38090422e-06]
+ [-3.66496177e-10  6.11105449e-07  4.81814962e-08  2.03257727e-06
+   4.29432071e-08 -4.09684194e-07]
+ [-1.97202165e-10  4.81814962e-08  4.81611154e-08  3.16431071e-05
+   2.31203552e-08 -3.14329774e-07]
+ [-1.12929470e-07  2.03257727e-06  3.16431071e-05  2.31206082e-02
+   1.32406761e-05 -1.97075755e-04]
+ [-8.01136774e-07  4.29432071e-08  2.31203552e-08  1.32406761e-05
+   8.70845883e-05 -1.92080441e-04]
+ [ 1.76694988e-06 -4.09684194e-07 -3.14329774e-07 -1.97075755e-04
+  -1.92080441e-04  4.25205342e-04]]</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.2626712859162494</v>
+      </c>
+      <c r="M14" t="n">
+        <v>20.70651205782605</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.204230167295466</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.03034400622196943</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.002530678214044406</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.5855223747010495</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-0.004578298541541305</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.02600753614888994</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>[[ 5.36478829e-08 -3.46245226e-08 -4.54381140e-08 -3.04195349e-06
+  -4.67144475e-06  6.42361033e-06]
+ [-1.08218814e-08  1.42551306e-06  3.79701458e-07  1.45897365e-04
+   7.49330492e-07 -2.96855161e-06]
+ [-4.10120620e-09  3.79701458e-07  2.12760458e-07  9.88564016e-05
+   2.83972044e-07 -1.40229862e-06]
+ [-1.66652184e-06  1.45897365e-04  9.88564016e-05  4.77655754e-02
+   1.15390474e-04 -6.20083651e-04]
+ [-1.61754128e-06  7.49330492e-07  2.83972044e-07  1.15390474e-04
+   1.04542974e-04 -1.40488402e-04]
+ [ 2.17212312e-06 -2.96855161e-06 -1.40229862e-06 -6.20083651e-04
+  -1.40488402e-04  1.93840392e-04]]</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>1.350216244339575</v>
+      </c>
+      <c r="V14" t="n">
+        <v>15.19940044992175</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.328328920764868</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.04133837599635014</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.003029989570348369</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.3438623211823911</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>-0.01429104528951769</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.03579248515273981</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-1.008999971860216</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.5045017321611615</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.513504793535805</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>86296</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>206</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.46453125</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.476472100758104</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.03484375</v>
+      </c>
+      <c r="H15" t="n">
+        <v>17.55217176688749</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.2983125519066641</v>
+      </c>
+      <c r="J15" t="n">
+        <v>32.2366523954183</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[[ 2.08888270e-08  2.45121959e-09  5.01775112e-09  3.61228467e-07
+  -1.95230854e-06  4.27606774e-06]
+ [-4.06153035e-10  5.86297495e-07  4.97714503e-08  4.29013880e-06
+   4.61063366e-08 -4.20437995e-07]
+ [-2.10195903e-10  4.97714503e-08  4.60521052e-08  2.97870071e-05
+   2.38733598e-08 -3.03245769e-07]
+ [-1.18428668e-07  4.29013880e-06  2.97870071e-05  2.14381990e-02
+   1.34513113e-05 -1.86982414e-04]
+ [-7.50865094e-07  4.61063366e-08  2.38733598e-08  1.34513113e-05
+   7.88408601e-05 -1.73913413e-04]
+ [ 1.65620921e-06 -4.20437995e-07 -3.03245769e-07 -1.86982414e-04
+  -1.73913413e-04  3.85084236e-04]]</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.2644533717985564</v>
+      </c>
+      <c r="M15" t="n">
+        <v>20.45716237282248</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.204269552726191</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.03071386535762581</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.002555315976762391</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.6022834926093458</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.00720025681195099</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.03155158699320538</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>[[ 5.24497832e-08 -3.51172807e-08 -4.55650033e-08 -3.17428367e-06
+  -4.53031370e-06  6.23824706e-06]
+ [-1.07308917e-08  1.43681331e-06  3.80154167e-07  1.53584465e-04
+   7.20880674e-07 -2.94399941e-06]
+ [-4.02850345e-09  3.80154167e-07  2.17061259e-07  1.05294408e-04
+   2.70624023e-07 -1.40386018e-06]
+ [-1.71054363e-06  1.53584465e-04  1.05294408e-04  5.29067241e-02
+   1.14908649e-04 -6.49216956e-04]
+ [-1.71506934e-06  7.20880674e-07  2.70624023e-07  1.14908649e-04
+   1.08409448e-04 -1.45568376e-04]
+ [ 2.30155849e-06 -2.94399941e-06 -1.40386018e-06 -6.49216956e-04
+  -1.45568376e-04  2.00608369e-04]]</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>1.360997735684366</v>
+      </c>
+      <c r="V15" t="n">
+        <v>15.10454707610778</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.328187630060532</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.04159797228953833</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.002885550666872773</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.2687577939312362</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.01329750158699216</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.03504073535661457</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-1.008999426125674</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.5044993309224242</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.513501027950139</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>86159</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>206</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4803125</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.48478189882432</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.03515625</v>
+      </c>
+      <c r="H16" t="n">
+        <v>17.40586804217362</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.298234188117876</v>
+      </c>
+      <c r="J16" t="n">
+        <v>32.37404841621837</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>[[ 2.11333609e-08  2.34006321e-09  4.83424534e-09  3.54044950e-07
+  -1.97000255e-06  4.31591021e-06]
+ [-4.64163713e-10  6.46867630e-07  5.39763467e-08  3.89775581e-06
+   5.33511316e-08 -4.64609984e-07]
+ [-2.42382062e-10  5.39763467e-08  5.05328621e-08  3.26941930e-05
+   2.78732052e-08 -3.36978618e-07]
+ [-1.36582182e-07  3.89775581e-06  3.26941930e-05  2.35774658e-02
+   1.57072045e-05 -2.07610901e-04]
+ [-8.29448177e-07  5.33511316e-08  2.78732052e-08  1.57072045e-05
+   8.81638429e-05 -1.94485676e-04]
+ [ 1.82960152e-06 -4.64609984e-07 -3.36978618e-07 -2.07610901e-04
+  -1.94485676e-04  4.30628203e-04]]</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.2633454084825071</v>
+      </c>
+      <c r="M16" t="n">
+        <v>20.55243823632905</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.204245065742813</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.03057148370879547</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.002559953672707714</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.6058334961718591</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.007373730177233648</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.03193173659542656</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>[[ 5.44220795e-08 -3.49666618e-08 -4.58262675e-08 -2.98951305e-06
+  -4.71037643e-06  6.47542123e-06]
+ [-6.85994521e-09  1.45525055e-06  3.82267441e-07  1.46612181e-04
+   4.77367610e-07 -2.62255042e-06]
+ [-2.59719442e-09  3.82267441e-07  2.13267724e-07  9.94351440e-05
+   1.80734915e-07 -1.26934677e-06]
+ [-1.05904877e-06  1.46612181e-04  9.94351440e-05  4.82703191e-02
+   7.36975743e-05 -5.68205505e-04]
+ [-1.63193096e-06  4.77367610e-07  1.80734915e-07  7.36975743e-05
+   1.05822910e-04 -1.41662765e-04]
+ [ 2.18360060e-06 -2.62255042e-06 -1.26934677e-06 -5.68205505e-04
+  -1.41662765e-04  1.94731186e-04]]</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>1.344428176849699</v>
+      </c>
+      <c r="V16" t="n">
+        <v>15.27859110203726</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.328404785393841</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.04112411455491979</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.003029752462149949</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.3621081989183382</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-0.01750576587363922</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.04004165962727241</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>-1.009001063331071</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.5045002586710446</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.513499554465197</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>86207</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" t="n">
+        <v>206</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.48640625</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4930916968905361</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.036796875</v>
+      </c>
+      <c r="H17" t="n">
+        <v>17.45044188465115</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2980810550664938</v>
+      </c>
+      <c r="J17" t="n">
+        <v>32.35145984904418</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[[ 2.38373856e-08  2.36651297e-09  4.90057949e-09  3.66690533e-07
+  -2.20354676e-06  4.83008235e-06]
+ [ 1.12947075e-09  6.48670216e-07  5.78945674e-08  6.08438985e-06
+  -1.26842000e-07 -8.55229736e-08]
+ [ 5.68887555e-10  5.78945674e-08  5.01218554e-08  3.18013423e-05
+  -6.38745120e-08 -1.31555276e-07]
+ [ 3.14157233e-07  6.08438985e-06  3.18013423e-05  2.25537052e-02
+  -3.52727933e-05 -8.99611554e-05]
+ [-8.08409374e-07 -1.26842000e-07 -6.38745120e-08 -3.52727933e-05
+   8.35823692e-05 -1.83801343e-04]
+ [ 1.77803566e-06 -8.55229736e-08 -1.31555276e-07 -8.99611554e-05
+  -1.83801343e-04  4.05758440e-04]]</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.2600718596455165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>20.36194360230704</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.204172720554623</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.03085749292846333</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.002596184303391105</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.630952609621375</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-0.006378989814272241</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.02947657036736359</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>[[ 5.69414269e-08 -4.23579550e-08 -5.47719608e-08 -3.36421423e-06
+  -4.96119796e-06  6.84550688e-06]
+ [-2.50111520e-09  1.59374867e-06  4.22830545e-07  1.59396188e-04
+   1.69272585e-07 -2.39276472e-06]
+ [-9.12556169e-10  4.22830545e-07  2.19912770e-07  9.96997048e-05
+   6.17639388e-08 -1.13728069e-06]
+ [-3.61760058e-07  1.59396188e-04  9.96997048e-05  4.71415185e-02
+   2.44849507e-05 -5.01558297e-04]
+ [-1.59865262e-06  1.69272585e-07  6.17639388e-08  2.44849507e-05
+   1.00018878e-04 -1.33332226e-04]
+ [ 2.13071725e-06 -2.39276472e-06 -1.13728069e-06 -5.01558297e-04
+  -1.33332226e-04  1.82928713e-04]]</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>1.344419399571772</v>
+      </c>
+      <c r="V17" t="n">
+        <v>15.11596847982815</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.328404900444853</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.04156654147277648</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.003094814892268085</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.4112759082488537</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-0.01249687436629713</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.03295072719133221</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-1.00900280968935</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.5044990580558322</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.513499227024488</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>86112</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" t="n">
+        <v>206</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.49515625</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.501401494956752</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.03609375</v>
+      </c>
+      <c r="H18" t="n">
+        <v>17.70060453508612</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2986287006348143</v>
+      </c>
+      <c r="J18" t="n">
+        <v>32.34952663925156</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[[ 2.04151692e-08  2.43802758e-09  4.98716146e-09  3.60725005e-07
+  -1.90343597e-06  4.16852715e-06]
+ [-2.25517174e-10  6.45102896e-07  5.56886247e-08  5.40872588e-06
+   2.52708339e-08 -4.10138184e-07]
+ [-1.14706925e-10  5.56886247e-08  4.99846761e-08  3.22846304e-05
+   1.28664055e-08 -3.00071394e-07]
+ [-6.45156671e-08  5.40872588e-06  3.22846304e-05  2.32247797e-02
+   7.23718338e-06 -1.86290084e-04]
+ [-8.14293669e-07  2.52708339e-08  1.28664055e-08  7.23718338e-06
+   8.43292272e-05 -1.85948610e-04]
+ [ 1.79548319e-06 -4.10138184e-07 -3.00071394e-07 -1.86290084e-04
+  -1.85948610e-04  4.11594106e-04]]</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.2654366967855926</v>
+      </c>
+      <c r="M18" t="n">
+        <v>20.39683173771406</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.204291285546364</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.03080471216302618</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.002554760727875611</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.6106604536968924</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.007244818858207805</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.03163239883389185</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>[[ 5.83933803e-08 -4.12459776e-08 -5.35050768e-08 -3.30373062e-06
+  -5.10254885e-06  7.02841515e-06]
+ [-8.56922553e-09  1.34529667e-06  3.55313266e-07  1.41246024e-04
+   5.81749518e-07 -2.62646578e-06]
+ [-3.22533714e-09  3.55313266e-07  2.01385678e-07  9.64701634e-05
+   2.18962093e-07 -1.26064222e-06]
+ [-1.35196124e-06  1.41246024e-04  9.64701634e-05  4.79403181e-02
+   9.17816050e-05 -5.77246306e-04]
+ [-1.57414553e-06  5.81749518e-07  2.18962093e-07  9.17816050e-05
+   1.00252197e-04 -1.34452705e-04]
+ [ 2.11000100e-06 -2.62646578e-06 -1.26064222e-06 -5.77246306e-04
+  -1.34452705e-04  1.85104144e-04]]</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>1.340076075754215</v>
+      </c>
+      <c r="V18" t="n">
+        <v>15.15506935645217</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.328461834412804</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.04145929760792921</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.002931093338247277</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.298036090145158</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.01668387039019213</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.0392703463305129</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-1.009002154804287</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.5044993309224242</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.513504138649995</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>86120</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>13</v>
+      </c>
+      <c r="C19" t="n">
+        <v>206</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.498671875</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5097112930229681</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.0340625</v>
+      </c>
+      <c r="H19" t="n">
+        <v>17.584681764259</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2979279231679719</v>
+      </c>
+      <c r="J19" t="n">
+        <v>32.28776153316544</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[[ 2.10154240e-08  2.23921656e-09  4.58089879e-09  3.31067665e-07
+  -1.95603900e-06  4.28649198e-06]
+ [-2.49703064e-10  6.97354997e-07  6.28826430e-08  5.24677874e-06
+   2.85966651e-08 -4.53320617e-07]
+ [-1.21703078e-10  6.28826430e-08  4.93318869e-08  3.04913528e-05
+   1.39510957e-08 -3.00190432e-07]
+ [-6.53387089e-08  5.24677874e-06  3.04913528e-05  2.14843398e-02
+   7.49069551e-06 -1.78027957e-04]
+ [-8.11722863e-07  2.85966651e-08  1.39510957e-08  7.49069551e-06
+   8.48840857e-05 -1.87177770e-04]
+ [ 1.78985503e-06 -4.53320617e-07 -3.00190432e-07 -1.78027957e-04
+  -1.87177770e-04  4.14310848e-04]]</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.2609437704161333</v>
+      </c>
+      <c r="M19" t="n">
+        <v>20.61360746887636</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.204191989254448</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.03048076527442521</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.002666617312385086</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.7069008570035793</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.005849969777889073</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.02792643157569668</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>[[ 5.46449781e-08 -3.09936489e-08 -4.00093147e-08 -2.72417901e-06
+  -4.67294759e-06  6.40045020e-06]
+ [-6.79041863e-09  1.50496848e-06  3.98715050e-07  1.47651208e-04
+   4.76327437e-07 -2.68966416e-06]
+ [-2.55041625e-09  3.98715050e-07  2.14575493e-07  9.65792102e-05
+   1.78906342e-07 -1.27186589e-06]
+ [-1.00370232e-06  1.47651208e-04  9.65792102e-05  4.53985787e-02
+   7.04075764e-05 -5.49786191e-04]
+ [-1.57539769e-06  4.76327437e-07  1.78906342e-07  7.04075764e-05
+   1.02201624e-04 -1.36832347e-04]
+ [ 2.10810145e-06 -2.68966416e-06 -1.27186589e-06 -5.49786191e-04
+  -1.36832347e-04  1.88298733e-04]]</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>1.334657306328668</v>
+      </c>
+      <c r="V19" t="n">
+        <v>15.27397625897213</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.328532872580423</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.04113653969763612</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.003136409391661274</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.420867356264368</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-0.01781136346733958</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.03999679065054884</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>-1.009002700541781</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.5045005861125494</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.513500209347039</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>86203</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>13</v>
+      </c>
+      <c r="C20" t="n">
+        <v>206</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.51328125</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.518021091089184</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.034609375</v>
+      </c>
+      <c r="H20" t="n">
+        <v>17.44606840935035</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.298119608172167</v>
+      </c>
+      <c r="J20" t="n">
+        <v>32.32855201388786</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[[ 2.16695881e-08  2.39029579e-09  4.83072064e-09  3.36724356e-07
+  -2.03045444e-06  4.44931276e-06]
+ [-4.10179828e-10  6.43421827e-07  5.38612136e-08  3.15625173e-06
+   4.75913396e-08 -4.47618044e-07]
+ [-2.09428340e-10  5.38612136e-08  4.72485061e-08  3.02248686e-05
+   2.43124776e-08 -3.12118656e-07]
+ [-1.16507004e-07  3.15625173e-06  3.02248686e-05  2.17992672e-02
+   1.35259705e-05 -1.90206670e-04]
+ [-7.89698728e-07  4.75913396e-08  2.43124776e-08  1.35259705e-05
+   8.42597111e-05 -1.85860397e-04]
+ [ 1.74180345e-06 -4.47618044e-07 -3.12118656e-07 -1.90206670e-04
+  -1.85860397e-04  4.11479856e-04]]</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.2603219546416513</v>
+      </c>
+      <c r="M20" t="n">
+        <v>20.71288296457213</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.204178247468072</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.03033467295656773</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.00259349932726847</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.6525278078001286</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-0.006568793850737289</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.03008169686937979</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>[[ 5.88737863e-08 -3.74180470e-08 -4.85611889e-08 -3.11256655e-06
+  -5.09688577e-06  7.00065790e-06]
+ [-5.60683751e-09  1.39688577e-06  3.75538637e-07  1.46579318e-04
+   3.77376473e-07 -2.44384501e-06]
+ [-2.08538656e-09  3.75538637e-07  2.06493959e-07  9.64749180e-05
+   1.40362625e-07 -1.17729139e-06]
+ [-8.52197934e-07  1.46579318e-04  9.64749180e-05  4.67900730e-02
+   5.73595903e-05 -5.30003794e-04]
+ [-1.55364832e-06  3.77376473e-07  1.40362625e-07  5.73595903e-05
+   9.76849109e-05 -1.30631611e-04]
+ [ 2.07686192e-06 -2.44384501e-06 -1.17729139e-06 -5.30003794e-04
+  -1.30631611e-04  1.79563749e-04]]</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>1.336518910895301</v>
+      </c>
+      <c r="V20" t="n">
+        <v>15.04336686635587</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.328508466740464</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.04176714802609635</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.002994446987624767</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.3216755053468882</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>-0.01465954847494908</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.03632435707738495</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-1.009000517595348</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.5045004223917441</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.513504793535805</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>86133</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>206</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.519140625</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5263308891554002</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.034609375</v>
+      </c>
+      <c r="H21" t="n">
+        <v>17.42674716773385</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.2979873110386059</v>
+      </c>
+      <c r="J21" t="n">
+        <v>32.34904723473918</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[[ 2.22969908e-08  2.67511910e-09  5.39710304e-09  3.88291187e-07
+  -2.07111384e-06  4.53597020e-06]
+ [-3.05165429e-10  7.21916594e-07  6.40225559e-08  7.00463617e-06
+   3.37249000e-08 -4.77254476e-07]
+ [-1.51120441e-10  6.40225559e-08  5.43689137e-08  3.48648057e-05
+   1.67141999e-08 -3.32084091e-07]
+ [-8.43318604e-08  7.00463617e-06  3.48648057e-05  2.49952183e-02
+   9.32793133e-06 -2.04321880e-04]
+ [-8.85474788e-07  3.37249000e-08  1.67141999e-08  9.32793133e-06
+   9.01385472e-05 -1.98774833e-04]
+ [ 1.95257975e-06 -4.77254476e-07 -3.32084091e-07 -2.04321880e-04
+  -1.98774833e-04  4.40045136e-04]]</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.2642948483156826</v>
+      </c>
+      <c r="M21" t="n">
+        <v>20.34058394017082</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.204266049181636</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.03088989640445308</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.002567397315025997</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.6331283130839933</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-0.004571712219454455</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.02574927769861491</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>[[ 5.68334759e-08 -3.82480722e-08 -4.91730731e-08 -3.12506059e-06
+  -4.86878401e-06  6.69884685e-06]
+ [-5.61372285e-09  1.52532940e-06  4.07087396e-07  1.58630038e-04
+   3.74075629e-07 -2.59524273e-06]
+ [-2.05665158e-09  4.07087396e-07  2.18127011e-07  1.01669957e-04
+   1.37049721e-07 -1.22785671e-06]
+ [-8.38316194e-07  1.58630038e-04  1.01669957e-04  4.92408681e-02
+   5.58632511e-05 -5.52087107e-04]
+ [-1.63155149e-06  3.74075629e-07  1.37049721e-07  5.58632511e-05
+   1.01276534e-04 -1.35389692e-04]
+ [ 2.18029644e-06 -2.59524273e-06 -1.22785671e-06 -5.52087107e-04
+  -1.35389692e-04  1.86130720e-04]]</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
+        <v>1.339543862601267</v>
+      </c>
+      <c r="V21" t="n">
+        <v>15.02955555218928</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.328468811204238</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.04180552968024625</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.003000817757335472</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.3432879023985663</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>-0.01676389564745573</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.03900693784529</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>-1.008999971860216</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.5045005861125494</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.513502010275028</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>86113</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>13</v>
+      </c>
+      <c r="C22" t="n">
+        <v>206</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5307031250000001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.5346406872216161</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.031171875</v>
+      </c>
+      <c r="H22" t="n">
+        <v>17.46560660736946</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2975296236569953</v>
+      </c>
+      <c r="J22" t="n">
+        <v>32.32513267190579</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[[ 2.23352424e-08  2.47066217e-09  5.09177076e-09  3.82039771e-07
+  -2.05944994e-06  4.51161908e-06]
+ [-2.46919595e-10  6.56701907e-07  6.00832597e-08  6.87446956e-06
+   2.74062425e-08 -4.35346637e-07]
+ [-1.21307698e-10  6.00832597e-08  4.94570552e-08  3.11026077e-05
+   1.34764530e-08 -2.98173528e-07]
+ [-6.63510902e-08  6.87446956e-06  3.11026077e-05  2.19526159e-02
+   7.37181101e-06 -1.80112227e-04]
+ [-7.95929257e-07  2.74062425e-08  1.34764530e-08  7.37181101e-06
+   8.11541318e-05 -1.78953355e-04]
+ [ 1.75503922e-06 -4.35346637e-07 -2.98173528e-07 -1.80112227e-04
+  -1.78953355e-04  3.96158636e-04]]</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.2642035516426389</v>
+      </c>
+      <c r="M22" t="n">
+        <v>20.31810144835363</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.204264031429094</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.03092407685408378</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.002613519562521256</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.6536209215993832</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-0.005132213763721157</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.0265547723044581</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>[[ 5.69532204e-08 -3.51882946e-08 -4.50746810e-08 -2.89261230e-06
+  -4.90720210e-06  6.73204048e-06]
+ [-7.37989892e-09  1.28726098e-06  3.36591117e-07  1.38250815e-04
+   4.93674455e-07 -2.42081270e-06]
+ [-2.76922443e-09  3.36591117e-07  1.94009436e-07  9.58319004e-05
+   1.85246676e-07 -1.18047023e-06]
+ [-1.19787682e-06  1.38250815e-04  9.58319004e-05  4.89989203e-02
+   8.01314574e-05 -5.58847988e-04]
+ [-1.56269978e-06  4.93674455e-07  1.85246676e-07  8.01314574e-05
+   9.85813459e-05 -1.32060966e-04]
+ [ 2.09250191e-06 -2.42081270e-06 -1.18047023e-06 -5.58847988e-04
+  -1.32060966e-04  1.81528022e-04]]</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
+        <v>1.330370665104774</v>
+      </c>
+      <c r="V22" t="n">
+        <v>15.13715803086246</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.328589074326667</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.04150835509789281</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.002835139349619245</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.2522141996490302</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>-0.01160022310670539</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.03285313675016376</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>-1.009001390772787</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.5044999312299654</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.513501682833256</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>86240</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>13</v>
+      </c>
+      <c r="C23" t="n">
+        <v>206</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.53859375</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.5429504852878322</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.033203125</v>
+      </c>
+      <c r="H23" t="n">
+        <v>17.42861476897183</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.2980023719986624</v>
+      </c>
+      <c r="J23" t="n">
+        <v>32.2977507065693</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[[ 2.11831064e-08  2.46650706e-09  4.99608069e-09  3.60218751e-07
+  -1.97064394e-06  4.31662020e-06]
+ [-1.84493722e-10  6.17355360e-07  5.36986809e-08  6.32548042e-06
+   2.01496201e-08 -3.86394845e-07]
+ [-9.30044971e-11  5.36986809e-08  4.85069529e-08  3.17624513e-05
+   1.01690713e-08 -2.85191202e-07]
+ [-5.30753296e-08  6.32548042e-06  3.17624513e-05  2.30204599e-02
+   5.80376305e-06 -1.79875068e-04]
+ [-7.85978144e-07  2.01496201e-08  1.01690713e-08  5.80376305e-06
+   7.95622560e-05 -1.75426078e-04]
+ [ 1.73294910e-06 -3.86394845e-07 -2.85191202e-07 -1.79875068e-04
+  -1.75426078e-04  3.88308447e-04]]</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.2632941474581041</v>
+      </c>
+      <c r="M23" t="n">
+        <v>20.235630873273</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.204243932841349</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.03105010832886041</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.0025121302202825</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.5864719626229042</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.007333482576742448</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.03198214616083785</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>[[ 5.93737087e-08 -3.50050658e-08 -4.48085652e-08 -2.83421357e-06
+  -5.11028170e-06  6.99999380e-06]
+ [-6.11857814e-09  1.57690813e-06  4.25788820e-07  1.65671184e-04
+   4.01130873e-07 -2.71573808e-06]
+ [-2.21246859e-09  4.25788820e-07  2.23580894e-07  1.03291723e-04
+   1.45050965e-07 -1.26101158e-06]
+ [-8.93757915e-07  1.65671184e-04  1.03291723e-04  4.95551332e-02
+   5.85954843e-05 -5.61777156e-04]
+ [-1.63886258e-06  4.01130873e-07  1.45050965e-07  5.85954843e-05
+   9.99718043e-05 -1.33693104e-04]
+ [ 2.19077804e-06 -2.71573808e-06 -1.26101158e-06 -5.61777156e-04
+  -1.33693104e-04  1.84015456e-04]]</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
+        <v>1.322667816134393</v>
+      </c>
+      <c r="V23" t="n">
+        <v>14.90604714960592</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.328690077598726</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.04215192159341653</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.003012511871463195</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.3413499024311331</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.01578943581138894</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.03764920495107695</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-1.008998989538465</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.5044997129361486</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1.513500700508793</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>86105</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>13</v>
+      </c>
+      <c r="C24" t="n">
+        <v>206</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5434375</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5512602833540481</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.033203125</v>
+      </c>
+      <c r="H24" t="n">
+        <v>17.31668596766091</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2983027610107688</v>
+      </c>
+      <c r="J24" t="n">
+        <v>32.3667171178118</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[[ 2.08962637e-08  2.48496696e-09  5.07300124e-09  3.74561760e-07
+  -1.93068783e-06  4.22808444e-06]
+ [-2.20748249e-10  6.19989255e-07  5.49753695e-08  6.58555821e-06
+   2.42086460e-08 -4.01479405e-07]
+ [-1.10768810e-10  5.49753695e-08  4.86190030e-08  3.14380572e-05
+   1.21592361e-08 -2.90189202e-07]
+ [-6.23924910e-08  6.58555821e-06  3.14380572e-05  2.25605638e-02
+   6.84946946e-06 -1.80462460e-04]
+ [-7.82848192e-07  2.42086460e-08  1.21592361e-08  6.84946946e-06
+   7.94014994e-05 -1.75082875e-04]
+ [ 1.72614843e-06 -4.01479405e-07 -2.90189202e-07 -1.80462460e-04
+  -1.75082875e-04  3.87579467e-04]]</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.2660523679060001</v>
+      </c>
+      <c r="M24" t="n">
+        <v>20.23178501136746</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.204304892933996</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.03105601064685745</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.002542750565953397</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.6012350505912782</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-0.008815504625562602</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.0351106946986417</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>[[ 6.26458176e-08 -3.79185332e-08 -4.88646803e-08 -3.03439133e-06
+  -5.40248703e-06  7.40606513e-06]
+ [-3.39621280e-09  1.47989845e-06  3.92135714e-07  1.50626224e-04
+   2.28206747e-07 -2.32077739e-06]
+ [-1.24183491e-09  3.92135714e-07  2.07253795e-07  9.56133598e-05
+   8.34475985e-08 -1.10550533e-06]
+ [-5.00959016e-07  1.50626224e-04  9.56133598e-05  4.59232364e-02
+   3.36631469e-05 -4.94570655e-04]
+ [-1.53678642e-06  2.28206747e-07  8.34475985e-08  3.36631469e-05
+   9.58418824e-05 -1.27888172e-04]
+ [ 2.05011927e-06 -2.32077739e-06 -1.10550533e-06 -4.94570655e-04
+  -1.27888172e-04  1.75541923e-04]]</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>1.323388471980369</v>
+      </c>
+      <c r="V24" t="n">
+        <v>15.09371263500619</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.328680627379124</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.04162783179406283</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.003039902510590576</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.3780419392295925</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-0.01661785012347371</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.03864549564236251</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>-1.009000299301225</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.5045002586710446</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.513500045626525</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>86068</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>13</v>
+      </c>
+      <c r="C25" t="n">
+        <v>206</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.54734375</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.5595700814202642</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.0359375</v>
+      </c>
+      <c r="H25" t="n">
+        <v>17.41201560629077</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2978385479110234</v>
+      </c>
+      <c r="J25" t="n">
+        <v>32.35508969963169</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[[ 2.10750012e-08  2.62098399e-09  5.20650544e-09  3.63450716e-07
+  -1.95969275e-06  4.29156779e-06]
+ [-3.48527083e-10  7.10437773e-07  6.59309444e-08  7.29208775e-06
+   3.86654692e-08 -4.91719444e-07]
+ [-1.66084542e-10  6.59309444e-08  5.04042064e-08  3.12855228e-05
+   1.84381190e-08 -3.14742885e-07]
+ [-8.95720926e-08  7.29208775e-06  3.12855228e-05  2.20332046e-02
+   9.94473884e-06 -1.86996749e-04]
+ [-8.20046314e-07  3.86654692e-08  1.84381190e-08  9.94473884e-06
+   8.30742437e-05 -1.83213433e-04]
+ [ 1.80844513e-06 -4.91719444e-07 -3.14742885e-07 -1.86996749e-04
+  -1.83213433e-04  4.05644654e-04]]</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.2639303510563851</v>
+      </c>
+      <c r="M25" t="n">
+        <v>20.40080339173133</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.204257993430728</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.03079871506298733</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.002643736464383165</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.6991734712888112</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-0.0073403434893151</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.03117371160949067</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>[[ 5.83464876e-08 -3.56180876e-08 -4.54087677e-08 -2.77054399e-06
+  -5.01338923e-06  6.87141481e-06]
+ [-5.59698312e-09  1.77807300e-06  4.79292160e-07  1.73641299e-04
+   3.83273570e-07 -2.94575273e-06]
+ [-2.03680982e-09  4.79292160e-07  2.42125373e-07  1.05248657e-04
+   1.39481264e-07 -1.34467092e-06]
+ [-7.74434402e-07  1.73641299e-04  1.05248657e-04  4.78418603e-02
+   5.30336605e-05 -5.64676359e-04]
+ [-1.66802738e-06  3.83273570e-07  1.39481264e-07  5.30336605e-05
+   1.04828598e-04 -1.40118871e-04]
+ [ 2.22859450e-06 -2.94575273e-06 -1.34467092e-06 -5.64676359e-04
+  -1.40118871e-04  1.92964300e-04]]</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>1.318421987213769</v>
+      </c>
+      <c r="V25" t="n">
+        <v>15.0891267931061</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.328745757411413</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.04164048319913542</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.003218006533510135</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.4654434437825276</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>-0.01493872310611954</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.03570543223909797</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>-1.009000845036711</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.5045000949504523</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.513500045626525</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>86218</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>13</v>
+      </c>
+      <c r="C26" t="n">
+        <v>206</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.55890625</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.5678798794864801</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.037109375</v>
+      </c>
+      <c r="H26" t="n">
+        <v>17.32831208071916</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2979170138327131</v>
+      </c>
+      <c r="J26" t="n">
+        <v>32.30093162588821</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>[[ 2.22601028e-08  2.55844836e-09  5.15994477e-09  3.77646976e-07
+  -2.05399241e-06  4.49940424e-06]
+ [-2.14298197e-10  6.10274743e-07  5.34562908e-08  5.13096779e-06
+   2.38661395e-08 -3.88236126e-07]
+ [-1.05188421e-10  5.34562908e-08  4.42340974e-08  2.83199364e-05
+   1.17262060e-08 -2.66695358e-07]
+ [-5.85635386e-08  5.13096779e-06  2.83199364e-05  2.03979618e-02
+   6.52917684e-06 -1.64005117e-04]
+ [-7.31569597e-07  2.38661395e-08  1.17262060e-08  6.52917684e-06
+   7.48581856e-05 -1.65066362e-04]
+ [ 1.61309141e-06 -3.88236126e-07 -2.66695358e-07 -1.64005117e-04
+  -1.65066362e-04  3.65375033e-04]]</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.2631589056549255</v>
+      </c>
+      <c r="M26" t="n">
+        <v>20.46684904261009</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.204240943916486</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.03069932892014093</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.002575904713789054</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.6563902824937435</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-0.009297685140365551</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.0358886886479018</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>[[ 5.72444295e-08 -2.77525481e-08 -3.54184195e-08 -2.40282431e-06
+  -4.84740362e-06  6.61056006e-06]
+ [-5.99980723e-09  1.63266059e-06  4.31672512e-07  1.62419321e-04
+   4.03993365e-07 -2.74553379e-06]
+ [-2.17067367e-09  4.31672512e-07  2.21205605e-07  1.00027773e-04
+   1.46163883e-07 -1.25511076e-06]
+ [-8.58294607e-07  1.62419321e-04  1.00027773e-04  4.72035707e-02
+   5.77940097e-05 -5.47150160e-04]
+ [-1.60087198e-06  4.03993365e-07  1.46163883e-07  5.77940097e-05
+   9.94834054e-05 -1.33047159e-04]
+ [ 2.14000580e-06 -2.74553379e-06 -1.25511076e-06 -5.47150160e-04
+  -1.33047159e-04  1.83140220e-04]]</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
+        <v>1.316014781909391</v>
+      </c>
+      <c r="V26" t="n">
+        <v>15.10633395885155</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.328777327581661</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.04159305179068913</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.003100479609083625</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.4238228054500883</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>-0.01239328913501614</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.03274329970704416</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-1.009002482246712</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.5044992217757519</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1.513501355391627</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>86180</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>13</v>
+      </c>
+      <c r="C27" t="n">
+        <v>206</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.56796875</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.576189677552696</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.040546875</v>
+      </c>
+      <c r="H27" t="n">
+        <v>17.36710930289257</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.2978827291871342</v>
+      </c>
+      <c r="J27" t="n">
+        <v>32.37399481526754</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>[[ 2.00250678e-08  1.99794394e-10  4.04641911e-10  3.03161011e-08
+  -1.82868526e-06  4.02867603e-06]
+ [ 2.66558151e-10  6.22699604e-07  5.44382262e-08  6.57347174e-06
+  -2.89486781e-08 -2.81278177e-07]
+ [ 1.32730190e-10  5.44382262e-08  4.78267082e-08  3.13305378e-05
+  -1.44033766e-08 -2.27345851e-07]
+ [ 7.57612102e-08  6.57347174e-06  3.13305378e-05  2.27658514e-02
+  -8.22078391e-06 -1.46680446e-04]
+ [-7.79231681e-07 -2.89486781e-08 -1.44033766e-08 -8.22078391e-06
+   7.81687542e-05 -1.72216657e-04]
+ [ 1.71682404e-06 -2.81278177e-07 -2.27345851e-07 -1.46680446e-04
+  -1.72216657e-04  3.80908696e-04]]</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.2637302173874922</v>
+      </c>
+      <c r="M27" t="n">
+        <v>20.23215796969445</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.20425357030321</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.03105543816231124</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.002510119468926294</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.5983976385656737</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-0.00927514244793406</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.03620897154903198</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>[[ 5.94090270e-08 -3.69550382e-08 -4.69211331e-08 -2.89048080e-06
+  -5.08345657e-06  6.97174382e-06]
+ [-3.34807073e-09  1.51385449e-06  4.02048220e-07  1.64415629e-04
+   2.14944104e-07 -2.36392146e-06]
+ [-1.20552283e-09  4.02048220e-07  2.16592431e-07  1.05050717e-04
+   7.73967759e-08 -1.13876696e-06]
+ [-5.11598656e-07  1.64415629e-04  1.05050717e-04  5.27471178e-02
+   3.28457381e-05 -5.36271924e-04]
+ [-1.67560149e-06  2.14944104e-07  7.73967759e-08  3.28457381e-05
+   1.00894964e-04 -1.34579633e-04]
+ [ 2.23458469e-06 -2.36392146e-06 -1.13876696e-06 -5.36271924e-04
+  -1.34579633e-04  1.84595693e-04]]</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>1.321297112566033</v>
+      </c>
+      <c r="V27" t="n">
+        <v>14.89642300055733</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.328708052499191</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.04217915473361968</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.002864082465533178</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.2730540813861935</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>-0.01632729458046834</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.03896332280525227</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>-1.009001390772787</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.5044994400691437</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1.513501191670865</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>86302</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>13</v>
+      </c>
+      <c r="C28" t="n">
+        <v>206</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.57328125</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.5844994756189121</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.04390625</v>
+      </c>
+      <c r="H28" t="n">
+        <v>17.39680827529635</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.2982171251725914</v>
+      </c>
+      <c r="J28" t="n">
+        <v>32.44306041936144</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>[[ 1.98733964e-08  2.20289056e-09  4.47840319e-09  3.37930260e-07
+  -1.81482683e-06  3.97579326e-06]
+ [-8.63692627e-11  5.94422130e-07  4.77219417e-08  3.28552382e-06
+   9.61927208e-09 -3.27897127e-07]
+ [-4.34703468e-11  4.77219417e-08  4.29493571e-08  2.87169628e-05
+   4.85293753e-09 -2.45115695e-07]
+ [-2.53040139e-08  3.28552382e-06  2.87169628e-05  2.14424680e-02
+   2.82542480e-06 -1.58302134e-04]
+ [-7.32506899e-07  9.61927208e-09  4.85293753e-09  2.82542480e-06
+   7.55205887e-05 -1.66487862e-04]
+ [ 1.61481504e-06 -3.27897127e-07 -2.45115695e-07 -1.58302134e-04
+  -1.66487862e-04  3.68392619e-04]]</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.2638156743405173</v>
+      </c>
+      <c r="M28" t="n">
+        <v>20.59883393521562</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.204255458973757</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.03050262615321101</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.00247926197419514</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.6129029827445116</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-0.005691534772685548</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.02849697671672831</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>[[ 5.64164666e-08 -2.77654566e-08 -3.51363012e-08 -2.38982247e-06
+  -4.78583770e-06  6.52740408e-06]
+ [-2.74696602e-09  1.43827211e-06  3.75950269e-07  1.57692293e-04
+   1.78157721e-07 -2.20075654e-06]
+ [-1.00648270e-09  3.75950269e-07  2.11557178e-07  1.05867785e-04
+   6.52796841e-08 -1.10232564e-06]
+ [-4.41128893e-07  1.57692293e-04  1.05867785e-04  5.47693819e-02
+   2.86114381e-05 -5.36262348e-04]
+ [-1.70733023e-06  1.78157721e-07  6.52796841e-08  2.86114381e-05
+   1.04493650e-04 -1.39305824e-04]
+ [ 2.27580180e-06 -2.20075654e-06 -1.10232564e-06 -5.36262348e-04
+  -1.39305824e-04  1.90727850e-04]]</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>1.315801820472728</v>
+      </c>
+      <c r="V28" t="n">
+        <v>15.01201691845526</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.328780120614175</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.04185437134336863</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.00278276669945869</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.2328742497511352</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>-0.01579149976606203</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.03862032638617592</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>-1.008999753566328</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.5045012955705998</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1.51350332004353</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>86180</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>13</v>
+      </c>
+      <c r="C29" t="n">
+        <v>206</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.582734375</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.592809273685128</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.0478125</v>
+      </c>
+      <c r="H29" t="n">
+        <v>17.30279279931983</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.2984537399930585</v>
+      </c>
+      <c r="J29" t="n">
+        <v>32.40360460806484</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>[[ 2.19790660e-08  2.60975201e-09  5.23220186e-09  3.82101689e-07
+  -2.03106219e-06  4.44856518e-06]
+ [-7.88267737e-13  6.36949117e-07  5.55239562e-08  5.95878570e-06
+   6.38717043e-11 -3.49937626e-07]
+ [-2.67324197e-13  5.55239562e-08  4.67320823e-08  3.03540780e-05
+   2.95844288e-11 -2.53965439e-07]
+ [-1.45383133e-10  5.95878570e-06  3.03540780e-05  2.20506207e-02
+   1.66371587e-08 -1.60096472e-04]
+ [-7.72080649e-07  6.38717043e-11  2.95844288e-11  1.66371587e-08
+   7.78680771e-05 -1.71634895e-04]
+ [ 1.70180096e-06 -3.49937626e-07 -2.53965439e-07 -1.60096472e-04
+  -1.71634895e-04  3.79779948e-04]]</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.263473957820215</v>
+      </c>
+      <c r="M29" t="n">
+        <v>20.36517846143734</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.204247906770615</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.0308525914421873</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.002536139422149982</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.6336490705857337</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-0.006493774400578412</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.02991554232389117</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>[[ 5.83436220e-08 -2.74663034e-08 -3.47714143e-08 -2.35776287e-06
+  -4.94324228e-06  6.73489515e-06]
+ [-1.84504946e-09  1.50665860e-06  3.96480400e-07  1.61455325e-04
+   1.20645573e-07 -2.21868455e-06]
+ [-6.73711415e-10  3.96480400e-07  2.17518246e-07  1.05792623e-04
+   4.40561414e-08 -1.10202873e-06]
+ [-2.86740354e-07  1.61455325e-04  1.05792623e-04  5.33090953e-02
+   1.87510063e-05 -5.22455670e-04]
+ [-1.70249666e-06  1.20645573e-07  4.40561414e-08  1.87510063e-05
+   1.04453718e-04 -1.39142588e-04]
+ [ 2.26765215e-06 -2.21868455e-06 -1.10202873e-06 -5.22455670e-04
+  -1.39142588e-04  1.90493252e-04]]</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>1.311549420236768</v>
+      </c>
+      <c r="V29" t="n">
+        <v>15.01526416111552</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.328835894165471</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.04184531980097241</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.002870307445806043</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.2819970993418647</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>-0.01548452977658023</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.03782863004978854</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>-1.008998662098307</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.5045014592919718</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.513502665158996</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>86222</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>13</v>
+      </c>
+      <c r="C30" t="n">
+        <v>206</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.587890625</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6011190717513442</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.05515625</v>
+      </c>
+      <c r="H30" t="n">
+        <v>17.36309091102117</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.2980433644454607</v>
+      </c>
+      <c r="J30" t="n">
+        <v>32.40107916913639</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>[[ 2.34822526e-08  5.19149789e-10  1.04358006e-09  7.63071297e-08
+  -2.14386886e-06  4.72014813e-06]
+ [ 6.66575490e-12  6.66049691e-07  5.75953642e-08  6.65468421e-06
+  -7.48624820e-10 -3.64298009e-07]
+ [ 3.45584053e-12  5.75953642e-08  5.09435006e-08  3.34880962e-05
+  -3.75436990e-10 -2.75350768e-07]
+ [ 1.98543546e-09  6.65468421e-06  3.34880962e-05  2.44223129e-02
+  -2.15120470e-07 -1.75792817e-04]
+ [-8.34018860e-07 -7.48624820e-10 -3.75436990e-10 -2.15120470e-07
+   8.39161874e-05 -1.84963704e-04]
+ [ 1.83830281e-06 -3.64298009e-07 -2.75350768e-07 -1.75792817e-04
+  -1.84963704e-04  4.09278998e-04]]</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.2680723364957949</v>
+      </c>
+      <c r="M30" t="n">
+        <v>20.26804337023939</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.204349538883898</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.03100045323765938</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.002503646824586243</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.5972748601059544</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-0.005936353170518959</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.0288346748682718</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>[[ 5.84172261e-08 -2.19564185e-08 -2.78568425e-08 -2.02889433e-06
+  -4.87388925e-06  6.61299178e-06]
+ [-3.54866925e-09  1.94443917e-06  5.26210626e-07  2.00453959e-04
+   2.31544828e-07 -2.98399325e-06]
+ [-1.26419399e-09  5.26210626e-07  2.66136965e-07  1.20081542e-04
+   8.24902388e-08 -1.37833803e-06]
+ [-4.98743424e-07  2.00453959e-04  1.20081542e-04  5.63718002e-02
+   3.25438804e-05 -6.04658419e-04]
+ [-1.88274964e-06  2.31544828e-07  8.24902388e-08  3.25438804e-05
+   1.13615728e-04 -1.51518614e-04]
+ [ 2.51029940e-06 -2.98399325e-06 -1.37833803e-06 -6.04658419e-04
+  -1.51518614e-04  2.08257596e-04]]</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>1.303587256962158</v>
+      </c>
+      <c r="V30" t="n">
+        <v>14.86650546364788</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.328940336748808</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.04226403657902969</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.003079086254889004</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.3864224429006375</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>-0.01433699175969363</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.03534636408682489</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>-1.009002045656859</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.5044989489092778</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1.51349873586369</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>86117</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>13</v>
+      </c>
+      <c r="C31" t="n">
+        <v>206</v>
+      </c>
+      <c r="D31" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5982031250000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.6094288698175601</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.0615625</v>
+      </c>
+      <c r="H31" t="n">
+        <v>17.26644646783258</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.297272121417454</v>
+      </c>
+      <c r="J31" t="n">
+        <v>32.35288473602228</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>[[ 2.06058892e-08  2.53362955e-09  5.09977166e-09  3.77136162e-07
+  -1.89241656e-06  4.14367872e-06]
+ [-2.39165736e-10  6.50560074e-07  5.53484473e-08  5.71858344e-06
+   2.62769499e-08 -4.10730120e-07]
+ [-1.20065801e-10  5.53484473e-08  4.94228067e-08  3.25207100e-05
+   1.32039352e-08 -2.97511918e-07]
+ [-6.88203376e-08  5.71858344e-06  3.25207100e-05  2.37776651e-02
+   7.56895073e-06 -1.88131080e-04]
+ [-8.14838468e-07  2.62769499e-08  1.32039352e-08  7.56895073e-06
+   8.28321020e-05 -1.82650551e-04]
+ [ 1.79671368e-06 -4.10730120e-07 -2.97511918e-07 -1.88131080e-04
+  -1.82650551e-04  4.04307874e-04]]</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.2664202865410692</v>
+      </c>
+      <c r="M31" t="n">
+        <v>20.3540515061526</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.204313024647004</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.03086945763736676</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.002505958832597862</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.6007619034546924</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.003572090889730215</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.0236899058559554</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>[[ 5.60365233e-08 -2.62445928e-08 -3.31994605e-08 -2.27705308e-06
+  -4.72556196e-06  6.43848607e-06]
+ [-3.70863707e-09  1.64187468e-06  4.37538325e-07  1.74833235e-04
+   2.41784292e-07 -2.57806560e-06]
+ [-1.34375630e-09  4.37538325e-07  2.34351348e-07  1.11415057e-04
+   8.76093287e-08 -1.23805500e-06]
+ [-5.58799395e-07  1.74833235e-04  1.11415057e-04  5.49287381e-02
+   3.64324171e-05 -5.71228557e-04]
+ [-1.77927977e-06  2.41784292e-07  8.76093287e-08  3.64324171e-05
+   1.08421093e-04 -1.44640209e-04]
+ [ 2.37315915e-06 -2.57806560e-06 -1.23805500e-06 -5.71228557e-04
+  -1.44640209e-04  1.98465707e-04]]</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>1.312885665697805</v>
+      </c>
+      <c r="V31" t="n">
+        <v>14.94502317748711</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.328818367757844</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.04204199105321198</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.002930557363121815</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.3073794708397481</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.01679239566283631</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.03922806189938079</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-1.008999535272535</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.5045016230134504</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.513497753543052</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>86530</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>13</v>
+      </c>
+      <c r="C32" t="n">
+        <v>206</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.602578125</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.6177386678837762</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.07484375</v>
+      </c>
+      <c r="H32" t="n">
+        <v>17.32624909073868</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.2970373034487063</v>
+      </c>
+      <c r="J32" t="n">
+        <v>32.40400935571016</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>[[ 2.06474868e-08  5.99399664e-10  1.20618434e-09  8.97307169e-08
+  -1.88452320e-06  4.14767511e-06]
+ [ 1.24971376e-10  6.16083041e-07  5.50892307e-08  7.19457545e-06
+  -1.34038899e-08 -3.16047192e-07]
+ [ 6.06819784e-11  5.50892307e-08  4.58854987e-08  2.98825141e-05
+  -6.49781665e-09 -2.34065619e-07]
+ [ 3.44126302e-08  7.19457545e-06  2.98825141e-05  2.16675206e-02
+  -3.68436929e-06 -1.48936363e-04]
+ [-7.48717133e-07 -1.34038899e-08 -6.49781665e-09 -3.68436929e-06
+   7.38844573e-05 -1.62817741e-04]
+ [ 1.64996569e-06 -3.16047192e-07 -2.34065619e-07 -1.48936363e-04
+  -1.62817741e-04  3.60225656e-04]]</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.2705217008793448</v>
+      </c>
+      <c r="M32" t="n">
+        <v>20.18890634217806</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.204403677894164</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.03112196966337371</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.002520331835358432</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.6209557513194409</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-0.0103273981367494</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.03848368583196614</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>[[ 6.02551926e-08 -3.22086391e-08 -4.09488101e-08 -2.40845478e-06
+  -5.14913251e-06  7.02956964e-06]
+ [-3.12513963e-09  1.50700744e-06  3.96837310e-07  1.60301703e-04
+   2.03256701e-07 -2.32216820e-06]
+ [-1.12994491e-09  3.96837310e-07  2.13153723e-07  1.02693769e-04
+   7.34938971e-08 -1.11910003e-06]
+ [-4.76233753e-07  1.60301703e-04  1.02693769e-04  5.13037041e-02
+   3.09753980e-05 -5.23619845e-04]
+ [-1.64663293e-06  2.03256701e-07  7.34938971e-08  3.09753980e-05
+   1.00203698e-04 -1.33640126e-04]
+ [ 2.19566919e-06 -2.32216820e-06 -1.11910003e-06 -5.23619845e-04
+  -1.33640126e-04  1.83257026e-04]]</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
+        <v>1.300367558115068</v>
+      </c>
+      <c r="V32" t="n">
+        <v>14.9872227773448</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.328982575368205</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.04192361320389168</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.002896316163083392</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.3027150543841866</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>-0.009460525539511565</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.02955123196797054</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>-1.009003573722998</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.5044993854957783</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1.513502828880076</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>86452</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>13</v>
+      </c>
+      <c r="C33" t="n">
+        <v>206</v>
+      </c>
+      <c r="D33" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.608046875</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.6260484659499921</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.09531250000000001</v>
+      </c>
+      <c r="H33" t="n">
+        <v>17.25861730625741</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.2981892524822468</v>
+      </c>
+      <c r="J33" t="n">
+        <v>32.47620372362219</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>[[ 2.05247449e-08  4.95878594e-10  9.92749344e-10  7.29069841e-08
+  -1.87166282e-06  4.12042163e-06]
+ [ 1.61957126e-10  5.91644470e-07  4.76790956e-08  4.26163372e-06
+  -1.78567496e-08 -2.70092328e-07]
+ [ 8.35354517e-11  4.76790956e-08  4.57729328e-08  3.09415816e-05
+  -9.19866022e-09 -2.28467385e-07]
+ [ 4.92703886e-08  4.26163372e-06  3.09415816e-05  2.30863548e-02
+  -5.42499588e-06 -1.51299110e-04]
+ [-7.63389652e-07 -1.78567496e-08 -9.19866022e-09 -5.42499588e-06
+   7.81269612e-05 -1.72153517e-04]
+ [ 1.68217663e-06 -2.70092328e-07 -2.28467385e-07 -1.51299110e-04
+  -1.72153517e-04  3.80781930e-04]]</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.2687058564738942</v>
+      </c>
+      <c r="M33" t="n">
+        <v>20.40016045839884</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.204363541504475</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.03079968571812272</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.002443347970165727</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.5615171662937525</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-0.009102730986500118</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.03617486249920961</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>[[ 5.89227612e-08 -2.82220750e-08 -3.56959709e-08 -2.23192350e-06
+  -5.00263382e-06  6.81426485e-06]
+ [-1.60328963e-09  1.46384755e-06  3.92964055e-07  1.53835998e-04
+   1.04330546e-07 -2.15193235e-06]
+ [-5.75522967e-10  3.92964055e-07  2.04688658e-07  9.51022986e-05
+   3.74535675e-08 -1.02746642e-06]
+ [-2.33821677e-07  1.53835998e-04  9.51022986e-05  4.58856468e-02
+   1.52166646e-05 -4.65644690e-04]
+ [-1.50601115e-06  1.04330546e-07  3.74535675e-08  1.52166646e-05
+   9.11658007e-05 -1.21435060e-04]
+ [ 2.00581211e-06 -2.15193235e-06 -1.02746642e-06 -4.65644690e-04
+  -1.21435060e-04  1.66541788e-04]]</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>1.300877151040836</v>
+      </c>
+      <c r="V33" t="n">
+        <v>14.89948668329239</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.328975889936273</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.04217048171347586</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.002994818320016176</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.3421623342604368</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>-0.01073278092961234</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.03086125568369089</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>-1.009000735889566</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.5044993854957783</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1.513496934943494</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>86160</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>13</v>
+      </c>
+      <c r="C34" t="n">
+        <v>206</v>
+      </c>
+      <c r="D34" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.6343582640162082</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.119921875</v>
+      </c>
+      <c r="H34" t="n">
+        <v>17.29028992978469</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.2975884960493897</v>
+      </c>
+      <c r="J34" t="n">
+        <v>32.41460193850941</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>[[ 2.03837328e-08  7.01292389e-10  1.41421166e-09  1.07289448e-07
+  -1.84724351e-06  4.06442673e-06]
+ [ 7.33437057e-11  6.69435119e-07  5.84204380e-08  6.72169365e-06
+  -8.02310480e-09 -3.52029495e-07]
+ [ 3.65174425e-11  5.84204380e-08  5.07203008e-08  3.31100458e-05
+  -3.98252456e-09 -2.66297998e-07]
+ [ 2.07673102e-08  6.72169365e-06  3.31100458e-05  2.40409083e-02
+  -2.26427898e-06 -1.69336709e-04]
+ [-8.29945307e-07 -8.02310480e-09 -3.98252456e-09 -2.26427898e-06
+   8.35598702e-05 -1.84158068e-04]
+ [ 1.82914022e-06 -3.52029495e-07 -2.66297998e-07 -1.69336709e-04
+  -1.84158068e-04  4.07452629e-04]]</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.2727694286141058</v>
+      </c>
+      <c r="M34" t="n">
+        <v>20.28345918613755</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.204453362411191</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.03097689230185029</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.002521062979742869</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.6101427164552369</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.00539936124727074</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.02755193496194871</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>[[ 5.64716057e-08 -3.32893317e-08 -4.18782201e-08 -2.60833228e-06
+  -4.78855762e-06  6.55699075e-06]
+ [-3.80949859e-09  1.99588810e-06  5.32739970e-07  1.99723045e-04
+   2.51400019e-07 -3.03964186e-06]
+ [-1.35228093e-09  5.32739970e-07  2.64599572e-07  1.18194654e-04
+   8.92449170e-08 -1.38228513e-06]
+ [-5.28271732e-07  1.99723045e-04  1.18194654e-04  5.50835059e-02
+   3.48640238e-05 -5.99935824e-04]
+ [-1.85867092e-06  2.51400019e-07  8.92449170e-08  3.48640238e-05
+   1.12904839e-04 -1.50606467e-04]
+ [ 2.47870495e-06 -3.03964186e-06 -1.38228513e-06 -5.99935824e-04
+  -1.50606467e-04  2.07072175e-04]]</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>1.316506211004809</v>
+      </c>
+      <c r="V34" t="n">
+        <v>14.97247526648978</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.328770882434028</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.04196490690648939</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.00312040316147878</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.4331601853555044</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.01324109464748208</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.03358108706863325</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-1.009002263951738</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.5044997675095857</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.513499554465197</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>86395</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>13</v>
+      </c>
+      <c r="C35" t="n">
+        <v>206</v>
+      </c>
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.623359375</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.6426680620824241</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.1571875</v>
+      </c>
+      <c r="H35" t="n">
+        <v>17.35343695932966</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.2974739968960537</v>
+      </c>
+      <c r="J35" t="n">
+        <v>32.00432602200004</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>[[ 2.06050752e-08  2.54765972e-09  5.06403456e-09  3.65455463e-07
+  -1.89180929e-06  4.14261463e-06]
+ [-7.27623499e-10  8.50848732e-07  8.37546002e-08  1.10598530e-05
+   7.86116288e-08 -6.77882397e-07]
+ [-3.26783782e-10  8.37546002e-08  5.67212308e-08  3.43402105e-05
+   3.53189108e-08 -3.85528213e-07]
+ [-1.71840454e-07  1.10598530e-05  3.43402105e-05  2.38603793e-02
+   1.85734870e-05 -2.21724568e-04]
+ [-9.13929212e-07  7.86116288e-08  3.53189108e-08  1.85734870e-05
+   8.94336265e-05 -1.97324380e-04]
+ [ 2.01626102e-06 -6.77882397e-07 -3.85528213e-07 -2.21724568e-04
+  -1.97324380e-04  4.37138905e-04]]</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.265325130212346</v>
+      </c>
+      <c r="M35" t="n">
+        <v>20.28405374795658</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.20428881975174</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.0309759843138483</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.002684888541774986</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.7547047484187341</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-0.008801506761882055</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.03419673633493908</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>[[ 6.03324796e-08 -4.95634870e-08 -6.20104860e-08 -4.01386996e-06
+  -5.16930439e-06  7.16165260e-06]
+ [-1.49332288e-08  2.11398707e-06  5.81068973e-07  2.12394206e-04
+   9.70787436e-07 -4.20761828e-06]
+ [-5.22670550e-09  5.81068973e-07  2.79012800e-07  1.19941946e-04
+   3.39775679e-07 -1.77543301e-06]
+ [-1.96536979e-06  2.12394206e-04  1.19941946e-04  5.37761234e-02
+   1.27762425e-04 -7.28151501e-04]
+ [-1.84009483e-06  9.70787436e-07  3.39775679e-07  1.27762425e-04
+   1.09669592e-04 -1.47645267e-04]
+ [ 2.47477757e-06 -4.20761828e-06 -1.77543301e-06 -7.28151501e-04
+  -1.47645267e-04  2.05158573e-04]]</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>1.298108575271084</v>
+      </c>
+      <c r="V35" t="n">
+        <v>14.75574439330246</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.329012212139118</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.04258128319186314</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.003209576702169821</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.4493625919287157</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>-0.01541444512159326</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.03610288060981309</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>-1.009000954183879</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.5044996583627243</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1.513500536788173</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>86309</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>13</v>
+      </c>
+      <c r="C36" t="n">
+        <v>206</v>
+      </c>
+      <c r="D36" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.64859375</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.6509778601486402</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.196328125</v>
+      </c>
+      <c r="H36" t="n">
+        <v>17.13050020519686</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.2967831439864433</v>
+      </c>
+      <c r="J36" t="n">
+        <v>31.97663971199988</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>[[ 2.16121694e-08  2.85401921e-09  5.67528202e-09  4.19770678e-07
+  -1.97753558e-06  4.32835690e-06]
+ [-1.33665878e-10  8.04619220e-07  8.13132534e-08  1.21107107e-05
+   1.41371717e-08 -5.18064866e-07]
+ [-5.89374575e-11  8.13132534e-08  5.37844752e-08  3.24481590e-05
+   6.24565228e-09 -3.04598895e-07]
+ [-3.08830320e-08  1.21107107e-05  3.24481590e-05  2.24185509e-02
+   3.27351931e-06 -1.77558207e-04]
+ [-8.55183812e-07  1.41371717e-08  6.24565228e-09  3.27351931e-06
+   8.19871597e-05 -1.80748663e-04]
+ [ 1.88529745e-06 -5.18064866e-07 -3.04598895e-07 -1.77558207e-04
+  -1.80748663e-04  4.00140664e-04]]</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.2685040302992436</v>
+      </c>
+      <c r="M36" t="n">
+        <v>20.13530404910438</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.204359080544005</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.03120481961363311</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.002683878074134125</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7553468341664014</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-0.009955307144622897</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.03661934859100834</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>[[ 6.52596173e-08 -5.64739378e-08 -7.05632177e-08 -4.47121621e-06
+  -5.58674474e-06  7.75390443e-06]
+ [-1.15124112e-08  1.92041710e-06  5.12978938e-07  1.91558790e-04
+   7.57861964e-07 -3.60857476e-06]
+ [-4.06769225e-09  5.12978938e-07  2.52428312e-07  1.12188585e-04
+   2.67775431e-07 -1.56088868e-06]
+ [-1.58097721e-06  1.91558790e-04  1.12188585e-04  5.20385362e-02
+   1.04074751e-04 -6.63556893e-04]
+ [-1.76325075e-06  7.57861964e-07  2.67775431e-07  1.04074751e-04
+   1.06740451e-04 -1.43395464e-04]
+ [ 2.36687070e-06 -3.60857476e-06 -1.56088868e-06 -6.63556893e-04
+  -1.43395464e-04  1.98502500e-04]]</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>1.299559335908484</v>
+      </c>
+      <c r="V36" t="n">
+        <v>14.95408032611186</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.328993178703863</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.04201652773128608</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.003132437460049332</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.4411291121097431</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>-0.01662945757786432</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.03793587521788955</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>-1.00900477434964</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.5045023324744174</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1.513496771223688</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>86274</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>13</v>
+      </c>
+      <c r="C37" t="n">
+        <v>206</v>
+      </c>
+      <c r="D37" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.65609375</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.6592876582148561</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.2415625</v>
+      </c>
+      <c r="H37" t="n">
+        <v>17.15923056180177</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.2974478452735252</v>
+      </c>
+      <c r="J37" t="n">
+        <v>32.02897619997013</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>[[ 2.21588819e-08  6.08266938e-10  1.20428220e-09  8.89139131e-08
+  -2.00841875e-06  4.42078825e-06]
+ [ 2.52426048e-10  8.53499136e-07  8.41046111e-08  1.27039452e-05
+  -2.66076138e-08 -4.49962614e-07]
+ [ 1.13672640e-10  8.41046111e-08  5.85676456e-08  3.61615170e-05
+  -1.19690285e-08 -2.90115125e-07]
+ [ 6.10004658e-08  1.27039452e-05  3.61615170e-05  2.53382094e-02
+  -6.42219355e-06 -1.75566546e-04]
+ [-9.37688555e-07 -2.66076138e-08 -1.19690285e-08 -6.42219355e-06
+   8.97733221e-05 -1.97809273e-04]
+ [ 2.06620181e-06 -4.49962614e-07 -2.90115125e-07 -1.75566546e-04
+  -1.97809273e-04  4.37668420e-04]]</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.2697119197109354</v>
+      </c>
+      <c r="M37" t="n">
+        <v>20.09963573186875</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.204385778772239</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.03126019491595738</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.002632416438844593</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.7185237292470971</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-0.01364311201859681</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.04517272901085007</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>[[ 5.89062654e-08 -4.07840556e-08 -5.12153141e-08 -3.55868299e-06
+  -4.94838431e-06  6.82267360e-06]
+ [-9.64405732e-09  1.31341819e-06  3.35805862e-07  1.44376394e-04
+   6.22668181e-07 -2.59364403e-06]
+ [-3.52844645e-09  3.35805862e-07  1.91523862e-07  9.86151984e-05
+   2.27812154e-07 -1.22448600e-06]
+ [-1.59209528e-06  1.44376394e-04  9.86151984e-05  5.24579306e-02
+   1.02791950e-04 -6.01839702e-04]
+ [-1.60493428e-06  6.22668181e-07  2.27812154e-07  1.02791950e-04
+   9.81302804e-05 -1.31764511e-04]
+ [ 2.15394624e-06 -2.59364403e-06 -1.22448600e-06 -6.01839702e-04
+  -1.31764511e-04  1.81474781e-04]]</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>1.294052144739677</v>
+      </c>
+      <c r="V37" t="n">
+        <v>15.08377833638518</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.329065433879189</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.04165524822135082</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.002707563808945402</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.2115100525114522</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>-0.01853974347907242</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.04249466742253074</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>-1.008998007218628</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.504501568439612</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1.513504302371394</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>86118</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>13</v>
+      </c>
+      <c r="C38" t="n">
+        <v>206</v>
+      </c>
+      <c r="D38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6598437500000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.6675974562810723</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.29609375</v>
+      </c>
+      <c r="H38" t="n">
+        <v>17.28218685539084</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.2975905448896521</v>
+      </c>
+      <c r="J38" t="n">
+        <v>31.99412374559778</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>[[ 1.94192937e-08  2.53119593e-09  5.05348386e-09  3.76637439e-07
+  -1.76767523e-06  3.86905773e-06]
+ [-1.54076334e-10  7.51616361e-07  7.43623791e-08  9.56964306e-06
+   1.67027444e-08 -4.83400943e-07]
+ [-6.86570055e-11  7.43623791e-08  4.93699160e-08  2.96520172e-05
+   7.45466492e-09 -2.84448742e-07]
+ [-3.58075609e-08  9.56964306e-06  2.96520172e-05  2.05325629e-02
+   3.88872994e-06 -1.64793051e-04]
+ [-7.95929659e-07  1.67027444e-08  7.45466492e-09  3.88872994e-06
+   7.80869452e-05 -1.72158776e-04]
+ [ 1.75474554e-06 -4.83400943e-07 -2.84448742e-07 -1.64793051e-04
+  -1.72158776e-04  3.81100073e-04]]</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.2693437576220648</v>
+      </c>
+      <c r="M38" t="n">
+        <v>20.3254581475602</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.204377641141308</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.03091288403717384</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.002703130578977143</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.7703339622284765</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-0.01066981359319349</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.0382608247597889</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>[[ 6.07781233e-08 -5.04275340e-08 -6.32776248e-08 -3.98065054e-06
+  -5.21561087e-06  7.22674279e-06]
+ [-1.19758355e-08  1.74421887e-06  4.60591220e-07  1.81268087e-04
+   7.80403429e-07 -3.40321352e-06]
+ [-4.28346488e-09  4.60591220e-07  2.39093663e-07  1.12199816e-04
+   2.79128901e-07 -1.51558892e-06]
+ [-1.75748102e-06  1.81268087e-04  1.12199816e-04  5.47242369e-02
+   1.14523977e-04 -6.78817016e-04]
+ [-1.79458460e-06  7.80403429e-07  2.79128901e-07  1.14523977e-04
+   1.08768576e-04 -1.46164699e-04]
+ [ 2.40986012e-06 -3.40321352e-06 -1.51558892e-06 -6.78817016e-04
+  -1.46164699e-04  2.02014163e-04]]</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>1.292851315666321</v>
+      </c>
+      <c r="V38" t="n">
+        <v>14.97523859539582</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.329081189980361</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.04195716326757806</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.002973886934680443</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.3526130384437607</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>-0.01690835753440446</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.03920750089872672</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>-1.008999753566328</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.5044992217757519</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1.513499718185604</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>86070</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>13</v>
+      </c>
+      <c r="C39" t="n">
+        <v>206</v>
+      </c>
+      <c r="D39" t="n">
+        <v>37</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.658046875</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.6592876582148561</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.349453125</v>
+      </c>
+      <c r="H39" t="n">
+        <v>17.21873277226337</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.2980494372711939</v>
+      </c>
+      <c r="J39" t="n">
+        <v>32.04941799846947</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>[[ 2.29497719e-08  3.85152022e-10  7.75943128e-10  5.88697665e-08
+  -2.07588680e-06  4.57165342e-06]
+ [ 6.08851574e-11  7.49474374e-07  7.10529284e-08  1.12886662e-05
+  -6.39347344e-09 -4.25205366e-07]
+ [ 2.88456466e-11  7.10529284e-08  5.60991039e-08  3.59480818e-05
+  -3.01687318e-09 -2.95729610e-07]
+ [ 1.60962499e-08  1.12886662e-05  3.59480818e-05  2.56464672e-02
+  -1.68281457e-06 -1.84484633e-04]
+ [-8.94650584e-07 -6.39347344e-09 -3.01687318e-09 -1.68281457e-06
+   8.60472079e-05 -1.89646125e-04]
+ [ 1.97180557e-06 -4.25205366e-07 -2.95729610e-07 -1.84484633e-04
+  -1.89646125e-04  4.19701993e-04]]</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.2662927061923059</v>
+      </c>
+      <c r="M39" t="n">
+        <v>19.98054808018654</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.204310204867893</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.03144651128669603</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.002546887973788588</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6332225335650503</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-0.009270272962510522</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.03595741897750201</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>[[ 6.35410298e-08 -4.43831968e-08 -5.58894059e-08 -3.97120279e-06
+  -5.38922061e-06  7.43312346e-06]
+ [-1.28588840e-08  1.60831372e-06  4.19428467e-07  1.71124237e-04
+   8.28292624e-07 -3.27136146e-06]
+ [-4.60297772e-09  4.19428467e-07  2.23212364e-07  1.08619350e-04
+   2.96491232e-07 -1.46407761e-06]
+ [-1.95916263e-06  1.71124237e-04  1.08619350e-04  5.48073454e-02
+   1.26193847e-04 -6.78158712e-04]
+ [-1.75005974e-06  8.28292624e-07  2.96491232e-07  1.26193847e-04
+   1.05526307e-04 -1.41945966e-04]
+ [ 2.35235107e-06 -3.27136146e-06 -1.46407761e-06 -6.78158712e-04
+  -1.41945966e-04  1.96174847e-04]]</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>1.30018671879224</v>
+      </c>
+      <c r="V39" t="n">
+        <v>14.98476027750517</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.328984947844671</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.04193050266284059</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.002866527437709182</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.3007164142293861</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>-0.01499474575389017</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.03709575258355328</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>-1.009001281625525</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.5045003678181654</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.513499390744825</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>86132</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>13</v>
+      </c>
+      <c r="C40" t="n">
+        <v>206</v>
+      </c>
+      <c r="D40" t="n">
+        <v>38</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.654375</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.6509778601486402</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.291796875</v>
+      </c>
+      <c r="H40" t="n">
+        <v>17.03181317888235</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.2976151210744621</v>
+      </c>
+      <c r="J40" t="n">
+        <v>32.11201799880762</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>[[ 2.11366743e-08  6.27429164e-10  1.25542534e-09  9.49019187e-08
+  -1.91154634e-06  4.20698172e-06]
+ [ 4.13143235e-10  8.81352203e-07  9.12306513e-08  1.43674568e-05
+  -4.37424690e-08 -4.48615340e-07]
+ [ 1.83471345e-10  9.12306513e-08  6.06336662e-08  3.62055392e-05
+  -1.94124482e-08 -2.84418264e-07]
+ [ 9.52038549e-08  1.43674568e-05  3.62055392e-05  2.46918049e-02
+  -1.00723577e-05 -1.67520150e-04]
+ [-9.46309966e-07 -4.37424690e-08 -1.94124482e-08 -1.00723577e-05
+   9.06263679e-05 -1.99648351e-04]
+ [ 2.08482339e-06 -4.48615340e-07 -2.84418264e-07 -1.67520150e-04
+  -1.99648351e-04  4.41687163e-04]]</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.2708472309712162</v>
+      </c>
+      <c r="M40" t="n">
+        <v>20.03961727672349</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.204410873380256</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.0313538188899329</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.002706845488559134</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7502324717482803</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-0.01067153875411725</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.03828975805654825</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>[[ 5.87314976e-08 -4.71827771e-08 -5.94204749e-08 -3.71804267e-06
+  -5.02706253e-06  6.95797786e-06]
+ [-1.17245518e-08  1.86416924e-06  4.92094500e-07  1.91118505e-04
+   7.63178882e-07 -3.53112554e-06]
+ [-4.15837710e-09  4.92094500e-07  2.49788252e-07  1.15618602e-04
+   2.70677590e-07 -1.55445349e-06]
+ [-1.68278092e-06  1.91118505e-04  1.15618602e-04  5.56985695e-02
+   1.09535033e-04 -6.87784108e-04]
+ [-1.83930604e-06  7.63178882e-07  2.70677590e-07  1.09535033e-04
+   1.10932211e-04 -1.48996811e-04]
+ [ 2.46867294e-06 -3.53112554e-06 -1.55445349e-06 -6.87784108e-04
+  -1.48996811e-04  2.05956676e-04]]</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>1.288429821202808</v>
+      </c>
+      <c r="V40" t="n">
+        <v>14.96764492064124</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.329139207713812</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.04197844978614312</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.003013835207696816</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.3824629446163766</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>-0.01341077036805963</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.03420549256859085</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>-1.009002482246712</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.504498894336019</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.513499390744825</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>86238</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13</v>
+      </c>
+      <c r="C41" t="n">
+        <v>206</v>
+      </c>
+      <c r="D41" t="n">
+        <v>39</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.653671875</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.6426680620824241</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.23765625</v>
+      </c>
+      <c r="H41" t="n">
+        <v>17.32413065618132</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.2972483024225065</v>
+      </c>
+      <c r="J41" t="n">
+        <v>32.02928135580511</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>[[ 2.00269644e-08  6.21820783e-10  1.27518081e-09  9.84336264e-08
+  -1.80721056e-06  3.97686210e-06]
+ [ 4.56983787e-10  7.66382344e-07  7.45168191e-08  9.38373488e-06
+  -4.97658427e-08 -3.40922312e-07]
+ [ 2.07447684e-10  7.45168191e-08  5.13481295e-08  3.12020496e-05
+  -2.25790128e-08 -2.29045597e-07]
+ [ 1.09499508e-07  9.38373488e-06  3.12020496e-05  2.17451228e-02
+  -1.19173917e-05 -1.38143605e-04]
+ [-8.30995038e-07 -4.97658427e-08 -2.25790128e-08 -1.19173917e-05
+   8.19710984e-05 -1.80552296e-04]
+ [ 1.83051120e-06 -3.40922312e-07 -2.29045597e-07 -1.38143605e-04
+  -1.80552296e-04  3.99294379e-04]]</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.2722707278732361</v>
+      </c>
+      <c r="M41" t="n">
+        <v>20.33093429684523</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.204442338771797</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.03090455763341163</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.002680335269200732</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.7489871594070523</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-0.01218221179879037</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.04172202658886568</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>[[ 5.57751400e-08 -3.86042315e-08 -4.87606609e-08 -3.33441751e-06
+  -4.73139240e-06  6.52204233e-06]
+ [-9.13381799e-09  1.70126851e-06  4.46855812e-07  1.80785099e-04
+   5.91924981e-07 -3.09686904e-06]
+ [-3.28792743e-09  4.46855812e-07  2.38606719e-07  1.15104735e-04
+   2.13078454e-07 -1.42663697e-06]
+ [-1.38738479e-06  1.80785099e-04  1.15104735e-04  5.75848836e-02
+   8.99110919e-05 -6.60260972e-04]
+ [-1.84801823e-06  5.91924981e-07  2.13078454e-07  8.99110919e-05
+   1.12027605e-04 -1.50170939e-04]
+ [ 2.47600932e-06 -3.09686904e-06 -1.42663697e-06 -6.60260972e-04
+  -1.50170939e-04  2.06912665e-04]]</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>1.291311197892009</v>
+      </c>
+      <c r="V41" t="n">
+        <v>14.98118374865636</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.329101398441876</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.04194051293004878</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.002891845214484414</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.305105416045516</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>-0.01595833595481193</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.03833420454787521</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>-1.009000626742446</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.5045002586710446</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.513499227024488</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>86222</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>13</v>
+      </c>
+      <c r="C42" t="n">
+        <v>206</v>
+      </c>
+      <c r="D42" t="n">
+        <v>40</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.6355468750000001</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.6343582640162082</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.194375</v>
+      </c>
+      <c r="H42" t="n">
+        <v>17.18993179158346</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.2973083208994139</v>
+      </c>
+      <c r="J42" t="n">
+        <v>32.01983171797009</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>[[ 2.14459796e-08  5.04316944e-10  1.00469757e-09  7.47468365e-08
+  -1.94369336e-06  4.27912676e-06]
+ [ 1.52624322e-10  8.21063428e-07  7.69701907e-08  1.08066085e-05
+  -1.61638669e-08 -4.36833099e-07]
+ [ 7.05382803e-11  7.69701907e-08  5.72175788e-08  3.63572703e-05
+  -7.45742164e-09 -2.93235996e-07]
+ [ 3.89755489e-08  1.08066085e-05  3.63572703e-05  2.60341217e-02
+  -4.11983161e-06 -1.81937603e-04]
+ [-9.33379035e-07 -1.61638669e-08 -7.45742164e-09 -4.11983161e-06
+   9.01933032e-05 -1.98759996e-04]
+ [ 2.05693919e-06 -4.36833099e-07 -2.93235996e-07 -1.81937603e-04
+  -1.98759996e-04  4.39785804e-04]]</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.2684800721496128</v>
+      </c>
+      <c r="M42" t="n">
+        <v>20.17129980389098</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.204358550998635</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.03114913450429991</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.002571901435075517</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.681892876000558</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-0.009374824711889504</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.03589656452179722</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>[[ 6.80386154e-08 -4.78603351e-08 -5.95059068e-08 -4.11132959e-06
+  -5.75151954e-06  7.92952444e-06]
+ [-6.68226165e-09  1.36668573e-06  3.48991157e-07  1.54180920e-04
+   4.24209812e-07 -2.40362635e-06]
+ [-2.43102548e-09  3.48991157e-07  2.00941509e-07  1.05789175e-04
+   1.54330746e-07 -1.17092155e-06]
+ [-1.12267932e-06  1.54180920e-04  1.05789175e-04  5.74212596e-02
+   7.12719261e-05 -5.93247748e-04]
+ [-1.71038564e-06  4.24209812e-07  1.54330746e-07  7.12719261e-05
+   1.03249133e-04 -1.38199128e-04]
+ [ 2.28866514e-06 -2.40362635e-06 -1.17092155e-06 -5.93247748e-04
+  -1.38199128e-04  1.89752108e-04]]</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
+        <v>1.291102038718672</v>
+      </c>
+      <c r="V42" t="n">
+        <v>15.02135539836176</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.329104142945038</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.04182835130753138</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.002633237444000817</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.1675821078822873</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>-0.01640043811123428</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.04006871093438204</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>-1.009003355427552</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.5045016775873002</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.513500700508793</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>86308</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>13</v>
+      </c>
+      <c r="C43" t="n">
+        <v>206</v>
+      </c>
+      <c r="D43" t="n">
+        <v>41</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.63484375</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.6260484659499921</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.155234375</v>
+      </c>
+      <c r="H43" t="n">
+        <v>17.16354511882216</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.2970767110258742</v>
+      </c>
+      <c r="J43" t="n">
+        <v>32.00917878865488</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>[[ 2.28620432e-08  7.36006589e-10  1.48929735e-09  1.13376266e-07
+  -2.06694903e-06  4.54830155e-06]
+ [ 5.24607057e-10  8.19628044e-07  8.08074837e-08  1.42690796e-05
+  -5.39778996e-08 -3.75549655e-07]
+ [ 2.42406607e-10  8.08074837e-08  6.12923977e-08  3.88406684e-05
+  -2.49294296e-08 -2.74451317e-07]
+ [ 1.33691123e-07  1.42690796e-05  3.88406684e-05  2.74129005e-02
+  -1.37483463e-05 -1.72483120e-04]
+ [-9.62665454e-07 -5.39778996e-08 -2.49294296e-08 -1.37483463e-05
+   9.08521658e-05 -2.00115325e-04]
+ [ 2.12054722e-06 -3.75549655e-07 -2.74451317e-07 -1.72483120e-04
+  -2.00115325e-04  4.42655202e-04]]</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.2721778132675268</v>
+      </c>
+      <c r="M43" t="n">
+        <v>19.83992590982364</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.204440284932796</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.03166939904784876</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.002564730598405901</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.6438068808411337</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-0.008448605971709289</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.03396854617218028</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>[[ 5.87406262e-08 -5.02088871e-08 -6.29405114e-08 -3.94720717e-06
+  -5.03802766e-06  6.98852943e-06]
+ [-1.04064498e-08  1.41216266e-06  3.64995598e-07  1.53308459e-04
+   6.69797886e-07 -2.79474922e-06]
+ [-3.76474189e-09  3.64995598e-07  2.01350273e-07  1.01023181e-04
+   2.42310523e-07 -1.28903668e-06]
+ [-1.65359877e-06  1.53308459e-04  1.01023181e-04  5.24452654e-02
+   1.06429877e-04 -6.17049980e-04]
+ [-1.63606844e-06  6.69797886e-07  2.42310523e-07  1.06429877e-04
+   9.91997167e-05 -1.33256639e-04]
+ [ 2.19649853e-06 -2.79474922e-06 -1.28903668e-06 -6.17049980e-04
+  -1.33256639e-04  1.83760750e-04]]</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
+        <v>1.295908572629889</v>
+      </c>
+      <c r="V43" t="n">
+        <v>15.02416344398259</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.329041076388603</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.04182053350661662</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.00277905575329918</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.2506559599625751</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>-0.01550394623111361</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.0382214194852384</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>-1.009002482246712</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.5045000403769446</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.513498408423336</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>86236</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13</v>
+      </c>
+      <c r="C44" t="n">
+        <v>206</v>
+      </c>
+      <c r="D44" t="n">
+        <v>42</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.618359375</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.6177386678837762</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.126796875</v>
+      </c>
+      <c r="H44" t="n">
+        <v>17.23560402176245</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.29740757513845</v>
+      </c>
+      <c r="J44" t="n">
+        <v>32.0274957775226</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>[[ 2.17031735e-08  6.52549015e-10  1.30362203e-09  9.74955429e-08
+  -1.97191495e-06  4.33981013e-06]
+ [ 2.69089388e-11  7.01878786e-07  6.50078963e-08  7.22160932e-06
+  -2.95815311e-09 -3.90328212e-07]
+ [ 1.24232532e-11  6.50078963e-08  4.60161422e-08  2.86851026e-05
+  -1.35408132e-09 -2.47528091e-07]
+ [ 6.73365651e-09  7.22160932e-06  2.86851026e-05  2.04781646e-02
+  -7.33230621e-07 -1.49885468e-04]
+ [-7.65642578e-07 -2.95815311e-09 -1.35408132e-09 -7.33230621e-07
+   7.58258566e-05 -1.67125730e-04]
+ [ 1.68754003e-06 -3.90328212e-07 -2.47528091e-07 -1.49885468e-04
+  -1.67125730e-04  3.69804639e-04]]</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.2707908965136951</v>
+      </c>
+      <c r="M44" t="n">
+        <v>20.45450118586296</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.204409628165421</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.03071786131613017</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.00262547362135438</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.735448219767553</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-0.007821179060051836</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.0323396746925202</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>[[ 6.42225056e-08 -4.42838496e-08 -5.55185994e-08 -3.81882078e-06
+  -5.44794871e-06  7.50713487e-06]
+ [-9.65489562e-09  1.48258263e-06  3.83274044e-07  1.53897636e-04
+   6.38187421e-07 -2.83785520e-06]
+ [-3.51351925e-09  3.83274044e-07  2.06858046e-07  9.99815857e-05
+   2.32242211e-07 -1.30371066e-06]
+ [-1.48535452e-06  1.53897636e-04  9.99815857e-05  5.01980289e-02
+   9.81806712e-05 -6.01890474e-04]
+ [-1.62567913e-06  6.38187421e-07  2.32242211e-07  9.81806712e-05
+   1.00421109e-04 -1.34825137e-04]
+ [ 2.18130099e-06 -2.83785520e-06 -1.30371066e-06 -6.01890474e-04
+  -1.34825137e-04  1.85913317e-04]]</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
+        <v>1.289698184570742</v>
+      </c>
+      <c r="V44" t="n">
+        <v>15.13148344844639</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.329122564051997</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.04152392148850882</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.002904539607060001</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.3275507785941224</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>-0.01605288054687598</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.03835985331864586</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>-1.009001609067384</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.5045012955705998</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.513499554465197</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>86186</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>13</v>
+      </c>
+      <c r="C45" t="n">
+        <v>206</v>
+      </c>
+      <c r="D45" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.6149218750000001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.6094288698175601</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.098203125</v>
+      </c>
+      <c r="H45" t="n">
+        <v>17.3730488861054</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.2973647695793906</v>
+      </c>
+      <c r="J45" t="n">
+        <v>32.00400625675577</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>[[ 2.03944934e-08  5.55706558e-10  1.13776057e-09  8.96569997e-08
+  -1.83404735e-06  4.03671667e-06]
+ [ 2.38806543e-10  7.47135479e-07  7.22063868e-08  1.09270480e-05
+  -2.53184319e-08 -3.86561808e-07]
+ [ 1.11376786e-10  7.22063868e-08  5.44067173e-08  3.40981009e-05
+  -1.17962136e-08 -2.67759731e-07]
+ [ 6.07098505e-08  1.09270480e-05  3.40981009e-05  2.39981836e-02
+  -6.42926910e-06 -1.64595874e-04]
+ [-8.66009014e-07 -2.53184319e-08 -1.17962136e-08 -6.42926910e-06
+   8.39123040e-05 -1.84891465e-04]
+ [ 1.90821926e-06 -3.86561808e-07 -2.67759731e-07 -1.64595874e-04
+  -1.84891465e-04  4.09067272e-04]]</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.270732588968059</v>
+      </c>
+      <c r="M45" t="n">
+        <v>20.05821133082964</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.204408339338998</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.03132475375569643</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.002602326097438113</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.6720888103082505</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-0.009836878011730494</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.03688512187617595</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>[[ 5.75510150e-08 -4.67282017e-08 -5.84852656e-08 -3.77457642e-06
+  -4.89267192e-06  6.77685457e-06]
+ [-8.69934720e-09  1.76967302e-06  4.75963692e-07  1.80988409e-04
+   5.60308968e-07 -3.15559341e-06]
+ [-3.04539796e-09  4.75963692e-07  2.33907326e-07  1.05109815e-04
+   1.96149889e-07 -1.37421729e-06]
+ [-1.19658563e-06  1.80988409e-04  1.05109815e-04  4.91815441e-02
+   7.70702775e-05 -5.93209278e-04]
+ [-1.63824522e-06  5.60308968e-07  1.96149889e-07  7.70702775e-05
+   9.73151308e-05 -1.30491919e-04]
+ [ 2.19539722e-06 -3.15559341e-06 -1.37421729e-06 -5.93209278e-04
+  -1.30491919e-04  1.80391137e-04]]</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
+        <v>1.296418611368533</v>
+      </c>
+      <c r="V45" t="n">
+        <v>14.82903843327203</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.329034384518905</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.04237082084217918</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.00308528188744086</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.4066507924440351</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>-0.01840852136140829</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.04055569456382108</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>-1.008998771245003</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.5045002040975025</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1.513505284700533</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>86175</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>13</v>
+      </c>
+      <c r="C46" t="n">
+        <v>206</v>
+      </c>
+      <c r="D46" t="n">
+        <v>44</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.605546875</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.6011190717513442</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.08015625</v>
+      </c>
+      <c r="H46" t="n">
+        <v>17.27854320351184</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.2979123484927494</v>
+      </c>
+      <c r="J46" t="n">
+        <v>32.07615132055838</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>[[ 2.25385643e-08  8.66760147e-10  1.72941277e-09  1.28629004e-07
+  -2.04661798e-06  4.50230426e-06]
+ [ 3.37903858e-10  8.12507448e-07  8.21299307e-08  1.29086237e-05
+  -3.56766909e-08 -4.16152655e-07]
+ [ 1.52323318e-10  8.21299307e-08  5.69129540e-08  3.46448579e-05
+  -1.60705690e-08 -2.71699539e-07]
+ [ 8.05905758e-08  1.29086237e-05  3.46448579e-05  2.39283424e-02
+  -8.50184080e-06 -1.62794887e-04]
+ [-8.95635477e-07 -3.56766909e-08 -1.60705690e-08 -8.50184080e-06
+   8.58571734e-05 -1.89154686e-04]
+ [ 1.97329784e-06 -4.16152655e-07 -2.71699539e-07 -1.62794887e-04
+  -1.89154686e-04  4.18484767e-04]]</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.2737972204499117</v>
+      </c>
+      <c r="M46" t="n">
+        <v>20.03365238070548</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2.204476081807951</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.03136315429547414</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.00266450292472848</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.7217500203221433</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-0.01198150768573926</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.04146190857341675</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>[[ 5.52612010e-08 -5.25120880e-08 -6.58868950e-08 -3.86205945e-06
+  -4.74927215e-06  6.61129286e-06]
+ [-8.75426417e-09  1.76531456e-06  4.71441461e-07  1.81065281e-04
+   5.67407848e-07 -3.15376699e-06]
+ [-3.09002479e-09  4.71441461e-07  2.36016938e-07  1.07546911e-04
+   2.00281543e-07 -1.39230207e-06]
+ [-1.23107982e-06  1.81065281e-04  1.07546911e-04  5.10106788e-02
+   7.97929166e-05 -6.09267269e-04]
+ [-1.69277091e-06  5.67407848e-07  2.00281543e-07  7.97929166e-05
+   1.01441616e-04 -1.36007332e-04]
+ [ 2.26823215e-06 -3.15376699e-06 -1.39230207e-06 -6.09267269e-04
+  -1.36007332e-04  1.87840263e-04]]</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
+        <v>1.291369982514778</v>
+      </c>
+      <c r="V46" t="n">
+        <v>14.89441895866576</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.329100627095568</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.04218482993271753</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.003051874709621212</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.3924674365898522</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-0.01634869363985448</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0.03804121774498029</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-1.009001390772787</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.5044997129361486</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1.513497098663334</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>86156</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13</v>
+      </c>
+      <c r="C47" t="n">
+        <v>206</v>
+      </c>
+      <c r="D47" t="n">
+        <v>45</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.5971093750000001</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.592809273685128</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.06640625</v>
+      </c>
+      <c r="H47" t="n">
+        <v>17.1538546063237</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.2974590131546354</v>
+      </c>
+      <c r="J47" t="n">
+        <v>32.00996390796656</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>[[ 2.23323095e-08  6.37475242e-10  1.27811510e-09  9.69367440e-08
+  -2.01535352e-06  4.43566818e-06]
+ [ 1.82837280e-10  7.97820819e-07  7.84516393e-08  1.13545858e-05
+  -1.95229751e-08 -4.32378803e-07]
+ [ 8.33555402e-11  7.84516393e-08  5.54365753e-08  3.40480481e-05
+  -8.88804600e-09 -2.80272561e-07]
+ [ 4.44955945e-08  1.13545858e-05  3.40480481e-05  2.37441868e-02
+  -4.74373365e-06 -1.68331779e-04]
+ [-8.85262819e-07 -1.95229751e-08 -8.88804600e-09 -4.74373365e-06
+   8.58495467e-05 -1.89177710e-04]
+ [ 1.95081301e-06 -4.32378803e-07 -2.80272561e-07 -1.68331779e-04
+  -1.89177710e-04  4.18588024e-04]]</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.2705737615686044</v>
+      </c>
+      <c r="M47" t="n">
+        <v>20.14482661513934</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2.204404828635516</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.03119006893044002</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.002649559750801288</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.7180204603682397</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-0.008043649865439755</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.03277279306628387</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>[[ 6.01377766e-08 -4.91617020e-08 -6.18123680e-08 -3.92804468e-06
+  -5.12325130e-06  7.09777643e-06]
+ [-8.72950520e-09  1.72715142e-06  4.52569100e-07  1.78269657e-04
+   5.69796867e-07 -3.08353271e-06]
+ [-3.11892032e-09  4.52569100e-07  2.34393495e-07  1.10363193e-04
+   2.03581364e-07 -1.39365986e-06]
+ [-1.28405328e-06  1.78269657e-04  1.10363193e-04  5.40386112e-02
+   8.38138663e-05 -6.29825981e-04]
+ [-1.76719357e-06  5.69796867e-07  2.03581364e-07  8.38138663e-05
+   1.07209504e-04 -1.43706143e-04]
+ [ 2.36751686e-06 -3.08353271e-06 -1.39365986e-06 -6.29825981e-04
+  -1.43706143e-04  1.98132187e-04]]</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
+        <v>1.294701016703281</v>
+      </c>
+      <c r="V47" t="n">
+        <v>15.01666414279361</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.329056920173247</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.04184141862288931</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.002969176587076288</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.3610398988850247</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-0.01500000104323303</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0.03665406523317769</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-1.009001609067384</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.5045000949504523</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1.513502501437951</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>86036</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>13</v>
+      </c>
+      <c r="C48" t="n">
+        <v>206</v>
+      </c>
+      <c r="D48" t="n">
+        <v>46</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.5934375000000001</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.5844994756189121</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.05359375</v>
+      </c>
+      <c r="H48" t="n">
+        <v>17.2982013849649</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.2976933684425936</v>
+      </c>
+      <c r="J48" t="n">
+        <v>32.05875280622571</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>[[ 2.06678060e-08  4.64154184e-10  9.49270111e-10  7.54865913e-08
+  -1.84756234e-06  4.06746827e-06]
+ [ 1.59549572e-10  7.84762524e-07  7.86957741e-08  1.22488792e-05
+  -1.67822527e-08 -4.36711985e-07]
+ [ 7.13325230e-11  7.86957741e-08  5.37700079e-08  3.28928566e-05
+  -7.49163067e-09 -2.73813523e-07]
+ [ 3.79268765e-08  1.22488792e-05  3.28928566e-05  2.28726540e-02
+  -3.98255318e-06 -1.63664705e-04]
+ [-8.53943571e-07 -1.67822527e-08 -7.49163067e-09 -3.98255318e-06
+   8.14261939e-05 -1.79435750e-04]
+ [ 1.88184710e-06 -4.36711985e-07 -2.73813523e-07 -1.63664705e-04
+  -1.79435750e-04  3.97072987e-04]]</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.2689798831043588</v>
+      </c>
+      <c r="M48" t="n">
+        <v>20.06116525287089</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.204369598339278</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.03132014131771543</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.002651277746583913</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.728252645937844</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.00855093079852913</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.03386136008498079</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>[[ 5.32427365e-08 -3.19329578e-08 -4.01322584e-08 -2.81604852e-06
+  -4.47315812e-06  6.13947513e-06]
+ [-5.63095044e-09  1.24688521e-06  3.18903266e-07  1.35787360e-04
+   3.63751559e-07 -2.15572375e-06]
+ [-2.05203974e-09  3.18903266e-07  1.79439697e-07  9.15522217e-05
+   1.32560914e-07 -1.03940756e-06]
+ [-9.17132209e-07  1.35787360e-04  9.15522217e-05  4.83010127e-02
+   5.92463652e-05 -5.10481471e-04]
+ [-1.48625410e-06  3.63751559e-07  1.32560914e-07  5.92463652e-05
+   9.06880921e-05 -1.21367824e-04]
+ [ 1.98839557e-06 -2.15572375e-06 -1.03940756e-06 -5.10481471e-04
+  -1.21367824e-04  1.66691594e-04]]</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
+        <v>1.277597422722798</v>
+      </c>
+      <c r="V48" t="n">
+        <v>15.08539459160091</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.329281369118701</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.04165078526138039</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.002736650563785487</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.2327799127834133</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.01975638399530435</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0.04398581216549052</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-1.00900302798456</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.5045005315389357</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.513501519112424</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>86121</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>13</v>
+      </c>
+      <c r="C49" t="n">
+        <v>206</v>
+      </c>
+      <c r="D49" t="n">
+        <v>47</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.5806250000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.5761896775526962</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.048359375</v>
+      </c>
+      <c r="H49" t="n">
+        <v>17.22021567876472</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.2979751473542606</v>
+      </c>
+      <c r="J49" t="n">
+        <v>32.05827353553819</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>[[ 2.27348339e-08  9.25877184e-10  1.85342286e-09  1.37722408e-07
+  -2.07191998e-06  4.55744384e-06]
+ [ 3.73865049e-10  8.45147303e-07  8.29489265e-08  1.14966011e-05
+  -4.03323650e-08 -4.14309304e-07]
+ [ 1.71659972e-10  8.29489265e-08  5.90394951e-08  3.60727483e-05
+  -1.85053759e-08 -2.78888817e-07]
+ [ 9.11411723e-08  1.14966011e-05  3.60727483e-05  2.50605162e-02
+  -9.82449788e-06 -1.67938791e-04]
+ [-9.41975355e-07 -4.03323650e-08 -1.85053759e-08 -9.82449788e-06
+   9.23290403e-05 -2.03405923e-04]
+ [ 2.07532968e-06 -4.14309304e-07 -2.78888817e-07 -1.67938791e-04
+  -2.03405923e-04  4.49947119e-04]]</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.2745723080441076</v>
+      </c>
+      <c r="M49" t="n">
+        <v>20.19355609745165</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.204493215472877</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.03111480353860259</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.002665727268311414</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.7211047629719137</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.008755123901198395</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.03411813686905765</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>[[ 6.52035465e-08 -5.10135875e-08 -6.35644343e-08 -4.02155306e-06
+  -5.55653075e-06  7.68168026e-06]
+ [-6.08165428e-09  1.57170381e-06  4.10835912e-07  1.60976721e-04
+   4.03196480e-07 -2.65417301e-06]
+ [-2.20168740e-09  4.10835912e-07  2.16385458e-07  1.01841086e-04
+   1.45968401e-07 -1.23294659e-06]
+ [-9.06117807e-07  1.60976721e-04  1.01841086e-04  4.98685423e-02
+   6.00742743e-05 -5.59186779e-04]
+ [-1.64117255e-06  4.03196480e-07  1.45968401e-07  6.00742743e-05
+   1.01168594e-04 -1.35375419e-04]
+ [ 2.19518671e-06 -2.65417301e-06 -1.23294659e-06 -5.59186779e-04
+  -1.35375419e-04  1.86257642e-04]]</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
+        <v>1.284641494112981</v>
+      </c>
+      <c r="V49" t="n">
+        <v>15.0953180403002</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.329188921214225</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.04162340462390571</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.002979943183720469</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.3640823201132704</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.01949572192038816</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0.04265040364577057</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-1.009002263951738</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.5045007498334606</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1.513499718185604</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>86222</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>13</v>
+      </c>
+      <c r="C50" t="n">
+        <v>206</v>
+      </c>
+      <c r="D50" t="n">
+        <v>48</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.572578125</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.5678798794864801</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.038125</v>
+      </c>
+      <c r="H50" t="n">
+        <v>17.25276411453683</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.2976848435676724</v>
+      </c>
+      <c r="J50" t="n">
+        <v>32.02306342311963</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>[[ 2.11153857e-08  6.84042365e-10  1.37729606e-09  1.04233806e-07
+  -1.90725781e-06  4.19689446e-06]
+ [ 4.08473134e-10  8.01866819e-07  7.61839105e-08  9.57978224e-06
+  -4.38856292e-08 -3.65173941e-07]
+ [ 1.83672082e-10  7.61839105e-08  5.23687573e-08  3.24514840e-05
+  -1.97209981e-08 -2.40964395e-07]
+ [ 9.88695762e-08  9.57978224e-06  3.24514840e-05  2.30297684e-02
+  -1.06149421e-05 -1.47638627e-04]
+ [-8.62637955e-07 -4.38856292e-08 -1.97209981e-08 -1.06149421e-05
+   8.40207645e-05 -1.85086031e-04]
+ [ 1.90038838e-06 -3.65173941e-07 -2.40964395e-07 -1.47638627e-04
+  -1.85086031e-04  4.09355881e-04]]</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.2721361488592366</v>
+      </c>
+      <c r="M50" t="n">
+        <v>20.34296037272617</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.204439363959494</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.03088628789546018</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.002631491959830115</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.742315134527051</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.00950335788728158</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.03601483572997216</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>[[ 6.19846368e-08 -5.33211590e-08 -6.62558462e-08 -4.22795984e-06
+  -5.30389655e-06  7.35845918e-06]
+ [-8.76276931e-09  1.61570454e-06  4.23495295e-07  1.71981816e-04
+   5.62466680e-07 -2.93310201e-06]
+ [-3.12500813e-09  4.23495295e-07  2.23352381e-07  1.07945980e-04
+   2.00590055e-07 -1.33594124e-06]
+ [-1.32098610e-06  1.71981816e-04  1.07945980e-04  5.41017079e-02
+   8.47921180e-05 -6.19374308e-04]
+ [-1.72790319e-06  5.62466680e-07  2.00590055e-07  8.47921180e-05
+   1.03685909e-04 -1.39005313e-04]
+ [ 2.31531985e-06 -2.93310201e-06 -1.33594124e-06 -6.19374308e-04
+  -1.39005313e-04  1.91597263e-04]]</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
+        <v>1.298729721915737</v>
+      </c>
+      <c r="V50" t="n">
+        <v>14.94821744664178</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.329004062861446</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.04203300714354506</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.002882871082241411</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.3069109712046953</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.01400119051087659</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0.03578063786338091</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-1.009001172478286</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.5045006406861744</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1.513499881906047</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>86102</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>13</v>
+      </c>
+      <c r="C51" t="n">
+        <v>206</v>
+      </c>
+      <c r="D51" t="n">
+        <v>49</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.55953125</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.5595700814202642</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.037109375</v>
+      </c>
+      <c r="H51" t="n">
+        <v>17.36707552841012</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.2980069065088637</v>
+      </c>
+      <c r="J51" t="n">
+        <v>32.06805081210667</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>[[ 2.05965856e-08  6.77708422e-10  1.35360967e-09  9.87750352e-08
+  -1.88317865e-06  4.14397897e-06]
+ [ 6.33001707e-10  8.12692078e-07  8.56739209e-08  1.37500744e-05
+  -6.67829139e-08 -3.61261470e-07]
+ [ 2.76798105e-10  8.56739209e-08  5.50129875e-08  3.24560619e-05
+  -2.91912104e-08 -2.32371377e-07]
+ [ 1.41913919e-07  1.37500744e-05  3.24560619e-05  2.19659818e-02
+  -1.49655441e-05 -1.37012070e-04]
+ [-8.53250263e-07 -6.67829139e-08 -2.91912104e-08 -1.49655441e-05
+   8.12209430e-05 -1.78863046e-04]
+ [ 1.87919346e-06 -3.61261470e-07 -2.32371377e-07 -1.37012070e-04
+  -1.78863046e-04  3.95577423e-04]]</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.271649654063566</v>
+      </c>
+      <c r="M51" t="n">
+        <v>20.0198235543272</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.204428610264339</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.03138481860306657</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.002730232250361242</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.7699564668023219</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.01064647605665538</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.03805017227617852</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>[[ 6.48188964e-08 -6.02656802e-08 -7.59191570e-08 -4.53521918e-06
+  -5.60274452e-06  7.79402777e-06]
+ [-1.30308541e-08  1.65560476e-06  4.46221765e-07  1.80990594e-04
+   8.31750334e-07 -3.40396952e-06]
+ [-4.67169867e-09  4.46221765e-07  2.38036632e-07  1.13930812e-04
+   2.98186575e-07 -1.53235679e-06]
+ [-1.95578222e-06  1.80990594e-04  1.13930812e-04  5.64343252e-02
+   1.24832840e-04 -6.99050093e-04]
+ [-1.81167179e-06  8.31750334e-07  2.98186575e-07  1.24832840e-04
+   1.08385442e-04 -1.45757078e-04]
+ [ 2.43465858e-06 -3.40396952e-06 -1.53235679e-06 -6.99050093e-04
+  -1.45757078e-04  2.01553603e-04]]</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
+        <v>1.295175120996706</v>
+      </c>
+      <c r="V51" t="n">
+        <v>14.80237751887406</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.329050699624329</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.04244713593588657</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.002890911881112678</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.2710670539315688</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.01401235435845019</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0.03556328258007783</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-1.009001281625525</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.5044999312299654</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1.513502665158996</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>86164</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13</v>
+      </c>
+      <c r="C52" t="n">
+        <v>206</v>
+      </c>
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.5512602833540481</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.038125</v>
+      </c>
+      <c r="H52" t="n">
+        <v>17.13780977359214</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.2975505233185855</v>
+      </c>
+      <c r="J52" t="n">
+        <v>32.06116438966894</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>[[ 2.20751865e-08  9.09024620e-10  1.81308682e-09  1.36905269e-07
+  -1.99798373e-06  4.39467139e-06]
+ [ 2.84863430e-10  8.70575471e-07  8.54449940e-08  1.32665615e-05
+  -2.99598166e-08 -4.53254348e-07]
+ [ 1.29978123e-10  8.54449940e-08  6.15136917e-08  3.82652553e-05
+  -1.36567767e-08 -3.01945526e-07]
+ [ 7.02954250e-08  1.32665615e-05  3.82652553e-05  2.68564444e-02
+  -7.38515703e-06 -1.84281999e-04]
+ [-9.80007414e-07 -2.99598166e-08 -1.36567767e-08 -7.38515703e-06
+   9.39017432e-05 -2.06899634e-04]
+ [ 2.15938990e-06 -4.53254348e-07 -3.01945526e-07 -1.84281999e-04
+  -2.06899634e-04  4.57771418e-04]]</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.2748328184711268</v>
+      </c>
+      <c r="M52" t="n">
+        <v>20.04561371356851</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.204498974234533</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.03134443972112768</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.002615620510461643</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.695312467797872</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.008739942594913242</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.03443405555561962</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>[[ 5.90985293e-08 -4.86850746e-08 -6.09349190e-08 -3.96458290e-06
+  -5.06383174e-06  7.01682665e-06]
+ [-7.24318392e-09  1.47296186e-06  3.77425579e-07  1.55717765e-04
+   4.72756739e-07 -2.59561248e-06]
+ [-2.62813397e-09  3.77425579e-07  2.06363439e-07  1.02346577e-04
+   1.71538121e-07 -1.22080595e-06]
+ [-1.14063885e-06  1.55717765e-04  1.02346577e-04  5.26318061e-02
+   7.44493502e-05 -5.81587607e-04]
+ [-1.66328921e-06  4.72756739e-07  1.71538121e-07  7.44493502e-05
+   1.01879101e-04 -1.36457471e-04]
+ [ 2.22688327e-06 -2.59561248e-06 -1.22080595e-06 -5.81587607e-04
+  -1.36457471e-04  1.87670252e-04]]</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
+        <v>1.300006368719653</v>
+      </c>
+      <c r="V52" t="n">
+        <v>15.11835319129021</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.328987313910977</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.04155998492480897</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.002826628673307708</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.2910467528658892</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-0.01705080060198341</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0.03994332932162238</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-1.009001063331071</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.5045011318493344</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1.513501519112424</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>86122</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>13</v>
+      </c>
+      <c r="C53" t="n">
+        <v>206</v>
+      </c>
+      <c r="D53" t="n">
+        <v>51</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.552109375</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.5429504852878322</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.03515625</v>
+      </c>
+      <c r="H53" t="n">
+        <v>17.23167003613639</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.2973338920050009</v>
+      </c>
+      <c r="J53" t="n">
+        <v>32.03289976772967</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>[[ 2.06546419e-08  6.50320037e-10  1.31627440e-09  1.00882777e-07
+  -1.86660817e-06  4.10759833e-06]
+ [ 8.85357088e-11  7.57380062e-07  7.10173265e-08  8.86465771e-06
+  -9.58654463e-09 -4.13405850e-07]
+ [ 4.09861546e-11  7.10173265e-08  5.16885993e-08  3.23238433e-05
+  -4.42547122e-09 -2.70829913e-07]
+ [ 2.22785567e-08  8.86465771e-06  3.23238433e-05  2.29676097e-02
+  -2.40478322e-06 -1.64977873e-04]
+ [-8.46799838e-07 -9.58654463e-09 -4.42547122e-09 -2.40478322e-06
+   8.32964672e-05 -1.83575074e-04]
+ [ 1.86626672e-06 -4.13405850e-07 -2.70829913e-07 -1.64977873e-04
+  -1.83575074e-04  4.06191877e-04]]</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.2718969763302104</v>
+      </c>
+      <c r="M53" t="n">
+        <v>20.31407905707054</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.204434077171499</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.03093020013128606</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.002615439667334593</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.7105528498026892</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-0.009484229360635282</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.03614793793034243</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>[[ 6.22767973e-08 -5.88059524e-08 -7.39354931e-08 -4.37775718e-06
+  -5.37145932e-06  7.47623293e-06]
+ [-8.64213660e-09  1.77433426e-06  4.69277440e-07  1.81194944e-04
+   5.64741324e-07 -3.14894349e-06]
+ [-3.07137738e-09  4.69277440e-07  2.38015598e-07  1.09575495e-04
+   2.00708328e-07 -1.40513379e-06]
+ [-1.23627309e-06  1.81194944e-04  1.09575495e-04  5.25223138e-02
+   8.07878268e-05 -6.21244391e-04]
+ [-1.74026383e-06  5.64741324e-07  2.00708328e-07  8.07878268e-05
+   1.05271501e-04 -1.41108616e-04]
+ [ 2.33137746e-06 -3.14894349e-06 -1.40513379e-06 -6.21244391e-04
+  -1.41108616e-04  1.94711037e-04]]</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
+        <v>1.294115704845011</v>
+      </c>
+      <c r="V53" t="n">
+        <v>14.97623912960297</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.329064599916244</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.04195436018886643</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.00303114391946722</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.3898808132958974</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-0.01599331967714812</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0.03767689969092903</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-1.008998771245003</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.5044991126291269</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1.513495952625193</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>86178</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>13</v>
+      </c>
+      <c r="C54" t="n">
+        <v>206</v>
+      </c>
+      <c r="D54" t="n">
+        <v>52</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.5384375</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.5346406872216161</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.033359375</v>
+      </c>
+      <c r="H54" t="n">
+        <v>17.45436909733653</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.2980351101089736</v>
+      </c>
+      <c r="J54" t="n">
+        <v>31.99841219960122</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>[[ 2.20113339e-08  9.12453925e-10  1.83105295e-09  1.37054261e-07
+  -2.00607418e-06  4.41241498e-06]
+ [ 1.10870886e-10  8.14271195e-07  8.79795345e-08  1.36392794e-05
+  -1.18512066e-08 -4.91040408e-07]
+ [ 4.77835362e-11  8.79795345e-08  5.36033849e-08  3.07436415e-05
+  -5.09616445e-09 -2.78169484e-07]
+ [ 2.38299364e-08  1.36392794e-05  3.07436415e-05  2.04633233e-02
+  -2.54068002e-06 -1.55602202e-04]
+ [-8.23617598e-07 -1.18512066e-08 -5.09616445e-09 -2.54068002e-06
+   7.88580367e-05 -1.73788513e-04]
+ [ 1.81513414e-06 -4.91040408e-07 -2.78169484e-07 -1.55602202e-04
+  -1.73788513e-04  3.84646035e-04]]</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.2749023774878179</v>
+      </c>
+      <c r="M54" t="n">
+        <v>20.08270234259908</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.204500511889393</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.0312865529747548</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.002792986334448678</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.8117022103081593</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.005194278428618619</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.02575752538145246</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>[[ 5.32524509e-08 -4.56522452e-08 -5.78775045e-08 -3.56439088e-06
+  -4.60313149e-06  6.38620842e-06]
+ [-7.87451371e-09  1.52617124e-06  3.96139624e-07  1.54951105e-04
+   5.22933323e-07 -2.73795250e-06]
+ [-2.84394008e-09  3.96139624e-07  2.07506532e-07  9.77235528e-05
+   1.88862727e-07 -1.24816012e-06]
+ [-1.17109731e-06  1.54951105e-04  9.77235528e-05  4.79185462e-02
+   7.77710221e-05 -5.63691438e-04]
+ [-1.57998018e-06  5.22933323e-07  1.88862727e-07  7.77710221e-05
+   9.74610734e-05 -1.30659862e-04]
+ [ 2.11700737e-06 -2.73795250e-06 -1.24816012e-06 -5.63691438e-04
+  -1.30659862e-04  1.80070021e-04]]</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
+        <v>1.294670798735376</v>
+      </c>
+      <c r="V54" t="n">
+        <v>15.13111913068231</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.329057316654119</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.04152492127590736</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.002982144469900339</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.3757382192515019</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-0.01712918390197654</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0.03948410638530365</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-1.009004337757804</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.5045014592919718</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1.513499718185604</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>86091</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>13</v>
+      </c>
+      <c r="C55" t="n">
+        <v>206</v>
+      </c>
+      <c r="D55" t="n">
+        <v>53</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.530078125</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.5263308891554002</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.033046875</v>
+      </c>
+      <c r="H55" t="n">
+        <v>17.2266183791847</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.297916680586263</v>
+      </c>
+      <c r="J55" t="n">
+        <v>32.01443518883772</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>[[ 2.14579133e-08  7.21352242e-10  1.46357900e-09  1.12715680e-07
+  -1.94070909e-06  4.27017270e-06]
+ [ 1.93069621e-10  8.95486000e-07  9.10172151e-08  1.44208682e-05
+  -2.02965812e-08 -5.01330027e-07]
+ [ 8.59350929e-11  9.10172151e-08  6.14096848e-08  3.72676302e-05
+  -9.02059239e-09 -3.11503076e-07]
+ [ 4.53277159e-08  1.44208682e-05  3.72676302e-05  2.57418919e-02
+  -4.75718226e-06 -1.84792696e-04]
+ [-9.68517273e-07 -2.02965812e-08 -9.02059239e-09 -4.75718226e-06
+   9.22075715e-05 -2.03191308e-04]
+ [ 2.13430748e-06 -5.01330027e-07 -3.11503076e-07 -1.84792696e-04
+  -2.03191308e-04  4.49648144e-04]]</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>-0.2727301711868635</v>
+      </c>
+      <c r="M55" t="n">
+        <v>20.0354407202963</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2.204452494632823</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.0313603548576528</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.002668305542922111</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.7355717176723204</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-0.01190307831387123</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0.04115476450104482</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>[[ 5.87305620e-08 -4.77178394e-08 -5.99657542e-08 -3.79755968e-06
+  -5.01286091e-06  6.94230883e-06]
+ [-1.00399795e-08  1.51689989e-06  3.89126219e-07  1.61271867e-04
+   6.50376654e-07 -2.89096267e-06]
+ [-3.62195891e-09  3.89126219e-07  2.11539091e-07  1.05146445e-04
+   2.34624851e-07 -1.32873183e-06]
+ [-1.57538694e-06  1.61271867e-04  1.05146445e-04  5.41719780e-02
+   1.02050462e-04 -6.31084873e-04]
+ [-1.70674118e-06  6.50376654e-07  2.34624851e-07  1.02050462e-04
+   1.03790145e-04 -1.39323822e-04]
+ [ 2.28978030e-06 -2.89096267e-06 -1.32873183e-06 -6.31084873e-04
+  -1.39323822e-04  1.92028400e-04]]</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
+        <v>1.292595717905476</v>
+      </c>
+      <c r="V55" t="n">
+        <v>15.08141714206333</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.329084543731677</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.04166176989863413</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.00281565275794255</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.2854754747623204</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-0.01447001012702309</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0.03670630294712272</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.008999426125674</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.5045006406861744</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1.513499390744825</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>86013</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>13</v>
+      </c>
+      <c r="C56" t="n">
+        <v>206</v>
+      </c>
+      <c r="D56" t="n">
+        <v>54</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.527109375</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.518021091089184</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.02640625</v>
+      </c>
+      <c r="H56" t="n">
+        <v>17.32542952099341</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.2977536772742528</v>
+      </c>
+      <c r="J56" t="n">
+        <v>32.02513910361181</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>[[ 2.04153945e-08  6.90696082e-10  1.39240516e-09  1.05099856e-07
+  -1.85718344e-06  4.08645479e-06]
+ [ 2.46922375e-10  7.61576802e-07  7.34187599e-08  9.77901685e-06
+  -2.67383025e-08 -3.88683743e-07]
+ [ 1.14439421e-10  7.34187599e-08  5.33720509e-08  3.28984941e-05
+  -1.23797817e-08 -2.61950550e-07]
+ [ 6.13046491e-08  9.77901685e-06  3.28984941e-05  2.30172954e-02
+  -6.63106015e-06 -1.58427916e-04]
+ [-8.57768503e-07 -2.67383025e-08 -1.23797817e-08 -6.63106015e-06
+   8.44983138e-05 -1.86179746e-04]
+ [ 1.89003809e-06 -3.88683743e-07 -2.61950550e-07 -1.58427916e-04
+  -1.86179746e-04  4.11880821e-04]]</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.2723950641260298</v>
+      </c>
+      <c r="M56" t="n">
+        <v>20.2336685230156</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.204445087179323</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.03105311970507239</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.002648009660391591</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.7109315751319126</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.007857061473870459</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.03232630827527352</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>[[ 6.31511674e-08 -5.32013154e-08 -6.69908942e-08 -4.28176384e-06
+  -5.40865209e-06  7.50186190e-06]
+ [-7.98610320e-09  1.52746756e-06  3.96061495e-07  1.57268957e-04
+   5.31061971e-07 -2.75851395e-06]
+ [-2.91196283e-09  3.96061495e-07  2.12811595e-07  1.01808499e-04
+   1.93641902e-07 -1.28102726e-06]
+ [-1.21835810e-06  1.57268957e-04  1.01808499e-04  5.06331931e-02
+   8.10191097e-05 -5.87694707e-04]
+ [-1.65320027e-06  5.31061971e-07  1.93641902e-07  8.10191097e-05
+   1.02544575e-04 -1.37452434e-04]
+ [ 2.21484292e-06 -2.75851395e-06 -1.28102726e-06 -5.87694707e-04
+  -1.37452434e-04  1.89285873e-04]]</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
+        <v>1.300717330447276</v>
+      </c>
+      <c r="V56" t="n">
+        <v>15.14388428368642</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.328977986641224</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.04148991889714897</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.002936784781685273</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.3431942855553742</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-0.01653930969815862</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0.03890203521171913</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-1.009000954183879</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.5044986760430997</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1.513501355391627</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>85945</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>13</v>
+      </c>
+      <c r="C57" t="n">
+        <v>206</v>
+      </c>
+      <c r="D57" t="n">
+        <v>55</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.5097112930229681</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.029609375</v>
+      </c>
+      <c r="H57" t="n">
+        <v>17.28430530991029</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.2979136620588845</v>
+      </c>
+      <c r="J57" t="n">
+        <v>31.99826728040913</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>[[ 1.99405149e-08  7.00003792e-10  1.42582105e-09  1.10061078e-07
+  -1.80061729e-06  3.96156953e-06]
+ [ 3.82689959e-10  7.96482927e-07  7.81057038e-08  1.03841851e-05
+  -4.14579616e-08 -3.81011444e-07]
+ [ 1.74187119e-10  7.81057038e-08  5.43009863e-08  3.30066101e-05
+  -1.88575684e-08 -2.52847997e-07]
+ [ 9.19862773e-08  1.03841851e-05  3.30066101e-05  2.29311103e-02
+  -9.95769591e-06 -1.51739933e-04]
+ [-8.71687295e-07 -4.14579616e-08 -1.88575684e-08 -9.95769591e-06
+   8.56146808e-05 -1.88604290e-04]
+ [ 1.92038847e-06 -3.81011444e-07 -2.52847997e-07 -1.51739933e-04
+  -1.88604290e-04  4.17174953e-04]]</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.2735251128972549</v>
+      </c>
+      <c r="M57" t="n">
+        <v>20.25915482346906</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2.204470066809504</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.03101405444565179</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.002678074178068466</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.7392748577476758</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.009862832513984772</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.03673295603714389</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>[[ 5.85784202e-08 -6.98714754e-08 -8.83239549e-08 -4.68976374e-06
+  -5.08328714e-06  7.14265974e-06]
+ [-1.06772068e-08  1.88427291e-06  5.07589592e-07  1.85446997e-04
+   7.09069293e-07 -3.50595217e-06]
+ [-3.77754945e-09  5.07589592e-07  2.46899951e-07  1.07272548e-04
+   2.50865449e-07 -1.51085568e-06]
+ [-1.43580041e-06  1.85446997e-04  1.07272548e-04  4.87090831e-02
+   9.53503405e-05 -6.28528945e-04]
+ [-1.67401836e-06  7.09069293e-07  2.50865449e-07  9.53503405e-05
+   1.01853355e-04 -1.36802907e-04]
+ [ 2.24660907e-06 -3.50595217e-06 -1.51085568e-06 -6.28528945e-04
+  -1.36802907e-04  1.89466989e-04]]</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
+        <v>1.291570579112955</v>
+      </c>
+      <c r="V57" t="n">
+        <v>14.94938783159405</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.329097994960802</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.04202971638678539</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.003199477706960098</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.4692319706563978</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-0.0155150467677848</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0.03632766729906101</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-1.008999426125674</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.5045005861125494</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1.513501846554125</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>86080</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>13</v>
+      </c>
+      <c r="C58" t="n">
+        <v>206</v>
+      </c>
+      <c r="D58" t="n">
+        <v>56</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.5028125</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.501401494956752</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-0.029609375</v>
+      </c>
+      <c r="H58" t="n">
+        <v>17.33808588097419</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.2982390787853245</v>
+      </c>
+      <c r="J58" t="n">
+        <v>32.03157873212547</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>[[ 2.01582643e-08  8.16765896e-10  1.66283127e-09  1.26766660e-07
+  -1.82628959e-06  4.01695011e-06]
+ [ 4.48782602e-10  5.97752354e-07  4.68925401e-08  4.17893316e-06
+  -4.92318711e-08 -1.99831156e-07]
+ [ 2.35584163e-10  4.68925401e-08  4.77469225e-08  3.28400348e-05
+  -2.58321687e-08 -2.02209086e-07]
+ [ 1.41593673e-07  4.17893316e-06  3.28400348e-05  2.47608026e-02
+  -1.55255419e-05 -1.38904533e-04]
+ [-7.94582603e-07 -4.92318711e-08 -2.58321687e-08 -1.55255419e-05
+   8.13678930e-05 -1.79203312e-04]
+ [ 1.75008118e-06 -1.99831156e-07 -2.02209086e-07 -1.38904533e-04
+  -1.79203312e-04  3.96173145e-04]]</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>-0.2754929944190798</v>
+      </c>
+      <c r="M58" t="n">
+        <v>20.35570678577353</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2.204513568011367</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.03086694740352058</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.002398133992067008</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.5235806277709152</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-0.008141875240170186</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.03425153584058806</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>[[ 5.68997908e-08 -4.60887943e-08 -5.84403229e-08 -3.78018886e-06
+  -4.86339869e-06  6.73853603e-06]
+ [ 2.69572622e-10  1.58228941e-06  4.15326460e-07  1.62892778e-04
+  -1.78724408e-08 -2.11720927e-06]
+ [ 9.78568479e-11  4.15326460e-07  2.19672475e-07  1.03361451e-04
+  -6.48518827e-09 -1.04547306e-06]
+ [ 4.02679056e-08  1.62892778e-04  1.03361451e-04  5.05772569e-02
+  -2.66857558e-06 -4.82684292e-04]
+ [-1.66184871e-06 -1.78724408e-08 -6.48518827e-09 -2.66857558e-06
+   1.02465641e-04 -1.36239911e-04]
+ [ 2.20965930e-06 -2.11720927e-06 -1.04547306e-06 -4.82684292e-04
+  -1.36239911e-04  1.86335937e-04]]</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
+        <v>1.300832098961258</v>
+      </c>
+      <c r="V58" t="n">
+        <v>15.0771218070899</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.328976480979074</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.04167363895823251</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.002978669507807518</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.3569503109596834</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-0.01137329047441879</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0.03182405638686918</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.009003246279864</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.5045014592919718</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1.513501519112424</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>86000</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>13</v>
+      </c>
+      <c r="C59" t="n">
+        <v>206</v>
+      </c>
+      <c r="D59" t="n">
+        <v>57</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.493671875</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.4930916968905361</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.02859375</v>
+      </c>
+      <c r="H59" t="n">
+        <v>17.2262682990783</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.2977440239148897</v>
+      </c>
+      <c r="J59" t="n">
+        <v>32.34980117956397</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>[[ 2.15373740e-08  1.02197397e-09  2.04233378e-09  1.49643188e-07
+  -1.96940361e-06  4.33053396e-06]
+ [ 6.77316428e-10  6.38509431e-07  5.23095675e-08  5.90859672e-06
+  -7.26213468e-08 -1.78089636e-07]
+ [ 3.42630301e-10  5.23095675e-08  4.93737375e-08  3.37021085e-05
+  -3.67249510e-08 -1.86513670e-07]
+ [ 2.04142780e-07  5.90859672e-06  3.37021085e-05  2.53015588e-02
+  -2.18806470e-05 -1.29093118e-04]
+ [-8.21001677e-07 -7.26213468e-08 -3.67249510e-08 -2.18806470e-05
+   8.18822672e-05 -1.80276248e-04]
+ [ 1.80772104e-06 -1.78089636e-07 -1.86513670e-07 -1.29093118e-04
+  -1.80276248e-04  3.98446586e-04]]</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.276773293723942</v>
+      </c>
+      <c r="M59" t="n">
+        <v>20.24795656159644</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.204541870717586</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.03103120696681399</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.002411219505577324</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.5493516650525939</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.004824544760114989</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.02687733533468701</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>[[ 6.64173311e-08 -3.20445276e-08 -4.06008411e-08 -2.58485363e-06
+  -5.63784880e-06  7.68223966e-06]
+ [-2.81260630e-10  1.81959679e-06  4.94464440e-07  1.89907481e-04
+   1.79455695e-08 -2.52839601e-06]
+ [-9.85256132e-11  4.94464440e-07  2.45390994e-07  1.10872514e-04
+   6.28892718e-09 -1.17441577e-06]
+ [-3.89199001e-08  1.89907481e-04  1.10872514e-04  5.20656620e-02
+   2.48436900e-06 -5.20070227e-04]
+ [-1.71928042e-06  1.79455695e-08  6.28892718e-09  2.48436900e-06
+   1.01482180e-04 -1.34996709e-04]
+ [ 2.28703092e-06 -2.52839601e-06 -1.17441577e-06 -5.20070227e-04
+  -1.34996709e-04  1.85251585e-04]]</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
+        <v>1.30444313666136</v>
+      </c>
+      <c r="V59" t="n">
+        <v>14.74640982704165</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.328929109076848</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.04260823740065608</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.003059889153977811</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.3755837716372014</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-0.01139872498067406</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0.03144360575869365</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-1.009002591394234</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.5045001495239716</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1.513504302371394</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>85916</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>13</v>
+      </c>
+      <c r="C60" t="n">
+        <v>206</v>
+      </c>
+      <c r="D60" t="n">
+        <v>58</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.486171875</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.48478189882432</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.029921875</v>
+      </c>
+      <c r="H60" t="n">
+        <v>17.29970240330652</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.2983135665144078</v>
+      </c>
+      <c r="J60" t="n">
+        <v>32.00048779344345</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>[[ 2.04860824e-08  8.87705176e-10  1.80660211e-09  1.36224107e-07
+  -1.86376982e-06  4.09883816e-06]
+ [ 5.19583092e-10  8.50689061e-07  8.54512787e-08  1.11525079e-05
+  -5.68673026e-08 -3.87541664e-07]
+ [ 2.34335025e-10  8.54512787e-08  5.73204408e-08  3.40518288e-05
+  -2.56343551e-08 -2.54478103e-07]
+ [ 1.20925909e-07  1.11525079e-05  3.40518288e-05  2.32985293e-02
+  -1.32275149e-05 -1.50142856e-04]
+ [-9.11539788e-07 -5.68673026e-08 -2.56343551e-08 -1.32275149e-05
+   9.01226143e-05 -1.98502796e-04]
+ [ 2.00789957e-06 -3.87541664e-07 -2.54478103e-07 -1.50142856e-04
+  -1.98502796e-04  4.39005161e-04]]</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.2763827479149383</v>
+      </c>
+      <c r="M60" t="n">
+        <v>20.29476029828669</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.2045332371099</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.03095964285771841</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.002731605693189208</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.768275016778612</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.009445590800613413</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.03557317678614679</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>[[ 5.73623158e-08 -6.35105733e-08 -8.04281547e-08 -4.56420554e-06
+  -5.01911621e-06  7.03226081e-06]
+ [-1.20202174e-08  1.74926132e-06  4.67480326e-07  1.79872714e-04
+   7.95589579e-07 -3.45379603e-06]
+ [-4.34308445e-09  4.67480326e-07  2.43113118e-07  1.11629637e-04
+   2.87455833e-07 -1.54580954e-06]
+ [-1.74347134e-06  1.79872714e-04  1.11629637e-04  5.33281047e-02
+   1.15394128e-04 -6.77272123e-04]
+ [-1.78323616e-06  7.95589579e-07  2.87455833e-07  1.15394128e-04
+   1.09521090e-04 -1.47206114e-04]
+ [ 2.39502222e-06 -3.45379603e-06 -1.54580954e-06 -6.77272123e-04
+  -1.47206114e-04  2.03544479e-04]]</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
+        <v>1.30573653530548</v>
+      </c>
+      <c r="V60" t="n">
+        <v>14.98835539823488</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.328912142267597</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.04192044517385497</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.003040851333567298</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.3728040913819132</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-0.01882927216563651</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0.0414686637435371</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-1.008999316978837</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0.5045018958828168</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1.513497262383211</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-16.40815625</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>6.704812499999999</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>11.1393875</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>85892</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO60" t="b">
         <v>1</v>
       </c>
     </row>

--- a/dump_files/temp_data_xrv.xlsx
+++ b/dump_files/temp_data_xrv.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:AO1"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,6 +636,459 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.386484375</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3895451294573561</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.019375</v>
+      </c>
+      <c r="H2" t="n">
+        <v>14.45002427304607</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1604804911245413</v>
+      </c>
+      <c r="J2" t="n">
+        <v>36.47288402410519</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[[ 3.34323263e-09  1.37253246e-10  4.48108361e-10  6.15178112e-08
+  -1.30800621e-07  2.85545815e-07]
+ [ 5.02919562e-12  8.07071605e-09 -5.58822965e-10 -6.15817844e-07
+  -3.52227708e-09  8.81095146e-09]
+ [ 4.07220739e-11 -5.58822965e-10  4.12996262e-09  1.13759582e-06
+  -2.84871382e-08  4.12720119e-08]
+ [ 1.00247748e-08 -6.15817844e-07  1.13759582e-06  3.58721905e-04
+  -7.01264694e-06  9.74130915e-06]
+ [-2.24539386e-08 -3.52227708e-09 -2.84871382e-08 -7.01264694e-06
+   1.52451431e-05 -3.33815694e-05]
+ [ 4.91751047e-08  8.81095146e-09  4.12720119e-08  9.74130915e-06
+  -3.33815694e-05  7.32290460e-05]]</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.1995191749448844</v>
+      </c>
+      <c r="M2" t="n">
+        <v>26.3703380250261</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.20283536651915</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.02382671508122759</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.006749365298061104</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3310399441423864</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01955543805103895</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.01269619445519747</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>[[ 1.24920316e-08 -2.66258375e-09 -2.22615906e-09 -1.49386697e-07
+  -4.04619988e-07  5.55845343e-07]
+ [-8.21472967e-11  4.71065846e-08  3.36866008e-08  3.19540080e-06
+   1.04204789e-08 -1.48795569e-07]
+ [-8.18142685e-11  3.36866008e-08  4.35307493e-08  5.08036906e-06
+   1.03785922e-08 -1.80423383e-07]
+ [-8.38119236e-09  3.19540080e-06  5.08036906e-06  6.29240770e-04
+   1.06320688e-06 -2.04914025e-05]
+ [-6.44692578e-08  1.04204789e-08  1.03785922e-08  1.06320688e-06
+   7.33224650e-06 -9.97490996e-06]
+ [ 8.76656103e-08 -1.48795569e-07 -1.80423383e-07 -2.04914025e-05
+  -9.97490996e-06  1.42190943e-05]]</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.5971245776998035</v>
+      </c>
+      <c r="V2" t="n">
+        <v>12.31190331064625</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.354351398701363</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.05103341984294531</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.01199494571473045</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.6582492635724109</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.003382710706803671</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.02401624282889409</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.5029742135069977</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1.008995566122331</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1.513508827211741</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>50177</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.392421875</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.400292173376275</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.01953125</v>
+      </c>
+      <c r="H3" t="n">
+        <v>14.62449438552168</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1623516657921827</v>
+      </c>
+      <c r="J3" t="n">
+        <v>36.84504553115146</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[[ 3.35175926e-09  1.28001579e-10  4.15417175e-10  5.58318835e-08
+  -1.34719743e-07  2.94366234e-07]
+ [ 5.26209957e-12  8.88806639e-09 -5.87098428e-10 -6.72231035e-07
+  -3.72901214e-09  9.22736706e-09]
+ [ 4.09373824e-11 -5.87098428e-10  4.63376893e-09  1.25435286e-06
+  -2.89774425e-08  3.96452922e-08]
+ [ 9.89045436e-09 -6.72231035e-07  1.25435286e-06  3.90010225e-04
+  -7.00076293e-06  9.10870927e-06]
+ [-2.51814660e-08 -3.72901214e-09 -2.89774425e-08 -7.00076293e-06
+   1.72730742e-05 -3.78453047e-05]
+ [ 5.51818967e-08  9.22736706e-09  3.96452922e-08  9.10870927e-06
+  -3.78453047e-05  8.30719805e-05]]</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.2010163679237675</v>
+      </c>
+      <c r="M3" t="n">
+        <v>26.40176067418819</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.202868413645728</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.02379835718048294</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.006886945032165119</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.3468727376230543</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01733133263297782</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.007712573263520741</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>[[ 1.47588238e-08 -3.34991796e-09 -2.86757041e-09 -1.94658624e-07
+  -4.83347956e-07  6.64837188e-07]
+ [-2.35046738e-10  6.11723244e-08  4.48093074e-08  4.03960244e-06
+   3.06636715e-08 -2.19347764e-07]
+ [-2.36129767e-10  4.48093074e-08  5.69809328e-08  6.30338174e-06
+   3.08051347e-08 -2.59061552e-07]
+ [-2.29813545e-08  4.03960244e-06  6.30338174e-06  7.42697023e-04
+   2.99810205e-06 -2.76652204e-05]
+ [-7.87418636e-08  3.06636715e-08  3.08051347e-08  2.99810205e-06
+   9.13851492e-06 -1.25024966e-05]
+ [ 1.07605980e-07 -2.19347764e-07 -2.59061552e-07 -2.76652204e-05
+  -1.25024966e-05  1.79486112e-05]]</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.590791683442049</v>
+      </c>
+      <c r="V3" t="n">
+        <v>12.31944797701489</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.354265119328042</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.05100216599723046</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.01255269357825202</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.7116730859819469</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.00827104435114088</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.02919019357618715</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.5029745943664593</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.008999058819861</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.513504243010262</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>49718</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.387890625</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4110392172951939</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.0196875</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14.56170173348895</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1619134804583391</v>
+      </c>
+      <c r="J4" t="n">
+        <v>36.69081052818206</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[[ 3.51032102e-09  1.43850620e-10  4.72628467e-10  6.46940778e-08
+  -1.37853718e-07  3.00942025e-07]
+ [ 5.11455338e-12  8.13095588e-09 -5.64205883e-10 -6.18028927e-07
+  -3.57378407e-09  8.92016113e-09]
+ [ 4.11333504e-11 -5.64205883e-10  4.22034083e-09  1.15430810e-06
+  -2.87090429e-08  4.13131437e-08]
+ [ 1.00545011e-08 -6.18028927e-07  1.15430810e-06  3.61122524e-04
+  -7.01736094e-06  9.67339440e-06]
+ [-2.27828182e-08 -3.57378407e-09 -2.87090429e-08 -7.01736094e-06
+   1.54332824e-05 -3.37943453e-05]
+ [ 4.98965054e-08  8.92016113e-09  4.13131437e-08  9.67339440e-06
+  -3.37943453e-05  7.41371991e-05]]</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.1991434820987736</v>
+      </c>
+      <c r="M4" t="n">
+        <v>26.28438158632956</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.202827074110476</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.02390463434166339</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.006790984717259054</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.3297938198398468</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.01876500467619497</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.01077562721389261</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>[[ 1.50703138e-08 -3.57707002e-09 -3.02325755e-09 -2.04756072e-07
+  -4.90023195e-07  6.74368875e-07]
+ [-7.79237288e-11  3.56761610e-08  2.59276469e-08  2.36959281e-06
+   1.00315821e-08 -1.16477559e-07]
+ [-7.75214240e-11  2.59276469e-08  3.27242747e-08  3.66484272e-06
+   9.98005127e-09 -1.38282453e-07]
+ [-7.63672493e-09  2.36959281e-06  3.66484272e-06  4.36826879e-04
+   9.83150926e-07 -1.50494823e-05]
+ [-4.56639124e-08  1.00315821e-08  9.98005127e-09  9.83150926e-07
+   5.23342209e-06 -7.12963840e-06]
+ [ 6.21695776e-08 -1.16477559e-07 -1.38282453e-07 -1.50494823e-05
+  -7.12963840e-06  1.01977769e-05]]</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.5909360910168804</v>
+      </c>
+      <c r="V4" t="n">
+        <v>12.30151158501554</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.354267086614866</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.05107653042275818</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.01240245114469744</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.7047853649007698</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.002483259171899697</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.02167290368083439</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.5029748664092858</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1.008996548441067</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.513503260684987</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>49867</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dump_files/temp_data_xrv.xlsx
+++ b/dump_files/temp_data_xrv.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +665,7 @@
         <v>0.1604804911245413</v>
       </c>
       <c r="J2" t="n">
-        <v>36.47288402410519</v>
+        <v>2.553180748865975</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -787,308 +787,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>13</v>
-      </c>
-      <c r="C3" t="n">
-        <v>23999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.392421875</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.400292173376275</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-0.01953125</v>
-      </c>
-      <c r="H3" t="n">
-        <v>14.62449438552168</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1623516657921827</v>
-      </c>
-      <c r="J3" t="n">
-        <v>36.84504553115146</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[[ 3.35175926e-09  1.28001579e-10  4.15417175e-10  5.58318835e-08
-  -1.34719743e-07  2.94366234e-07]
- [ 5.26209957e-12  8.88806639e-09 -5.87098428e-10 -6.72231035e-07
-  -3.72901214e-09  9.22736706e-09]
- [ 4.09373824e-11 -5.87098428e-10  4.63376893e-09  1.25435286e-06
-  -2.89774425e-08  3.96452922e-08]
- [ 9.89045436e-09 -6.72231035e-07  1.25435286e-06  3.90010225e-04
-  -7.00076293e-06  9.10870927e-06]
- [-2.51814660e-08 -3.72901214e-09 -2.89774425e-08 -7.00076293e-06
-   1.72730742e-05 -3.78453047e-05]
- [ 5.51818967e-08  9.22736706e-09  3.96452922e-08  9.10870927e-06
-  -3.78453047e-05  8.30719805e-05]]</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>-0.2010163679237675</v>
-      </c>
-      <c r="M3" t="n">
-        <v>26.40176067418819</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.202868413645728</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.02379835718048294</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.006886945032165119</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.3468727376230543</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.01733133263297782</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-0.007712573263520741</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>[[ 1.47588238e-08 -3.34991796e-09 -2.86757041e-09 -1.94658624e-07
-  -4.83347956e-07  6.64837188e-07]
- [-2.35046738e-10  6.11723244e-08  4.48093074e-08  4.03960244e-06
-   3.06636715e-08 -2.19347764e-07]
- [-2.36129767e-10  4.48093074e-08  5.69809328e-08  6.30338174e-06
-   3.08051347e-08 -2.59061552e-07]
- [-2.29813545e-08  4.03960244e-06  6.30338174e-06  7.42697023e-04
-   2.99810205e-06 -2.76652204e-05]
- [-7.87418636e-08  3.06636715e-08  3.08051347e-08  2.99810205e-06
-   9.13851492e-06 -1.25024966e-05]
- [ 1.07605980e-07 -2.19347764e-07 -2.59061552e-07 -2.76652204e-05
-  -1.25024966e-05  1.79486112e-05]]</t>
-        </is>
-      </c>
-      <c r="U3" t="n">
-        <v>-0.590791683442049</v>
-      </c>
-      <c r="V3" t="n">
-        <v>12.31944797701489</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.354265119328042</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.05100216599723046</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.01255269357825202</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.7116730859819469</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>-0.00827104435114088</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.02919019357618715</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>-0.5029745943664593</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1.008999058819861</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1.513504243010262</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>90.00002493749997</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>25.5029</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>6.775275000000001</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11.09699999999999</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>49718</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>13</v>
-      </c>
-      <c r="C4" t="n">
-        <v>23999</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.387890625</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.4110392172951939</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-0.0196875</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14.56170173348895</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1619134804583391</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36.69081052818206</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>[[ 3.51032102e-09  1.43850620e-10  4.72628467e-10  6.46940778e-08
-  -1.37853718e-07  3.00942025e-07]
- [ 5.11455338e-12  8.13095588e-09 -5.64205883e-10 -6.18028927e-07
-  -3.57378407e-09  8.92016113e-09]
- [ 4.11333504e-11 -5.64205883e-10  4.22034083e-09  1.15430810e-06
-  -2.87090429e-08  4.13131437e-08]
- [ 1.00545011e-08 -6.18028927e-07  1.15430810e-06  3.61122524e-04
-  -7.01736094e-06  9.67339440e-06]
- [-2.27828182e-08 -3.57378407e-09 -2.87090429e-08 -7.01736094e-06
-   1.54332824e-05 -3.37943453e-05]
- [ 4.98965054e-08  8.92016113e-09  4.13131437e-08  9.67339440e-06
-  -3.37943453e-05  7.41371991e-05]]</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>-0.1991434820987736</v>
-      </c>
-      <c r="M4" t="n">
-        <v>26.28438158632956</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.202827074110476</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.02390463434166339</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.006790984717259054</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.3297938198398468</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.01876500467619497</v>
-      </c>
-      <c r="S4" t="n">
-        <v>-0.01077562721389261</v>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>[[ 1.50703138e-08 -3.57707002e-09 -3.02325755e-09 -2.04756072e-07
-  -4.90023195e-07  6.74368875e-07]
- [-7.79237288e-11  3.56761610e-08  2.59276469e-08  2.36959281e-06
-   1.00315821e-08 -1.16477559e-07]
- [-7.75214240e-11  2.59276469e-08  3.27242747e-08  3.66484272e-06
-   9.98005127e-09 -1.38282453e-07]
- [-7.63672493e-09  2.36959281e-06  3.66484272e-06  4.36826879e-04
-   9.83150926e-07 -1.50494823e-05]
- [-4.56639124e-08  1.00315821e-08  9.98005127e-09  9.83150926e-07
-   5.23342209e-06 -7.12963840e-06]
- [ 6.21695776e-08 -1.16477559e-07 -1.38282453e-07 -1.50494823e-05
-  -7.12963840e-06  1.01977769e-05]]</t>
-        </is>
-      </c>
-      <c r="U4" t="n">
-        <v>-0.5909360910168804</v>
-      </c>
-      <c r="V4" t="n">
-        <v>12.30151158501554</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.354267086614866</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.05107653042275818</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.01240245114469744</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.7047853649007698</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>-0.002483259171899697</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.02167290368083439</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>-0.5029748664092858</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1.008996548441067</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1.513503260684987</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>90.00002493749997</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>25.5029</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>6.775275000000001</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>11.09699999999999</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>49867</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dump_files/temp_data_xrv.xlsx
+++ b/dump_files/temp_data_xrv.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,93 +659,93 @@
         <v>-0.019375</v>
       </c>
       <c r="H2" t="n">
-        <v>14.45002427304607</v>
+        <v>8.515105475480077</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1604804911245413</v>
+        <v>0.12060328688496</v>
       </c>
       <c r="J2" t="n">
-        <v>2.553180748865975</v>
+        <v>35.27879307252327</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[[ 3.34323263e-09  1.37253246e-10  4.48108361e-10  6.15178112e-08
-  -1.30800621e-07  2.85545815e-07]
- [ 5.02919562e-12  8.07071605e-09 -5.58822965e-10 -6.15817844e-07
-  -3.52227708e-09  8.81095146e-09]
- [ 4.07220739e-11 -5.58822965e-10  4.12996262e-09  1.13759582e-06
-  -2.84871382e-08  4.12720119e-08]
- [ 1.00247748e-08 -6.15817844e-07  1.13759582e-06  3.58721905e-04
-  -7.01264694e-06  9.74130915e-06]
- [-2.24539386e-08 -3.52227708e-09 -2.84871382e-08 -7.01264694e-06
-   1.52451431e-05 -3.33815694e-05]
- [ 4.91751047e-08  8.81095146e-09  4.12720119e-08  9.74130915e-06
-  -3.33815694e-05  7.32290460e-05]]</t>
+          <t>[[ 1.13698670e-02  8.45982782e-04  2.83033657e-03  3.00685326e-04
+  -2.28488382e-07  1.28135248e-05]
+ [ 8.64312972e-05  8.21597773e-02 -4.59962766e-03 -4.72663839e-03
+  -3.42479852e-08  9.52961186e-06]
+ [ 7.24825542e-04 -4.59962766e-03  3.38903210e-02  7.30462730e-03
+  -2.86619921e-07 -9.98597234e-05]
+ [ 1.39587641e-04 -4.72663839e-03  7.30462730e-03  1.85673338e-03
+  -5.51912414e-08 -2.11573694e-05]
+ [-1.07900587e-07 -3.42479852e-08 -2.86619921e-07 -5.51912414e-08
+   4.13188795e-11 -3.00115081e-09]
+ [ 7.96520412e-06  9.52961186e-06 -9.98597234e-05 -2.11573694e-05
+  -3.00115081e-09  8.03390699e-07]]</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>-0.1995191749448844</v>
+        <v>-0.2275832416854029</v>
       </c>
       <c r="M2" t="n">
-        <v>26.3703380250261</v>
+        <v>27.80791668966973</v>
       </c>
       <c r="N2" t="n">
-        <v>2.20283536651915</v>
+        <v>2.203454981847244</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02382671508122759</v>
+        <v>0.02259495156468772</v>
       </c>
       <c r="P2" t="n">
-        <v>0.006749365298061104</v>
+        <v>8.833575819322322</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3310399441423864</v>
+        <v>0.4009397005482184</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01955543805103895</v>
+        <v>2.921512734057386e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.01269619445519747</v>
+        <v>0.02590615554403991</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[[ 1.24920316e-08 -2.66258375e-09 -2.22615906e-09 -1.49386697e-07
-  -4.04619988e-07  5.55845343e-07]
- [-8.21472967e-11  4.71065846e-08  3.36866008e-08  3.19540080e-06
-   1.04204789e-08 -1.48795569e-07]
- [-8.18142685e-11  3.36866008e-08  4.35307493e-08  5.08036906e-06
-   1.03785922e-08 -1.80423383e-07]
- [-8.38119236e-09  3.19540080e-06  5.08036906e-06  6.29240770e-04
-   1.06320688e-06 -2.04914025e-05]
- [-6.44692578e-08  1.04204789e-08  1.03785922e-08  1.06320688e-06
-   7.33224650e-06 -9.97490996e-06]
- [ 8.76656103e-08 -1.48795569e-07 -1.80423383e-07 -2.04914025e-05
-  -9.97490996e-06  1.42190943e-05]]</t>
+          <t>[[ 1.26804930e-01 -2.54523985e-01 -2.06945633e-01 -1.05256939e-02
+  -2.36515180e-06  9.99434575e-04]
+ [-4.76727638e-02  1.18729019e+00  6.28118606e-01  5.13667252e-02
+   3.34978703e-06 -2.66091190e-03]
+ [-4.80355045e-02  6.28118606e-01  9.44902976e-01  1.07627262e-01
+   3.37041383e-06 -3.42392430e-03]
+ [-4.75945893e-03  5.13667252e-02  1.07627262e-01  1.30339067e-02
+   3.33717825e-07 -3.72639943e-04]
+ [-1.38646700e-06  3.34978703e-06  3.37041383e-06  3.33717825e-07
+   9.12184463e-11 -2.84943714e-08]
+ [ 4.22447697e-04 -2.66091190e-03 -3.42392430e-03 -3.72639943e-04
+  -2.84943714e-08  1.60187811e-05]]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>-0.5971245776998035</v>
+        <v>-0.5801171099539149</v>
       </c>
       <c r="V2" t="n">
-        <v>12.31190331064625</v>
+        <v>13.27782701694134</v>
       </c>
       <c r="W2" t="n">
-        <v>1.354351398701363</v>
+        <v>1.354119713780194</v>
       </c>
       <c r="X2" t="n">
-        <v>0.05103341984294531</v>
+        <v>0.0473208854066467</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01199494571473045</v>
+        <v>12.91281147451613</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6582492635724109</v>
+        <v>0.4967420347331041</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.003382710706803671</v>
+        <v>-6.638881116368535e-05</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02401624282889409</v>
+        <v>0.04032348157113813</v>
       </c>
       <c r="AC2" t="n">
         <v>-0.5029742135069977</v>
@@ -784,6 +784,5895 @@
         <v>1</v>
       </c>
       <c r="AO2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.392421875</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.400292173376275</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.01953125</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9.219466138112525</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1574268156668868</v>
+      </c>
+      <c r="J3" t="n">
+        <v>35.63486061386218</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[[ 1.31000028e-02  5.61768899e-04  1.78861465e-03  1.82994557e-04
+  -2.80337657e-07  2.27261039e-05]
+ [ 3.17291247e-05  5.08377629e-02 -3.04816570e-03 -2.91201565e-03
+  -1.28455204e-08  5.29531433e-06]
+ [ 2.52245337e-04 -3.04816570e-03  2.36985474e-02  4.91382198e-03
+  -1.02070278e-07 -8.14034735e-05]
+ [ 4.66104766e-05 -2.91201565e-03  4.91382198e-03  1.18990933e-03
+  -1.88602460e-08 -1.64170393e-05]
+ [-7.43607945e-08 -1.28455204e-08 -1.02070278e-07 -1.88602460e-08
+   2.90946891e-11 -2.61990085e-09]
+ [ 6.74253231e-06  5.29531433e-06 -8.14034735e-05 -1.64170393e-05
+  -2.61990085e-09  6.76257030e-07]]</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.2022380836603888</v>
+      </c>
+      <c r="M3" t="n">
+        <v>27.5818861230765</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.202895380974002</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.02278011474321451</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9.123690627438759</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.3866283102725532</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.266625013876973e-05</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.02769477978099538</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>[[ 1.29093907e-01 -9.67744937e-03 -8.10070049e-03 -4.26259151e-04
+  -2.19505472e-06  4.43499789e-04]
+ [-3.65139195e-03  1.50952094e+00  1.06679715e+00  7.21143738e-02
+   2.53508808e-07 -3.16638849e-03]
+ [-3.60610367e-03  1.06679715e+00  1.33607374e+00  1.11798975e-01
+   2.50364874e-07 -3.79877289e-03]
+ [-2.65412130e-04  7.21143738e-02  1.11798975e-01  9.98108700e-03
+   1.84270492e-08 -3.11602964e-04]
+ [-1.04020144e-06  2.53508808e-07  2.50364874e-07  1.84270492e-08
+   6.42326343e-11 -1.30923361e-08]
+ [ 2.10651099e-04 -3.16638849e-03 -3.79877289e-03 -3.11602964e-04
+  -1.30923361e-08  1.34042928e-05]]</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.5975839239239611</v>
+      </c>
+      <c r="V3" t="n">
+        <v>12.40716898775087</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.354357657263536</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.05064157112216927</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>16.6608193477387</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.7172816241934743</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1.2374593923719e-06</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.01679135352435264</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.5029745943664593</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1.008999058819861</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.513504243010262</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>49718</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.387890625</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4110392172951939</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.0196875</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.159529803823593</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1560851705191057</v>
+      </c>
+      <c r="J4" t="n">
+        <v>35.48101951190166</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[[ 1.48577797e-02  5.59509223e-04  1.77769581e-03  1.84714721e-04
+  -3.17233443e-07  2.67444111e-05]
+ [ 2.79549233e-05  5.28415344e-02 -3.40172398e-03 -3.03834996e-03
+  -1.11328918e-08  5.92169031e-06]
+ [ 2.25633742e-04 -3.40172398e-03  2.51717471e-02  5.26932281e-03
+  -8.98258687e-08 -8.84787802e-05]
+ [ 4.21449057e-05 -3.03834996e-03  5.26932281e-03  1.27650493e-03
+  -1.67777793e-08 -1.79936186e-05]
+ [-7.87898626e-08 -1.11328918e-08 -8.98258687e-08 -1.67777793e-08
+   3.03797838e-11 -2.81668904e-09]
+ [ 7.34443187e-06  5.92169031e-06 -8.84787802e-05 -1.79936186e-05
+  -2.81668904e-09  7.29643320e-07]]</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.1963512511991339</v>
+      </c>
+      <c r="M4" t="n">
+        <v>27.38598194889797</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.20276544508288</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.02294307108981508</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8.972129111706217</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.3605391481093701</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.364168781940237e-05</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.02777188154992175</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>[[ 1.23248586e-01  2.20606842e-02  1.82469778e-02  9.54902762e-04
+  -2.08595428e-06  3.52539983e-04]
+ [ 4.05428461e-03  1.35537858e+00  9.44357960e-01  6.52265258e-02
+  -2.77910384e-07 -2.71473770e-03]
+ [ 3.97693495e-03  9.44357960e-01  1.18491583e+00  1.01503154e-01
+  -2.72606672e-07 -3.27742254e-03]
+ [ 2.99383730e-04  6.52265258e-02  1.01503154e-01  9.26677572e-03
+  -2.05217745e-08 -2.75973482e-04]
+ [-9.51906832e-07 -2.77910384e-07 -2.72606672e-07 -2.05217745e-08
+   5.81961894e-11 -1.03507305e-08]
+ [ 1.70782335e-04 -2.71473770e-03 -3.27742254e-03 -2.75973482e-04
+  -1.03507305e-08  1.13824859e-05]]</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.6049672771573533</v>
+      </c>
+      <c r="V4" t="n">
+        <v>12.41341659981068</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.354458262904623</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.05061608346629898</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>16.32821017324852</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.699814678236735</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>8.271806090921266e-06</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.01618685982962709</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.5029748664092858</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1.008996548441067</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.513503260684987</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>49867</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.39390625</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4217862612141128</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.020703125</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9.247374688950725</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1580317071536345</v>
+      </c>
+      <c r="J5" t="n">
+        <v>35.77006428658068</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>[[ 1.36641766e-02  5.21060434e-04  1.65168608e-03  1.68307637e-04
+  -2.96066023e-07  2.49840130e-05]
+ [ 2.74830341e-05  5.06971773e-02 -3.13923770e-03 -2.90198670e-03
+  -1.11236816e-08  5.29748212e-06]
+ [ 2.18468564e-04 -3.13923770e-03  2.43817652e-02  5.02412889e-03
+  -8.83927948e-08 -8.56730374e-05]
+ [ 4.01276726e-05 -2.90198670e-03  5.02412889e-03  1.20385621e-03
+  -1.62354130e-08 -1.71470021e-05]
+ [-7.59420278e-08 -1.11236816e-08 -8.83927948e-08 -1.62354130e-08
+   2.97229975e-11 -2.75345328e-09]
+ [ 7.07474459e-06  5.29748212e-06 -8.56730374e-05 -1.71470021e-05
+  -2.75345328e-09  7.10484400e-07]]</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.1968592913473177</v>
+      </c>
+      <c r="M5" t="n">
+        <v>27.47199098815626</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.202776658089557</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.02287124114844241</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9.149436783873739</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3763874438846551</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.246985494066501e-05</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.02791515421812272</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>[[ 1.14115313e-01  1.72031775e-02  1.44523462e-02  7.54317071e-04
+  -1.95168237e-06  3.36422941e-04]
+ [ 3.34244086e-03  1.24144954e+00  8.61938685e-01  6.02954897e-02
+  -2.32241397e-07 -2.50494023e-03]
+ [ 3.36082584e-03  8.61938685e-01  1.13320797e+00  9.91945204e-02
+  -2.33517727e-07 -3.15210427e-03]
+ [ 2.58037983e-04  6.02954897e-02  9.91945204e-02  9.23684035e-03
+  -1.79290253e-08 -2.71008621e-04]
+ [-9.52175558e-07 -2.32241397e-07 -2.33517727e-07 -1.79290253e-08
+   5.93818948e-11 -1.06873543e-08]
+ [ 1.72554387e-04 -2.50494023e-03 -3.15210427e-03 -2.71008621e-04
+  -1.06873543e-08  1.11358097e-05]]</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.6089350614153277</v>
+      </c>
+      <c r="V5" t="n">
+        <v>12.47376682141507</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.3545123341451</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.05037119418003355</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>16.12635278081043</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.6612382816138708</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>8.39006283762084e-06</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.01716279620807236</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.5029741046901146</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1.00899676673438</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1.513506371386067</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>49466</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4053125</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.4325333051330317</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.0209375</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.104685197521139</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1571211291696876</v>
+      </c>
+      <c r="J6" t="n">
+        <v>35.61343587880256</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[[ 1.55155553e-02  6.13140664e-04  1.88478516e-03  1.92921341e-04
+  -3.33021712e-07  2.80134721e-05]
+ [ 3.29005874e-05  5.95440719e-02 -3.45295417e-03 -3.39236532e-03
+  -1.31297352e-08  5.62403869e-06]
+ [ 2.50439469e-04 -3.45295417e-03  2.73613162e-02  5.71024969e-03
+  -9.99075040e-08 -9.61674295e-05]
+ [ 4.65457106e-05 -3.39236532e-03  5.71024969e-03  1.39178919e-03
+  -1.85680367e-08 -1.94891546e-05]
+ [-8.71639037e-08 -1.31297352e-08 -9.99075040e-08 -1.85680367e-08
+   3.35996477e-11 -3.11237075e-09]
+ [ 8.12120431e-06  5.62403869e-06 -9.61674295e-05 -1.94891546e-05
+  -3.11237075e-09  8.00775399e-07]]</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.1979731700565202</v>
+      </c>
+      <c r="M6" t="n">
+        <v>27.53336833790881</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.202801243021331</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.02282025660670328</v>
+      </c>
+      <c r="P6" t="n">
+        <v>9.062775942343166</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.3905110376667943</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.344237131506552e-05</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.02766494454793881</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>[[ 1.14968614e-01  2.56926463e-02  2.11720170e-02  1.10362842e-03
+  -1.94497783e-06  3.18161851e-04]
+ [ 4.12489477e-03  1.18877627e+00  8.18367142e-01  5.85016744e-02
+  -2.79716027e-07 -2.36400641e-03]
+ [ 4.07319054e-03  8.18367142e-01  1.05931835e+00  9.42742884e-02
+  -2.76207623e-07 -2.93054865e-03]
+ [ 3.17899235e-04  5.85016744e-02  9.42742884e-02  8.91183289e-03
+  -2.15570125e-08 -2.56282895e-04]
+ [-8.99264600e-07 -2.79716027e-07 -2.76207623e-07 -2.15570125e-08
+   5.48043086e-11 -9.68635774e-09]
+ [ 1.60356406e-04 -2.36400641e-03 -2.93054865e-03 -2.56282895e-04
+  -9.68635774e-09  1.02896719e-05]]</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.5978998775139188</v>
+      </c>
+      <c r="V6" t="n">
+        <v>12.4201925812935</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.35436196214405</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.05058846926933258</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15.84076608438981</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.6497325836589616</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>6.286920226065684e-06</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.01792324324487802</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.5029748664092858</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1.008997639908573</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.513503260684987</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>49539</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.415625</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.4432803490519507</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.021328125</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9.20132094334366</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1559459746779284</v>
+      </c>
+      <c r="J7" t="n">
+        <v>35.4699036516235</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>[[ 1.45197937e-02  5.57103117e-04  1.76312869e-03  1.81710942e-04
+  -3.11868025e-07  2.62381556e-05]
+ [ 2.74209228e-05  5.11048755e-02 -3.25640370e-03 -2.94065101e-03
+  -1.09671163e-08  5.67037212e-06]
+ [ 2.21105085e-04 -3.25640370e-03  2.42176789e-02  5.07093440e-03
+  -8.83994971e-08 -8.49857722e-05]
+ [ 4.13016840e-05 -2.94065101e-03  5.07093440e-03  1.23057471e-03
+  -1.65124082e-08 -1.72893330e-05]
+ [-7.60105962e-08 -1.09671163e-08 -8.83994971e-08 -1.65124082e-08
+   2.94256954e-11 -2.72246734e-09]
+ [ 7.07146569e-06  5.67037212e-06 -8.49857722e-05 -1.72893330e-05
+  -2.72246734e-09  7.03520133e-07]]</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.1974381791147506</v>
+      </c>
+      <c r="M7" t="n">
+        <v>27.44770902709262</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.202789434920517</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.02289147447962847</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8.980958778117081</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.3646204515797678</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.345744466579542e-05</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.0277622829796896</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>[[ 1.17932272e-01  1.87995417e-02  1.54958972e-02  7.90678669e-04
+  -2.00997639e-06  3.45456927e-04]
+ [ 3.86391022e-03  1.34704805e+00  9.42278578e-01  6.61926675e-02
+  -2.61688718e-07 -2.71544575e-03]
+ [ 3.79241097e-03  9.42278578e-01  1.19579247e+00  1.03785669e-01
+  -2.56845122e-07 -3.30786440e-03]
+ [ 2.88988041e-04  6.61926675e-02  1.03785669e-01  9.57411207e-03
+  -1.95719871e-08 -2.82138866e-04]
+ [-9.71938577e-07 -2.61688718e-07 -2.56845122e-07 -1.95719871e-08
+   5.89338141e-11 -1.05372211e-08]
+ [ 1.75140483e-04 -2.71544575e-03 -3.30786440e-03 -2.82138866e-04
+  -1.05372211e-08  1.14995285e-05]]</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.6110254934243775</v>
+      </c>
+      <c r="V7" t="n">
+        <v>12.35968046742517</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.354540823380994</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.05083614680605519</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>16.14081517343768</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.671168580070895</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.600760485571466e-06</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.0168731888920625</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.5029745399579301</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.008997639908573</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.513505061615632</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>49923</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.425234375</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.4540273929708696</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.021484375</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9.371751548797137</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1575263451261868</v>
+      </c>
+      <c r="J8" t="n">
+        <v>35.76436157373884</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[[ 1.49012797e-02  5.81793267e-04  1.85080538e-03  1.85740183e-04
+  -3.27236841e-07  2.75331027e-05]
+ [ 2.78685952e-05  4.98765257e-02 -3.01904787e-03 -2.84173252e-03
+  -1.13372532e-08  4.98141466e-06]
+ [ 2.18468185e-04 -3.01904787e-03  2.42112305e-02  4.93733383e-03
+  -8.88432077e-08 -8.49690166e-05]
+ [ 3.96908038e-05 -2.84173252e-03  4.93733383e-03  1.17318010e-03
+  -1.61405030e-08 -1.68295961e-05]
+ [-7.50685109e-08 -1.13372532e-08 -8.88432077e-08 -1.61405030e-08
+   2.95121233e-11 -2.72963124e-09]
+ [ 6.98368562e-06  4.98141466e-06 -8.49690166e-05 -1.68295961e-05
+  -2.72963124e-09  7.04585186e-07]]</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.1970421534068567</v>
+      </c>
+      <c r="M8" t="n">
+        <v>27.46420218695429</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.202780694084933</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.02287772739367666</v>
+      </c>
+      <c r="P8" t="n">
+        <v>9.258112291815447</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.3839827919065074</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.280756214204814e-05</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.02757720673935689</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>[[ 1.17787937e-01  1.14838925e-02  9.73545121e-03  4.92102443e-04
+  -2.04975722e-06  3.67581467e-04]
+ [ 2.32011466e-03  1.28207110e+00  9.10284470e-01  6.28391610e-02
+  -1.61687468e-07 -2.65116398e-03]
+ [ 2.34552972e-03  9.10284470e-01  1.19795861e+00  1.02741509e-01
+  -1.63458201e-07 -3.33935466e-03]
+ [ 1.76514356e-04  6.28391610e-02  1.02741509e-01  9.36608632e-03
+  -1.23011529e-08 -2.81220711e-04]
+ [-9.73089023e-07 -1.61687468e-07 -1.63458201e-07 -1.23011529e-08
+   6.08139974e-11 -1.11681636e-08]
+ [ 1.79533616e-04 -2.65116398e-03 -3.33935466e-03 -2.81220711e-04
+  -1.11681636e-08  1.17383045e-05]]</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.620201686474986</v>
+      </c>
+      <c r="V8" t="n">
+        <v>12.40784724377731</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.354665894354182</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.05063880287799871</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>16.39819790306658</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.6626337166432343</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>8.544298809476279e-06</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.01644589327433842</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.5029747575921201</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.00899676673438</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.513505716500566</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>49716</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.42875</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.4647744368897885</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.021484375</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9.229344637887992</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1578377014918028</v>
+      </c>
+      <c r="J9" t="n">
+        <v>35.78425714804576</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[[ 1.56285868e-02  6.04421683e-04  1.91182238e-03  1.96259641e-04
+  -3.36748108e-07  2.83039454e-05]
+ [ 2.65988667e-05  4.77479066e-02 -2.95258169e-03 -2.72736375e-03
+  -1.06245811e-08  4.99382588e-06]
+ [ 2.09049228e-04 -2.95258169e-03  2.27576600e-02  4.71972073e-03
+  -8.34717335e-08 -7.97857188e-05]
+ [ 3.86517679e-05 -2.72736375e-03  4.71972073e-03  1.13650880e-03
+  -1.54330414e-08 -1.60752392e-05]
+ [-7.12330614e-08 -1.06245811e-08 -8.34717335e-08 -1.54330414e-08
+   2.75200604e-11 -2.54312836e-09]
+ [ 6.62029909e-06  4.99382588e-06 -7.97857188e-05 -1.60752392e-05
+  -2.54312836e-09  6.58655916e-07]]</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.1978088323509986</v>
+      </c>
+      <c r="M9" t="n">
+        <v>27.39357393778604</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.202797615813374</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.02293671253502527</v>
+      </c>
+      <c r="P9" t="n">
+        <v>9.078801636127192</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.3728931973233129</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.29193576610569e-05</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.02808252543907301</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>[[ 1.25481351e-01  1.53119584e-02  1.27244295e-02  6.44999313e-04
+  -2.15440150e-06  3.80153594e-04]
+ [ 2.94770125e-03  1.29975114e+00  9.00458095e-01  6.42373163e-02
+  -2.01404781e-07 -2.62634537e-03]
+ [ 2.94341503e-03  9.00458095e-01  1.18499838e+00  1.05348488e-01
+  -2.01111308e-07 -3.30079604e-03]
+ [ 2.29403318e-04  6.42373163e-02  1.05348488e-01  9.94151458e-03
+  -1.56741665e-08 -2.88133864e-04]
+ [-1.00767579e-06 -2.01404781e-07 -2.01111308e-07 -1.56741665e-08
+   6.19696712e-11 -1.12776695e-08]
+ [ 1.84393846e-04 -2.62634537e-03 -3.30079604e-03 -2.88133864e-04
+  -1.12776695e-08  1.16692153e-05]]</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.617065279140927</v>
+      </c>
+      <c r="V9" t="n">
+        <v>12.42494725372111</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.354623142708155</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.05056911050707158</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15.88419707851009</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.6392600909954393</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>8.348702034940831e-06</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.01781473565114219</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.5029738870564893</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1.008996548441067</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.513507517437056</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>49559</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13</v>
+      </c>
+      <c r="C10" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.44921875</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4755214808087074</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.021640625</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9.244998266360763</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.1589448792893339</v>
+      </c>
+      <c r="J10" t="n">
+        <v>35.93191592956261</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[[ 1.57314930e-02  6.21263045e-04  1.96555232e-03  2.01221367e-04
+  -3.40006827e-07  2.84604834e-05]
+ [ 2.78146512e-05  4.93613911e-02 -3.03900288e-03 -2.80856732e-03
+  -1.10482208e-08  5.08024105e-06]
+ [ 2.16232341e-04 -3.03900288e-03  2.36540654e-02  4.88952509e-03
+  -8.58589822e-08 -8.29450155e-05]
+ [ 3.98454020e-05 -2.80856732e-03  4.88952509e-03  1.17280078e-03
+  -1.58210284e-08 -1.66562702e-05]
+ [-7.38442589e-08 -1.10482208e-08 -8.58589822e-08 -1.58210284e-08
+   2.83681084e-11 -2.62248775e-09]
+ [ 6.86546931e-06  5.08024105e-06 -8.29450155e-05 -1.66562702e-05
+  -2.62248775e-09  6.81523330e-07]]</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.1985435977438166</v>
+      </c>
+      <c r="M10" t="n">
+        <v>27.31287265549085</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.202813833406922</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.02300448358703289</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.102717968198373</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.3725720057415118</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.277673643453309e-05</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.02822678391148216</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>[[ 1.10210082e-01  1.33808473e-02  1.11937954e-02  5.84027635e-04
+  -1.87979265e-06  3.31116467e-04]
+ [ 2.90983722e-03  1.27545187e+00  8.82149897e-01  6.19680324e-02
+  -2.01239720e-07 -2.57016743e-03]
+ [ 2.91239469e-03  8.82149897e-01  1.15412798e+00  1.01416711e-01
+  -2.01416118e-07 -3.21689760e-03]
+ [ 2.24480495e-04  6.19680324e-02  1.01416711e-01  9.48007672e-03
+  -1.55246747e-08 -2.77588903e-04]
+ [-9.72681458e-07 -2.01239720e-07 -2.01416118e-07 -1.55246747e-08
+   6.03720235e-11 -1.09711076e-08]
+ [ 1.77788240e-04 -2.57016743e-03 -3.21689760e-03 -2.77588903e-04
+  -1.09711076e-08  1.13759972e-05]]</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
+        <v>-0.6147654534909619</v>
+      </c>
+      <c r="V10" t="n">
+        <v>12.47103804406114</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.354591796029105</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.05038221585870084</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>16.06150037078798</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.6614894807256947</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>9.025391594555171e-06</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.01754666980532302</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0.502975192861065</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1.008997749055454</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1.513504734173378</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>49292</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.450390625</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4862685247276263</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.021875</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9.312554409911883</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1583790101215518</v>
+      </c>
+      <c r="J11" t="n">
+        <v>35.8734494323003</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[[ 1.50707105e-02  5.79034152e-04  1.86996264e-03  1.90949367e-04
+  -3.27520250e-07  2.74833958e-05]
+ [ 2.95991668e-05  5.34581719e-02 -3.25983006e-03 -3.05870728e-03
+  -1.20394019e-08  5.47295898e-06]
+ [ 2.34200398e-04 -3.25983006e-03  2.56386250e-02  5.27196155e-03
+  -9.52250611e-08 -8.99174876e-05]
+ [ 4.29134031e-05 -3.05870728e-03  5.27196155e-03  1.26290854e-03
+  -1.74480766e-08 -1.79600744e-05]
+ [-7.99779722e-08 -1.20394019e-08 -9.52250611e-08 -1.74480766e-08
+   3.14448795e-11 -2.90594069e-09]
+ [ 7.43418350e-06  5.47295898e-06 -8.99174876e-05 -1.79600744e-05
+  -2.90594069e-09  7.48261680e-07]]</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.199626778917561</v>
+      </c>
+      <c r="M11" t="n">
+        <v>27.52606699512633</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.202837741598811</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.02282630972413191</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9.181929571623742</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.3818756081984428</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.475069736289646e-05</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.02766745554636545</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>[[ 1.19986350e-01  1.53402684e-02  1.28720878e-02  6.60898051e-04
+  -2.06293190e-06  3.62005808e-04]
+ [ 2.62250695e-03  1.34023666e+00  9.48654413e-01  6.51782999e-02
+  -1.81683335e-07 -2.75039708e-03]
+ [ 2.61822419e-03  9.48654413e-01  1.22037953e+00  1.03923237e-01
+  -1.81386559e-07 -3.39478143e-03]
+ [ 1.95809179e-04  6.51782999e-02  1.03923237e-01  9.41813577e-03
+  -1.35653765e-08 -2.83958963e-04]
+ [-9.76220589e-07 -1.81683335e-07 -1.81386559e-07 -1.35653765e-08
+   6.04621039e-11 -1.10496875e-08]
+ [ 1.79360641e-04 -2.75039708e-03 -3.39478143e-03 -2.83958963e-04
+  -1.10496875e-08  1.18572957e-05]]</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.6145261601609886</v>
+      </c>
+      <c r="V11" t="n">
+        <v>12.39684387173772</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.354588534538577</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.05068374960746236</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>16.45616415786738</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.6826252685025628</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1.033478513563841e-05</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.01615319526689708</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.5029748664092858</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1.008997421614883</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1.513505061615632</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>49498</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.4970155686465452</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.02234375</v>
+      </c>
+      <c r="H12" t="n">
+        <v>9.141428667403861</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1556094818969783</v>
+      </c>
+      <c r="J12" t="n">
+        <v>35.45459084826333</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[[ 1.49822716e-02  5.92377226e-04  1.84991384e-03  1.90745234e-04
+  -3.20964330e-07  2.68742754e-05]
+ [ 2.93123646e-05  5.23933884e-02 -3.20272034e-03 -2.99571655e-03
+  -1.16315925e-08  5.43182331e-06]
+ [ 2.28716535e-04 -3.20272034e-03  2.44589950e-02  5.12241113e-03
+  -9.07242461e-08 -8.56815873e-05]
+ [ 4.27019302e-05 -2.99571655e-03  5.12241113e-03  1.24632779e-03
+  -1.69380855e-08 -1.74337910e-05]
+ [-7.73609074e-08 -1.16315925e-08 -9.07242461e-08 -1.69380855e-08
+   2.96890368e-11 -2.74075985e-09]
+ [ 7.18293252e-06  5.43182331e-06 -8.56815873e-05 -1.74337910e-05
+  -2.74075985e-09  7.08847649e-07]]</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.2008238489857983</v>
+      </c>
+      <c r="M12" t="n">
+        <v>27.42894288143964</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.202864164172898</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.02290713621133111</v>
+      </c>
+      <c r="P12" t="n">
+        <v>8.994987131091023</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.3742136788551811</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.463785459907693e-05</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.02745241374745441</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>[[ 1.22739966e-01  1.63013567e-02  1.33799917e-02  6.97551784e-04
+  -2.06951166e-06  3.62041473e-04]
+ [ 3.00320362e-03  1.27902059e+00  8.74708076e-01  6.31983294e-02
+  -2.03043265e-07 -2.55179423e-03]
+ [ 2.96852545e-03  8.74708076e-01  1.14119877e+00  1.02851449e-01
+  -2.00698030e-07 -3.17869182e-03]
+ [ 2.34520738e-04  6.31983294e-02  1.02851449e-01  9.83909202e-03
+  -1.58556208e-08 -2.81295683e-04]
+ [-9.85821295e-07 -2.03043265e-07 -2.00698030e-07 -1.58556208e-08
+   6.00129233e-11 -1.09038622e-08]
+ [ 1.80131091e-04 -2.55179423e-03 -3.17869182e-03 -2.81295683e-04
+  -1.09038622e-08  1.12503522e-05]]</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.6141495568024569</v>
+      </c>
+      <c r="V12" t="n">
+        <v>12.43302221485165</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.354583401588672</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.05053626703629721</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15.67946996213877</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.6371402936174055</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>9.49691199012407e-06</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.01764420576593401</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.5029744311409052</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1.008995893561697</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.513506862550564</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>50067</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.482734375</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.5077626125654642</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.023125</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9.271085767289671</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1575312291695879</v>
+      </c>
+      <c r="J13" t="n">
+        <v>35.76158913794489</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>[[ 1.51684397e-02  5.98516059e-04  1.92342438e-03  1.96839691e-04
+  -3.29094583e-07  2.74664641e-05]
+ [ 3.25882149e-05  5.58653491e-02 -3.31139420e-03 -3.17291988e-03
+  -1.30898853e-08  5.43075773e-06]
+ [ 2.50210067e-04 -3.31139420e-03  2.66332068e-02  5.47128666e-03
+  -1.00464855e-07 -9.31449803e-05]
+ [ 4.57857645e-05 -3.17291988e-03  5.47128666e-03  1.30995382e-03
+  -1.83835867e-08 -1.85896111e-05]
+ [-8.33670103e-08 -1.30898853e-08 -1.00464855e-07 -1.83835867e-08
+   3.23542985e-11 -2.98042432e-09]
+ [ 7.72617908e-06  5.43075773e-06 -9.31449803e-05 -1.85896111e-05
+  -2.98042432e-09  7.70908474e-07]]</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.200710273521798</v>
+      </c>
+      <c r="M13" t="n">
+        <v>27.4265990480213</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.202861657228007</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.02290909381866246</v>
+      </c>
+      <c r="P13" t="n">
+        <v>9.190483743906366</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.3859050198872508</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.445921376580648e-05</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.02752511869804413</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>[[ 1.18983219e-01  1.43870742e-02  1.20628923e-02  6.25054775e-04
+  -2.03757998e-06  3.59140110e-04]
+ [ 2.87131214e-03  1.31661062e+00  9.16302970e-01  6.47835243e-02
+  -1.98069715e-07 -2.67469795e-03]
+ [ 2.88842284e-03  9.16302970e-01  1.21350578e+00  1.07088049e-01
+  -1.99249393e-07 -3.38318891e-03]
+ [ 2.23472701e-04  6.47835243e-02  1.07088049e-01  1.00362728e-02
+  -1.54155997e-08 -2.93134688e-04]
+ [-1.02631653e-06 -1.98069715e-07 -1.99249393e-07 -1.54155997e-08
+   6.36922338e-11 -1.16128737e-08]
+ [ 1.88122312e-04 -2.67469795e-03 -3.38318891e-03 -2.93134688e-04
+  -1.16128737e-08  1.19759495e-05]]</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.6151792682459023</v>
+      </c>
+      <c r="V13" t="n">
+        <v>12.44176550287314</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.354597436227156</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.05050075333543802</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>16.00774378906841</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.6434677318943139</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>6.865598271034007e-06</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.01786396254463771</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.5029736150147227</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1.008995456975923</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1.513505716500566</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>49788</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.475390625</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.5185096564843832</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.023515625</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9.602082863827832</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1597517349325903</v>
+      </c>
+      <c r="J14" t="n">
+        <v>36.20978696817623</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>[[ 1.44982748e-02  5.95593374e-04  1.94385307e-03  1.90307877e-04
+  -3.26961451e-07  2.71671882e-05]
+ [ 3.32167480e-05  5.44464589e-02 -3.11064968e-03 -3.07099838e-03
+  -1.38035484e-08  4.84920944e-06]
+ [ 2.53839413e-04 -3.11064968e-03  2.72514919e-02  5.39244156e-03
+  -1.05444175e-07 -9.51413172e-05]
+ [ 4.46888574e-05 -3.07099838e-03  5.39244156e-03  1.25056794e-03
+  -1.85631787e-08 -1.82875315e-05]
+ [-8.32430267e-08 -1.38035484e-08 -1.05444175e-07 -1.85631787e-08
+   3.33750123e-11 -3.06694235e-09]
+ [ 7.69880681e-06  4.84920944e-06 -9.51413172e-05 -1.82875315e-05
+  -3.06694235e-09  7.91028626e-07]]</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.2044768715408596</v>
+      </c>
+      <c r="M14" t="n">
+        <v>27.491396711977</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.202944800179657</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.02285509671628372</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9.578351924290697</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.4041284583907259</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.235624214207665e-05</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.02730563290945632</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>[[ 1.14730623e-01  8.12484641e-03  7.06724744e-03  3.53416250e-04
+  -2.03682966e-06  3.71850787e-04]
+ [ 1.65206762e-03  1.33846813e+00  9.68005964e-01  6.45535769e-02
+  -1.18856865e-07 -2.82764704e-03]
+ [ 1.70817569e-03  9.68005964e-01  1.29313398e+00  1.07521085e-01
+  -1.22893301e-07 -3.61838852e-03]
+ [ 1.24702033e-04  6.45535769e-02  1.07521085e-01  9.52240519e-03
+  -8.97159742e-09 -2.95357460e-04]
+ [-1.02070507e-06 -1.18856865e-07 -1.22893301e-07 -8.97159742e-09
+   6.56733010e-11 -1.22174105e-08]
+ [ 1.90506018e-04 -2.82764704e-03 -3.61838852e-03 -2.95357460e-04
+  -1.22174105e-08  1.27500269e-05]]</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>-0.6242488159597159</v>
+      </c>
+      <c r="V14" t="n">
+        <v>12.45305266485796</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.354721063831823</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.05045498060817244</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>16.90351427164401</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.6834088808590395</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>6.316993529111025e-06</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.01660343707406096</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>-0.5029741046901146</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1.008997094174525</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.513504079289294</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>49617</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.50703125</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.529256700403302</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.02375</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9.582042571758034</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.159372422314761</v>
+      </c>
+      <c r="J15" t="n">
+        <v>36.10181693520741</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>[[ 1.28570360e-02  5.15364351e-04  1.70908884e-03  1.69570426e-04
+  -2.87898961e-07  2.39324839e-05]
+ [ 2.76561449e-05  4.71831893e-02 -3.12336140e-03 -2.69752175e-03
+  -1.14189571e-08  5.42247927e-06]
+ [ 2.28384744e-04 -3.12336140e-03  2.45877650e-02  4.91236369e-03
+  -9.42606423e-08 -8.56600289e-05]
+ [ 4.07070932e-05 -2.69752175e-03  4.91236369e-03  1.13557412e-03
+  -1.68005702e-08 -1.66373097e-05]
+ [-7.36791592e-08 -1.14189571e-08 -9.42606423e-08 -1.68005702e-08
+   2.94471186e-11 -2.70186071e-09]
+ [ 6.80028280e-06  5.42247927e-06 -8.56600289e-05 -1.66373097e-05
+  -2.70186071e-09  7.03341211e-07]]</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.2030253598539478</v>
+      </c>
+      <c r="M15" t="n">
+        <v>27.30219459420301</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.202912759126963</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.02301348078631626</v>
+      </c>
+      <c r="P15" t="n">
+        <v>9.396602909261141</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.3623446563580121</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.390280906164821e-05</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.02758712299450336</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>[[ 1.17560773e-01  9.94789690e-03  8.59550403e-03  4.29160030e-04
+  -2.07978367e-06  3.76202094e-04]
+ [ 1.13471032e-03  1.32582018e+00  9.53438239e-01  6.43708155e-02
+  -8.11811918e-08 -2.79824911e-03]
+ [ 1.17282291e-03  9.53438239e-01  1.28233260e+00  1.08050746e-01
+  -8.39074835e-08 -3.59762861e-03]
+ [ 8.67156318e-05  6.43708155e-02  1.08050746e-01  9.68760806e-03
+  -6.20391549e-09 -2.97484925e-04]
+ [-1.03023970e-06 -8.11811918e-08 -8.39074835e-08 -6.20391549e-09
+   6.60628671e-11 -1.24055362e-08]
+ [ 1.93880681e-04 -2.79824911e-03 -3.59762861e-03 -2.97484925e-04
+  -1.24055362e-08  1.27367141e-05]]</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.6221260718930477</v>
+      </c>
+      <c r="V15" t="n">
+        <v>12.4538640272285</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.354692126544411</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.05045169349402201</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>16.71761137039367</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.668779099684337</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>6.245596869564262e-06</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.01695176511661608</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.5029751384524054</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1.008996221001276</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1.513505061615632</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>49589</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.509375</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.540003744322221</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.0240625</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8.960357514000082</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1550099547262508</v>
+      </c>
+      <c r="J16" t="n">
+        <v>35.28688114352065</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>[[ 1.45534975e-02  5.80404782e-04  1.78765511e-03  1.87326104e-04
+  -3.07023327e-07  2.56385565e-05]
+ [ 3.01414437e-05  5.43285906e-02 -3.34656186e-03 -3.12646717e-03
+  -1.18888852e-08  5.82753921e-06]
+ [ 2.37580003e-04 -3.34656186e-03  2.46675455e-02  5.25964592e-03
+  -9.36737188e-08 -8.62596836e-05]
+ [ 4.51788919e-05 -3.12646717e-03  5.25964592e-03  1.30215522e-03
+  -1.78128884e-08 -1.78736405e-05]
+ [-7.91238256e-08 -1.18888852e-08 -9.36737188e-08 -1.78128884e-08
+   3.01966947e-11 -2.78177400e-09]
+ [ 7.33145013e-06  5.82753921e-06 -8.62596836e-05 -1.78736405e-05
+  -2.78177400e-09  7.17125619e-07]]</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.2028979406537457</v>
+      </c>
+      <c r="M16" t="n">
+        <v>27.51432477100479</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.202909946486355</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.02283605125502097</v>
+      </c>
+      <c r="P16" t="n">
+        <v>8.832891575380138</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3700865961851193</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.35011131391269e-05</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.0279662373339006</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>[[ 1.15271142e-01  1.27261202e-02  1.03643222e-02  5.44420756e-04
+  -1.92841208e-06  3.42747519e-04]
+ [ 2.21191564e-03  1.33656761e+00  9.24173626e-01  6.56884799e-02
+  -1.47691128e-07 -2.68178734e-03]
+ [ 2.13961258e-03  9.24173626e-01  1.15391320e+00  1.01221757e-01
+  -1.42863113e-07 -3.21064304e-03]
+ [ 1.64814685e-04  6.56884799e-02  1.01221757e-01  9.43765543e-03
+  -1.10047734e-08 -2.76606803e-04]
+ [-9.44774033e-07 -1.47691128e-07 -1.42863113e-07 -1.10047734e-08
+   5.64477592e-11 -1.03936096e-08]
+ [ 1.74730043e-04 -2.68178734e-03 -3.21064304e-03 -2.76606803e-04
+  -1.03936096e-08  1.11889355e-05]]</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
+        <v>-0.6180553365329744</v>
+      </c>
+      <c r="V16" t="n">
+        <v>12.35058607504751</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.35463663766099</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.05087358016048982</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15.9568130118475</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.6736461665834483</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5.777267386656711e-06</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.01696212382753522</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>-0.5029754104958203</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1.00899676673438</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1.513506371386067</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>49951</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.514296875</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.55075078824114</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.0246875</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9.170987133302802</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1577721286279858</v>
+      </c>
+      <c r="J17" t="n">
+        <v>35.70121568865424</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[[ 1.46530380e-02  5.88305421e-04  1.86162141e-03  1.91476302e-04
+  -3.15641244e-07  2.62736674e-05]
+ [ 2.91662403e-05  5.16991314e-02 -3.29784518e-03 -2.97421648e-03
+  -1.17321702e-08  5.78529029e-06]
+ [ 2.35911980e-04 -3.29784518e-03  2.47293472e-02  5.15235929e-03
+  -9.48580487e-08 -8.63119097e-05]
+ [ 4.38486505e-05 -2.97421648e-03  5.15235929e-03  1.24445254e-03
+  -1.76307629e-08 -1.74796076e-05]
+ [-7.73096437e-08 -1.17321702e-08 -9.48580487e-08 -1.76307629e-08
+   3.00986222e-11 -2.76700524e-09]
+ [ 7.14880329e-06  5.78529029e-06 -8.63119097e-05 -1.74796076e-05
+  -2.76700524e-09  7.15233746e-07]]</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.2042524815644819</v>
+      </c>
+      <c r="M17" t="n">
+        <v>27.45957839351244</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.202939846875092</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.02288157967007987</v>
+      </c>
+      <c r="P17" t="n">
+        <v>9.027124284669405</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.3655302794268218</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.727237937691956e-05</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.02779532827908754</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>[[ 1.14673411e-01  9.90520926e-03  8.25211590e-03  4.31533531e-04
+  -1.94883859e-06  3.51937497e-04]
+ [ 1.88380475e-03  1.32372305e+00  9.21767487e-01  6.42030237e-02
+  -1.29886295e-07 -2.68999320e-03]
+ [ 1.87281915e-03  9.21767487e-01  1.18710440e+00  1.02965185e-01
+  -1.29128573e-07 -3.31747960e-03]
+ [ 1.42592421e-04  6.42030237e-02  1.02965185e-01  9.50559607e-03
+  -9.83157898e-09 -2.82503337e-04]
+ [-9.76673486e-07 -1.29886295e-07 -1.29128573e-07 -9.83157898e-09
+   6.02818894e-11 -1.11666887e-08]
+ [ 1.81594979e-04 -2.68999320e-03 -3.31747960e-03 -2.82503337e-04
+  -1.11666887e-08  1.16803658e-05]]</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
+        <v>-0.6213291847986468</v>
+      </c>
+      <c r="V17" t="n">
+        <v>12.4373390132436</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.354681263683561</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.05051872671870639</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>16.20815353327801</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.6761691231337307</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>7.701358325787742e-06</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.01687972345795892</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-0.5029738870564893</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1.008998622231347</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1.513504570452304</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>49437</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.531953125</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.5614978321600588</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.025078125</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9.060358998444247</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1564137232608729</v>
+      </c>
+      <c r="J18" t="n">
+        <v>35.44611721020343</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[[ 1.41898919e-02  5.64971216e-04  1.79826619e-03  1.89164837e-04
+  -3.00766146e-07  2.49437807e-05]
+ [ 3.02763923e-05  5.31594817e-02 -3.44617348e-03 -3.06267100e-03
+  -1.19950224e-08  6.14660991e-06]
+ [ 2.45154275e-04 -3.44617348e-03  2.51208641e-02  5.29942467e-03
+  -9.70873264e-08 -8.75082087e-05]
+ [ 4.61640084e-05 -3.06267100e-03  5.29942467e-03  1.29213969e-03
+  -1.82817361e-08 -1.79488368e-05]
+ [-7.90439263e-08 -1.19950224e-08 -9.70873264e-08 -1.82817361e-08
+   3.03314206e-11 -2.78272995e-09]
+ [ 7.29401504e-06  6.14660991e-06 -8.75082087e-05 -1.79488368e-05
+  -2.78272995e-09  7.21886961e-07]]</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.2062889171531967</v>
+      </c>
+      <c r="M18" t="n">
+        <v>27.38670578449056</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.202984801061637</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.02294246470029204</v>
+      </c>
+      <c r="P18" t="n">
+        <v>8.893356360784773</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.356142670159222</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.617026749949163e-05</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.02781942845981846</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>[[ 1.17084855e-01  7.16757188e-03  5.89884454e-03  3.08512784e-04
+  -1.97444012e-06  3.62966646e-04]
+ [ 7.56805053e-04  1.19530569e+00  8.08643604e-01  5.86520750e-02
+  -5.14145665e-08 -2.39290186e-03]
+ [ 7.50706213e-04  8.08643604e-01  1.06313701e+00  9.67446903e-02
+  -5.09997495e-08 -2.99359058e-03]
+ [ 5.98658428e-05  5.86520750e-02  9.67446903e-02  9.34929656e-03
+  -4.06702423e-09 -2.67186063e-04]
+ [-9.36031302e-07 -5.14145665e-08 -5.09997495e-08 -4.06702423e-09
+   5.72996813e-11 -1.08229911e-08]
+ [ 1.77056919e-04 -2.39290186e-03 -2.99359058e-03 -2.67186063e-04
+  -1.08229911e-08  1.07246386e-05]]</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.6263674953689624</v>
+      </c>
+      <c r="V18" t="n">
+        <v>12.48570131114679</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.354749946942472</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.05032304674444021</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15.57723854906426</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.6350031111548771</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>8.454660558808616e-06</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.01800981472778142</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.5029744311409052</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1.008997203321288</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.513506862550564</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>49552</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>13</v>
+      </c>
+      <c r="C19" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.539140625</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5722448760789778</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.025390625</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8.686525701531673</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1550040346447508</v>
+      </c>
+      <c r="J19" t="n">
+        <v>35.11258519222602</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[[ 1.49916051e-02  6.21334521e-04  1.82775011e-03  1.96360743e-04
+  -3.07369365e-07  2.55369706e-05]
+ [ 2.97521963e-05  5.05742500e-02 -2.83375634e-03 -2.87832451e-03
+  -1.12852178e-08  4.69683540e-06]
+ [ 2.16419269e-04 -2.83375634e-03  2.13398609e-02  4.66340373e-03
+  -8.20567461e-08 -7.45007869e-05]
+ [ 4.21315429e-05 -2.87832451e-03  4.66340373e-03  1.18788184e-03
+  -1.59740770e-08 -1.58194063e-05]
+ [-7.10164310e-08 -1.12852178e-08 -8.20567461e-08 -1.59740770e-08
+   2.60282077e-11 -2.39263968e-09]
+ [ 6.56837401e-06  4.69683540e-06 -7.45007869e-05 -1.58194063e-05
+  -2.39263968e-09  6.18033473e-07]]</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.2050450184693076</v>
+      </c>
+      <c r="M19" t="n">
+        <v>27.46506565306403</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.202957341858963</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.02287700814754334</v>
+      </c>
+      <c r="P19" t="n">
+        <v>8.641047484729198</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3855158234755939</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.635762815867555e-05</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.02793760314617548</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>[[ 1.11146560e-01  1.24634196e-02  9.86758869e-03  5.34365799e-04
+  -1.80613316e-06  3.20584042e-04]
+ [ 1.87274303e-03  1.23998211e+00  8.13959330e-01  6.04450584e-02
+  -1.22321409e-07 -2.38207990e-03]
+ [ 1.77272781e-03  8.13959330e-01  1.00706018e+00  9.33912619e-02
+  -1.15788355e-07 -2.81683988e-03]
+ [ 1.44204967e-04  6.04450584e-02  9.33912619e-02  9.20982403e-03
+  -9.41896198e-09 -2.56418544e-04]
+ [-8.93028657e-07 -1.22321409e-07 -1.15788355e-07 -9.41896198e-09
+   5.23528050e-11 -9.68646301e-09]
+ [ 1.65855370e-04 -2.38207990e-03 -2.81683988e-03 -2.56418544e-04
+  -9.68646301e-09  9.97176662e-06]]</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
+        <v>-0.6176168125753057</v>
+      </c>
+      <c r="V19" t="n">
+        <v>12.4546162954</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.354630660337842</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.05044864617387068</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15.20980092566256</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.6597598602332919</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>7.068221004183458e-06</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.01832531073107809</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>-0.5029745399579301</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1.008998840525557</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1.513505061615632</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>49447</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>13</v>
+      </c>
+      <c r="C20" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.561015625</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.5829919199978966</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.025546875</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9.164007152230127</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.156440790134432</v>
+      </c>
+      <c r="J20" t="n">
+        <v>35.48907857387313</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[[ 1.49915443e-02  6.46518789e-04  2.01719912e-03  2.06761972e-04
+  -3.23549161e-07  2.65447271e-05]
+ [ 3.37712339e-05  5.40552319e-02 -3.13679132e-03 -3.07560180e-03
+  -1.35333176e-08  5.22736493e-06]
+ [ 2.57177033e-04 -3.13679132e-03  2.51534404e-02  5.22004065e-03
+  -1.03014021e-07 -8.72180423e-05]
+ [ 4.75357481e-05 -3.07560180e-03  5.22004065e-03  1.26479498e-03
+  -1.90402716e-08 -1.75964884e-05]
+ [-7.97768350e-08 -1.35333176e-08 -1.03014021e-07 -1.90402716e-08
+   3.08804024e-11 -2.81590244e-09]
+ [ 7.32290038e-06  5.22736493e-06 -8.72180423e-05 -1.75964884e-05
+  -2.81590244e-09  7.26296194e-07]]</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.2118573738013496</v>
+      </c>
+      <c r="M20" t="n">
+        <v>27.52031907736829</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.20310773375723</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.02283107724701727</v>
+      </c>
+      <c r="P20" t="n">
+        <v>9.109766236772009</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.3903109890140528</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.301898660872594e-05</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.02745292367622719</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>[[ 1.07997694e-01  2.46612006e-03  2.05093385e-03  1.07683851e-04
+  -1.83023265e-06  3.45200488e-04]
+ [ 3.65246210e-04  1.20017982e+00  8.28751344e-01  5.79200067e-02
+  -2.51909986e-08 -2.43951498e-03]
+ [ 3.62578524e-04  8.28751344e-01  1.06669352e+00  9.31251401e-02
+  -2.50065641e-08 -3.00174207e-03]
+ [ 2.77836636e-05  5.79200067e-02  9.31251401e-02  8.65776537e-03
+  -1.91620052e-09 -2.57106693e-04]
+ [-8.87824030e-07 -2.51909986e-08 -2.50065641e-08 -1.91620052e-09
+   5.48146873e-11 -1.04238751e-08]
+ [ 1.68964504e-04 -2.43951498e-03 -3.00174207e-03 -2.57106693e-04
+  -1.04238751e-08  1.06419426e-05]]</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
+        <v>-0.6329557022797361</v>
+      </c>
+      <c r="V20" t="n">
+        <v>12.46710487030405</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.354839769207247</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.05039811064833333</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>16.12556619399683</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.6776483270921397</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>5.269673371336072e-06</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.01732808742472923</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-0.502974050281691</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1.008995784415218</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1.513505389058028</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>49673</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D21" t="n">
+        <v>19</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5653125</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5937389639168156</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.0259375</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9.034443398682342</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.1547349783352862</v>
+      </c>
+      <c r="J21" t="n">
+        <v>35.19464525301881</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[[ 1.46180897e-02  6.44931765e-04  1.98879504e-03  2.06916577e-04
+  -3.11349380e-07  2.53762530e-05]
+ [ 3.42746458e-05  5.32923076e-02 -3.18103091e-03 -3.02926719e-03
+  -1.33652068e-08  5.43373140e-06]
+ [ 2.59687070e-04 -3.18103091e-03  2.45226819e-02  5.16911778e-03
+  -1.01218017e-07 -8.47328632e-05]
+ [ 4.87975457e-05 -3.02926719e-03  5.16911778e-03  1.26507853e-03
+  -1.90192878e-08 -1.73720926e-05]
+ [-7.82828645e-08 -1.33652068e-08 -1.01218017e-07 -1.90192878e-08
+   2.95185161e-11 -2.68148743e-09]
+ [ 7.15819415e-06  5.43373140e-06 -8.47328632e-05 -1.73720926e-05
+  -2.68148743e-09  6.97720696e-07]]</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>-0.2147182398949621</v>
+      </c>
+      <c r="M21" t="n">
+        <v>27.33527071708172</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.203170897343131</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.02298563409965881</v>
+      </c>
+      <c r="P21" t="n">
+        <v>8.928880884628699</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.3748066049940142</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.459309738551831e-05</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.02747736681749545</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>[[ 1.15633025e-01  1.32998059e-02  1.08907808e-02  5.66618172e-04
+  -1.94807980e-06  3.45205127e-04]
+ [ 1.02585955e-03  1.22247087e+00  8.34564726e-01  5.99229509e-02
+  -6.91538736e-08 -2.45100201e-03]
+ [ 1.00465006e-03  8.34564726e-01  1.06858732e+00  9.55681274e-02
+  -6.77238971e-08 -2.99688674e-03]
+ [ 7.88145293e-05  5.99229509e-02  9.55681274e-02  9.08337869e-03
+  -5.31292938e-09 -2.63006859e-04]
+ [-9.10138775e-07 -6.91538736e-08 -6.77238971e-08 -5.31292938e-09
+   5.50819956e-11 -1.03499866e-08]
+ [ 1.71369142e-04 -2.45100201e-03 -2.99688674e-03 -2.63006859e-04
+  -1.03499866e-08  1.06097549e-05]]</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
+        <v>-0.6175168548627763</v>
+      </c>
+      <c r="V21" t="n">
+        <v>12.42872167869587</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.354629297866531</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.05055375339162693</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15.75778105114331</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.6560831415784056</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3.600230562449497e-06</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.01808509264387664</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>-0.5029745399579301</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1.008997421614883</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.513505389058028</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>49937</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>13</v>
+      </c>
+      <c r="C22" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5739062500000001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.6044860078357346</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.026015625</v>
+      </c>
+      <c r="H22" t="n">
+        <v>9.144429279849318</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1573638548638822</v>
+      </c>
+      <c r="J22" t="n">
+        <v>35.61000728391065</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[[ 1.58319946e-02  6.73155044e-04  2.10307928e-03  2.16039035e-04
+  -3.41095265e-07  2.80773165e-05]
+ [ 3.23126721e-05  5.58437655e-02 -3.74956669e-03 -3.20732019e-03
+  -1.27155361e-08  6.72027475e-06]
+ [ 2.63288705e-04 -3.74956669e-03  2.72410727e-02  5.69774912e-03
+  -1.03567399e-07 -9.48245177e-05]
+ [ 4.91884151e-05 -3.20732019e-03  5.69774912e-03  1.37123041e-03
+  -1.93483886e-08 -1.92876371e-05]
+ [-8.43967159e-08 -1.27155361e-08 -1.03567399e-07 -1.93483886e-08
+   3.21949640e-11 -2.95244126e-09]
+ [ 7.78344986e-06  6.72027475e-06 -9.48245177e-05 -1.92876371e-05
+  -2.95244126e-09  7.72831319e-07]]</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.2084126268243502</v>
+      </c>
+      <c r="M22" t="n">
+        <v>27.18720188066233</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.2030316837724</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.02311082006437992</v>
+      </c>
+      <c r="P22" t="n">
+        <v>8.933127501359277</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.3436196180680925</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.588057609744556e-05</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.02800910045724172</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>[[ 1.18569680e-01  3.97320466e-02  3.29298261e-02  1.67394563e-03
+  -2.03463126e-06  3.03695170e-04]
+ [ 5.28888962e-03  1.29015965e+00  9.09671353e-01  6.33252611e-02
+  -3.58966883e-07 -2.59518152e-03]
+ [ 5.19161633e-03  9.09671353e-01  1.14883254e+00  9.85467599e-02
+  -3.52360603e-07 -3.15426461e-03]
+ [ 3.91158090e-04  6.33252611e-02  9.85467599e-02  8.98709375e-03
+  -2.65481338e-08 -2.66116829e-04]
+ [-9.17626854e-07 -3.58966883e-07 -3.52360603e-07 -2.65481338e-08
+   5.56898968e-11 -9.58363486e-09]
+ [ 1.59794182e-04 -2.59518152e-03 -3.15426461e-03 -2.66116829e-04
+  -9.58363486e-09  1.08522494e-05]]</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
+        <v>-0.6355345420261727</v>
+      </c>
+      <c r="V22" t="n">
+        <v>12.33828957996551</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.354874931824293</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.05092428141240912</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>16.29144359348334</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.6791489747439553</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>6.820773420370781e-06</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.01662900270664716</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>-0.5029744311409052</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1.0089960027082</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.513505880221888</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>49424</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>13</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>21</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5856250000000001</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.6152330517546534</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.0259375</v>
+      </c>
+      <c r="H23" t="n">
+        <v>9.073657257239715</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1557151281264112</v>
+      </c>
+      <c r="J23" t="n">
+        <v>35.35466891674702</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[[ 1.59497060e-02  7.07988434e-04  2.19173777e-03  2.27025489e-04
+  -3.41324876e-07  2.77899569e-05]
+ [ 3.37826848e-05  5.65488862e-02 -3.63042076e-03 -3.23632958e-03
+  -1.31983136e-08  6.39988540e-06]
+ [ 2.67229138e-04 -3.63042076e-03  2.67801270e-02  5.64135643e-03
+  -1.04359383e-07 -9.30388383e-05]
+ [ 5.02454039e-05 -3.23632958e-03  5.64135643e-03  1.37176469e-03
+  -1.96216050e-08 -1.90595800e-05]
+ [-8.42220785e-08 -1.31983136e-08 -1.04359383e-07 -1.96216050e-08
+   3.18685640e-11 -2.91494115e-09]
+ [ 7.74946249e-06  6.39988540e-06 -9.30388383e-05 -1.90595800e-05
+  -2.91494115e-09  7.61192183e-07]]</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.2131620607318641</v>
+      </c>
+      <c r="M23" t="n">
+        <v>27.24356147149846</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.203136538817357</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.0230630100023923</v>
+      </c>
+      <c r="P23" t="n">
+        <v>8.893861297066032</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.3548606457968471</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.449380551131053e-05</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.02783868083852205</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>[[ 1.25189610e-01  4.13416607e-02  3.39697781e-02  1.75835872e-03
+  -2.12245535e-06  3.17490829e-04]
+ [ 5.62147312e-03  1.42621521e+00  9.90127747e-01  6.99836307e-02
+  -3.77940682e-07 -2.83292980e-03]
+ [ 5.47124979e-03  9.90127747e-01  1.24449350e+00  1.08669633e-01
+  -3.67836967e-07 -3.42334818e-03]
+ [ 4.19485037e-04  6.99836307e-02  1.08669633e-01  1.00876291e-02
+  -2.82021741e-08 -2.93943763e-04]
+ [-1.01789124e-06 -3.77940682e-07 -3.67836967e-07 -2.82021741e-08
+   6.12526982e-11 -1.05968089e-08]
+ [ 1.78063571e-04 -2.83292980e-03 -3.42334818e-03 -2.93943763e-04
+  -1.05968089e-08  1.18289130e-05]]</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.6346405050253079</v>
+      </c>
+      <c r="V23" t="n">
+        <v>12.36000575333505</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.354862741375561</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.050834808919763</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>16.03642791728948</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.6737479687338569</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>5.704742171978951e-06</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.01722727802028776</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.5029753560871139</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1.00899633014785</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1.513505716500566</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>49776</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>13</v>
+      </c>
+      <c r="C24" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D24" t="n">
+        <v>22</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.589375</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.6259800956735724</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.0259375</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9.093689718651863</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.1569654272552876</v>
+      </c>
+      <c r="J24" t="n">
+        <v>35.55131129999394</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[[ 1.53298453e-02  6.70115675e-04  2.06734643e-03  2.12701106e-04
+  -3.29187902e-07  2.69565773e-05]
+ [ 3.02419670e-05  5.10971259e-02 -3.11570409e-03 -2.92027713e-03
+  -1.20273013e-08  5.33033002e-06]
+ [ 2.35799228e-04 -3.11570409e-03  2.39366156e-02  5.00305361e-03
+  -9.37396409e-08 -8.33387492e-05]
+ [ 4.39370921e-05 -2.92027713e-03  5.00305361e-03  1.21511664e-03
+  -1.74663549e-08 -1.69319188e-05]
+ [-7.56400117e-08 -1.20273013e-08 -9.37396409e-08 -1.74663549e-08
+   2.90918604e-11 -2.66632336e-09]
+ [ 6.97519057e-06  5.33033002e-06 -8.33387492e-05 -1.69319188e-05
+  -2.66632336e-09  6.90006310e-07]]</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>-0.2125027637039034</v>
+      </c>
+      <c r="M24" t="n">
+        <v>27.43601363070704</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.203121982671422</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.02290123263442068</v>
+      </c>
+      <c r="P24" t="n">
+        <v>9.013552987902187</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.3750384825096096</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.43558873996459e-05</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.02768055260712099</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>[[ 1.22921069e-01  3.55580203e-02  2.93662338e-02  1.52286449e-03
+  -2.08811449e-06  3.22540771e-04]
+ [ 4.75190637e-03  1.28913252e+00  8.87954739e-01  6.29786731e-02
+  -3.23553806e-07 -2.55844028e-03]
+ [ 4.68906750e-03  8.87954739e-01  1.14262065e+00  1.00948113e-01
+  -3.19272255e-07 -3.15719997e-03]
+ [ 3.63439299e-04  6.29786731e-02  1.00948113e-01  9.48268201e-03
+  -2.47459670e-08 -2.74152408e-04]
+ [-9.61983871e-07 -3.23553806e-07 -3.19272255e-07 -2.47459670e-08
+   5.87683208e-11 -1.02613441e-08]
+ [ 1.69624642e-04 -2.55844028e-03 -3.15719997e-03 -2.74152408e-04
+  -1.02613441e-08  1.10397733e-05]]</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
+        <v>-0.6405676562516116</v>
+      </c>
+      <c r="V24" t="n">
+        <v>12.43175324475189</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.354943563861858</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.05054142552123175</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15.93973392970677</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.6618302250123548</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4.138715453452777e-06</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.01803243909853227</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>-0.5029741590985499</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.008997203321288</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.513504734173378</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>49531</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>13</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.608359375</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.6367271395924912</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.02625</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9.04698073516184</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1559248535116098</v>
+      </c>
+      <c r="J25" t="n">
+        <v>35.44104601922652</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[[ 1.47847915e-02  6.80739581e-04  2.10822916e-03  2.19251150e-04
+  -3.15898557e-07  2.54243103e-05]
+ [ 3.52396676e-05  5.13934389e-02 -2.98138622e-03 -2.90666411e-03
+  -1.37084918e-08  5.02900910e-06]
+ [ 2.61538247e-04 -2.98138622e-03  2.35922369e-02  4.95475774e-03
+  -1.01691059e-07 -8.10577734e-05]
+ [ 4.89439426e-05 -2.90666411e-03  4.95475774e-03  1.21009535e-03
+  -1.90297893e-08 -1.65638454e-05]
+ [-7.54637046e-08 -1.37084918e-08 -1.01691059e-07 -1.90297893e-08
+   2.83710188e-11 -2.55976448e-09]
+ [ 6.85668776e-06  5.02900910e-06 -8.10577734e-05 -1.65638454e-05
+  -2.55976448e-09  6.67073299e-07]]</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.2210510205214233</v>
+      </c>
+      <c r="M25" t="n">
+        <v>27.31582697883749</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.20331072842091</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.02300199555388671</v>
+      </c>
+      <c r="P25" t="n">
+        <v>8.970693099411816</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.3813935751073918</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.501704294367878e-05</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.0274958612761001</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>[[ 1.16982047e-01  1.40595753e-02  1.14510151e-02  5.89574731e-04
+  -1.97171557e-06  3.48459114e-04]
+ [ 7.76834678e-04  1.22405892e+00  8.38904376e-01  6.15707017e-02
+  -5.16138582e-08 -2.47231209e-03]
+ [ 7.61389001e-04  8.38904376e-01  1.09043739e+00  9.92306198e-02
+  -5.05872630e-08 -3.05855577e-03]
+ [ 6.07209581e-05  6.15707017e-02  9.92306198e-02  9.56551119e-03
+  -4.03434825e-09 -2.73044688e-04]
+ [-9.43576474e-07 -5.16138582e-08 -5.05872630e-08 -4.03434825e-09
+   5.65584771e-11 -1.06826844e-08]
+ [ 1.78476473e-04 -2.47231209e-03 -3.05855577e-03 -2.73044688e-04
+  -1.06826844e-08  1.08460042e-05]]</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
+        <v>-0.6176572100715094</v>
+      </c>
+      <c r="V25" t="n">
+        <v>12.36763682577681</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.354631210975767</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.05080344285404692</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15.50924721907797</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.6192860849468534</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1.736844131003168e-06</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.01942225243625526</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>-0.5029738870564893</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1.008997421614883</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.513503096964231</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>49827</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>13</v>
+      </c>
+      <c r="C26" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.628125</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.6474741835114102</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.026875</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8.970626964264937</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.1549990217584506</v>
+      </c>
+      <c r="J26" t="n">
+        <v>35.28301056338028</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>[[ 1.61661850e-02  7.24058684e-04  2.20789642e-03  2.30525168e-04
+  -3.42663294e-07  2.78584077e-05]
+ [ 3.39175999e-05  5.41604084e-02 -3.33075510e-03 -3.08203696e-03
+  -1.30951219e-08  5.75617533e-06]
+ [ 2.59244298e-04 -3.33075510e-03  2.50363108e-02  5.30299413e-03
+  -1.00048608e-07 -8.67266513e-05]
+ [ 4.89815402e-05 -3.08203696e-03  5.30299413e-03  1.29945970e-03
+  -1.89027090e-08 -1.78658607e-05]
+ [-7.97265604e-08 -1.30951219e-08 -1.00048608e-07 -1.89027090e-08
+   2.97899978e-11 -2.71491151e-09]
+ [ 7.31143980e-06  5.75617533e-06 -8.67266513e-05 -1.78658607e-05
+  -2.71491151e-09  7.09465302e-07]]</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>-0.216498813327648</v>
+      </c>
+      <c r="M26" t="n">
+        <v>27.23308082028181</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.203210211533561</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.02307188580184505</v>
+      </c>
+      <c r="P26" t="n">
+        <v>8.860025165472596</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.3637649641138015</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.281866000727772e-05</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.02788266008137793</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>[[ 1.16949569e-01  3.70318179e-02  3.01516304e-02  1.58871148e-03
+  -1.95821433e-06  2.95734850e-04]
+ [ 5.18814824e-03  1.28200788e+00  8.67998197e-01  6.27092093e-02
+  -3.47919209e-07 -2.49775772e-03]
+ [ 5.04926916e-03  8.67998197e-01  1.10469254e+00  9.95144067e-02
+  -3.38601869e-07 -3.04809120e-03]
+ [ 3.98955090e-04  6.27092093e-02  9.95144067e-02  9.52929360e-03
+  -2.67535796e-08 -2.69912190e-04]
+ [-9.51181272e-07 -3.47919209e-07 -3.38601869e-07 -2.67535796e-08
+   5.72785365e-11 -9.92024334e-09]
+ [ 1.66508128e-04 -2.49775772e-03 -3.04809120e-03 -2.69912190e-04
+  -9.92024334e-09  1.06659755e-05]]</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
+        <v>-0.6354566011464891</v>
+      </c>
+      <c r="V26" t="n">
+        <v>12.43847924603776</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.354873869069507</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.05051409567758114</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>15.64892738457601</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.6568655871204383</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1.635484048321061e-06</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.01882321753762088</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-0.502974648775001</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1.008997421614883</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1.513506043943245</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>49984</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>13</v>
+      </c>
+      <c r="C27" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6275000000000001</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.6582212274303292</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.028203125</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8.72607179777876</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1538582240143914</v>
+      </c>
+      <c r="J27" t="n">
+        <v>35.05044267242241</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>[[ 1.63905716e-02  7.33944297e-04  2.16671760e-03  2.33281672e-04
+  -3.36837091e-07  2.74112981e-05]
+ [ 3.39227558e-05  5.48975827e-02 -3.22152369e-03 -3.11993853e-03
+  -1.26827830e-08  5.49699456e-06]
+ [ 2.49046443e-04 -3.22152369e-03  2.36562513e-02  5.17310597e-03
+  -9.30735903e-08 -8.21279842e-05]
+ [ 4.85651110e-05 -3.11993853e-03  5.17310597e-03  1.31045629e-03
+  -1.81493261e-08 -1.74625907e-05]
+ [-7.79943651e-08 -1.26827830e-08 -9.30735903e-08 -1.81493261e-08
+   2.82109092e-11 -2.57756744e-09]
+ [ 7.17045896e-06  5.49699456e-06 -8.21279842e-05 -1.74625907e-05
+  -2.57756744e-09  6.72685201e-07]]</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>-0.2136013319012142</v>
+      </c>
+      <c r="M27" t="n">
+        <v>27.25329451458524</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.203146237277033</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.02305477344699369</v>
+      </c>
+      <c r="P27" t="n">
+        <v>8.591183608500195</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.3681689797343586</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.312895117755e-05</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.02821612904008505</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>[[ 1.28647853e-01  3.98036921e-02  3.12938432e-02  1.67659796e-03
+  -2.09350242e-06  3.19086397e-04]
+ [ 5.09699246e-03  1.43184113e+00  9.49953806e-01  6.99362060e-02
+  -3.30078455e-07 -2.72756441e-03]
+ [ 4.76950687e-03  9.49953806e-01  1.14861106e+00  1.04754356e-01
+  -3.08867747e-07 -3.16868438e-03]
+ [ 3.81911043e-04  6.99362060e-02  1.04754356e-01  1.01614738e-02
+  -2.47319876e-08 -2.84093613e-04]
+ [-9.85550499e-07 -3.30078455e-07 -3.08867747e-07 -2.47319876e-08
+   5.71209708e-11 -9.98077020e-09]
+ [ 1.73923578e-04 -2.72756441e-03 -3.16868438e-03 -2.84093613e-04
+  -9.98077020e-09  1.09926529e-05]]</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
+        <v>-0.6398534666279376</v>
+      </c>
+      <c r="V27" t="n">
+        <v>12.38753310891257</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.354933824679019</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.05072184471223706</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>15.37289322411631</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.6757292431147025</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>5.634524889264539e-06</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.01824105601053287</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>-0.502974648775001</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1.008998403937232</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>1.513504406731265</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>50037</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>13</v>
+      </c>
+      <c r="C28" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.64734375</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.668968271349248</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.03046875</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8.938332966235421</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1539179689947557</v>
+      </c>
+      <c r="J28" t="n">
+        <v>35.14040592604361</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>[[ 1.50347844e-02  6.84341732e-04  2.06300620e-03  2.13496876e-04
+  -3.20121054e-07  2.60200797e-05]
+ [ 3.37193326e-05  5.48346802e-02 -3.21552424e-03 -3.13321021e-03
+  -1.32815857e-08  5.48493799e-06]
+ [ 2.56964540e-04 -3.21552424e-03  2.47035427e-02  5.24005135e-03
+  -1.01170252e-07 -8.56452294e-05]
+ [ 4.85726557e-05 -3.13321021e-03  5.24005135e-03  1.29504039e-03
+  -1.91231972e-08 -1.76636257e-05]
+ [-7.96363649e-08 -1.32815857e-08 -1.01170252e-07 -1.91231972e-08
+   3.03181877e-11 -2.76452003e-09]
+ [ 7.30885797e-06  5.48493799e-06 -8.56452294e-05 -1.76636257e-05
+  -2.76452003e-09  7.13097756e-07]]</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.218030824623916</v>
+      </c>
+      <c r="M28" t="n">
+        <v>27.52274969385919</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.203244038716568</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.02282906096617765</v>
+      </c>
+      <c r="P28" t="n">
+        <v>8.899979793084661</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.3828407382387635</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.64915112730722e-05</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.02711039144849064</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>[[ 1.22193412e-01  3.83470772e-02  3.10369899e-02  1.62668516e-03
+  -2.04203439e-06  3.09741528e-04]
+ [ 4.49548794e-03  1.31356673e+00  8.98293186e-01  6.54356250e-02
+  -2.97934290e-07 -2.59250569e-03]
+ [ 4.36280413e-03  8.98293186e-01  1.14426010e+00  1.03219359e-01
+  -2.89138469e-07 -3.16179469e-03]
+ [ 3.45117051e-04  6.54356250e-02  1.03219359e-01  9.87693536e-03
+  -2.28720339e-08 -2.80272627e-04]
+ [-9.76942185e-07 -2.97934290e-07 -2.89138469e-07 -2.28720339e-08
+   5.82381368e-11 -1.02488142e-08]
+ [ 1.73425257e-04 -2.59250569e-03 -3.16179469e-03 -2.80272627e-04
+  -1.02488142e-08  1.10346657e-05]]</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
+        <v>-0.6379169167451182</v>
+      </c>
+      <c r="V28" t="n">
+        <v>12.36497766772028</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.354907417252182</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.05081436842043252</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>15.60106795368402</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.6404190627926112</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>4.499003910399104e-06</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.01804842079861731</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>-0.502974648775001</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1.008997858202358</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>1.513504079289294</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>50354</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>13</v>
+      </c>
+      <c r="C29" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D29" t="n">
+        <v>27</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.650390625</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.679715315268167</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.0334375</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9.005883224848986</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.1568308606378478</v>
+      </c>
+      <c r="J29" t="n">
+        <v>35.56416191952334</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>[[ 1.58030798e-02  7.31382072e-04  2.22467579e-03  2.29685587e-04
+  -3.38083648e-07  2.73274690e-05]
+ [ 3.46288087e-05  5.65937721e-02 -3.60870607e-03 -3.24427890e-03
+  -1.35584958e-08  6.41115607e-06]
+ [ 2.74155471e-04 -3.60870607e-03  2.65671712e-02  5.61600892e-03
+  -1.07295983e-07 -9.19749996e-05]
+ [ 5.17247385e-05 -3.24427890e-03  5.61600892e-03  1.37168316e-03
+  -2.02429921e-08 -1.89125779e-05]
+ [-8.39555745e-08 -1.35584958e-08 -1.07295983e-07 -2.02429921e-08
+   3.18331533e-11 -2.89931404e-09]
+ [ 7.69384388e-06  6.41115607e-06 -9.19749996e-05 -1.89125779e-05
+  -2.89931404e-09  7.55439515e-07]]</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.2186263991202808</v>
+      </c>
+      <c r="M29" t="n">
+        <v>27.30587491532534</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.20325718942708</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.02301037899962388</v>
+      </c>
+      <c r="P29" t="n">
+        <v>8.870475228508289</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.357157557716416</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.606775130850933e-05</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.02806308233210191</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>[[ 1.14055502e-01  2.59023395e-02  2.11936797e-02  1.12285040e-03
+  -1.90949035e-06  3.09231415e-04]
+ [ 3.18593469e-03  1.20863079e+00  8.28297583e-01  5.86206150e-02
+  -2.15703426e-07 -2.39657418e-03]
+ [ 3.10844476e-03  8.28297583e-01  1.04527935e+00  9.20316580e-02
+  -2.10455956e-07 -2.90160675e-03]
+ [ 2.40268578e-04  5.86206150e-02  9.20316580e-02  8.62492771e-03
+  -1.62672524e-08 -2.50996282e-04]
+ [-8.71567680e-07 -2.15703426e-07 -2.10455956e-07 -1.62672524e-08
+   5.28061065e-11 -9.44497691e-09]
+ [ 1.57012749e-04 -2.39657418e-03 -2.90160675e-03 -2.50996282e-04
+  -9.44497691e-09  1.01398349e-05]]</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
+        <v>-0.6498965789013766</v>
+      </c>
+      <c r="V29" t="n">
+        <v>12.42933570615724</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.355070792352486</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.05055125596186949</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>15.95421605349734</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.6784481919750704</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>8.284791191828598e-06</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.01716627819265218</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>-0.5029743223239281</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.008998403937232</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.513505716500566</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>49679</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>13</v>
+      </c>
+      <c r="C30" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D30" t="n">
+        <v>28</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.660859375</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6904623591870858</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.038515625</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9.026851378958117</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.1560398244156311</v>
+      </c>
+      <c r="J30" t="n">
+        <v>35.44781300160514</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>[[ 1.40694042e-02  6.54692960e-04  2.03015668e-03  2.11843955e-04
+  -3.00125636e-07  2.40641904e-05]
+ [ 3.10048972e-05  4.81229621e-02 -3.06011486e-03 -2.74032249e-03
+  -1.20005904e-08  5.38642468e-06]
+ [ 2.40948914e-04 -3.06011486e-03  2.28344062e-02  4.80419674e-03
+  -9.32195400e-08 -7.87947607e-05]
+ [ 4.52467525e-05 -2.74032249e-03  4.80419674e-03  1.16579954e-03
+  -1.75048693e-08 -1.61302769e-05]
+ [-7.18224475e-08 -1.20005904e-08 -9.32195400e-08 -1.75048693e-08
+   2.69229610e-11 -2.44280789e-09]
+ [ 6.55797451e-06  5.38642468e-06 -7.87947607e-05 -1.61302769e-05
+  -2.44280789e-09  6.41258651e-07]]</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.2213725172252046</v>
+      </c>
+      <c r="M30" t="n">
+        <v>27.14847750206972</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.203317827708147</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.02314378515959348</v>
+      </c>
+      <c r="P30" t="n">
+        <v>8.896335620452991</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.3543975326208982</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.573805888096313e-05</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.02783753601422538</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>[[ 1.18071063e-01  2.85780493e-02  2.33878337e-02  1.21202460e-03
+  -1.99341385e-06  3.20022560e-04]
+ [ 3.10899314e-03  1.13693806e+00  7.68373210e-01  5.61280839e-02
+  -2.09590592e-07 -2.24234628e-03]
+ [ 3.06896529e-03  7.68373210e-01  1.00690891e+00  9.20828950e-02
+  -2.06891063e-07 -2.80321252e-03]
+ [ 2.45925430e-04  5.61280839e-02  9.20828950e-02  8.93688026e-03
+  -1.65787696e-08 -2.51727410e-04]
+ [-8.89363584e-07 -2.09590592e-07 -2.06891063e-07 -1.65787696e-08
+   5.40661424e-11 -9.69166141e-09]
+ [ 1.60460021e-04 -2.24234628e-03 -2.80321252e-03 -2.51727410e-04
+  -9.69166141e-09  9.94099259e-06]]</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
+        <v>-0.6501417185463376</v>
+      </c>
+      <c r="V30" t="n">
+        <v>12.46317048563831</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.355074135906052</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.0504140203684118</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>15.49249446492209</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.629033775012995</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>4.507876271067084e-06</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.01903621233693538</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>-0.5029741590985499</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>1.008998076496237</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1.513505061615632</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>49840</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>13</v>
+      </c>
+      <c r="C31" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D31" t="n">
+        <v>29</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.66890625</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.7012094031060048</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.046171875</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8.9339764049974</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.1542752368688674</v>
+      </c>
+      <c r="J31" t="n">
+        <v>35.17201985764699</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>[[ 1.56345203e-02  7.36801112e-04  2.23192863e-03  2.33509564e-04
+  -3.31090630e-07  2.65732808e-05]
+ [ 3.57568330e-05  5.70443308e-02 -3.65574063e-03 -3.27110620e-03
+  -1.38317726e-08  6.56598699e-06]
+ [ 2.81882527e-04 -3.65574063e-03  2.64626498e-02  5.64785424e-03
+  -1.08991602e-07 -9.13251350e-05]
+ [ 5.37141917e-05 -3.27110620e-03  5.64785424e-03  1.39033457e-03
+  -2.07684212e-08 -1.89663228e-05]
+ [-8.41692993e-08 -1.38317726e-08 -1.08991602e-07 -2.07684212e-08
+   3.15431295e-11 -2.86247852e-09]
+ [ 7.68612233e-06  6.56598699e-06 -9.13251350e-05 -1.89663228e-05
+  -2.86247852e-09  7.47893980e-07]]</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.2217788820200517</v>
+      </c>
+      <c r="M31" t="n">
+        <v>27.25653707864569</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.203326801117243</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.02305203074422169</v>
+      </c>
+      <c r="P31" t="n">
+        <v>8.772174095370476</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.3517903882496982</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.635182109148728e-05</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.02763198349912811</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>[[ 1.19241426e-01  3.53183780e-02  2.84923847e-02  1.50110898e-03
+  -1.98431980e-06  3.05198045e-04]
+ [ 4.00135691e-03  1.28248490e+00  8.66382233e-01  6.37035699e-02
+  -2.64627369e-07 -2.51128954e-03]
+ [ 3.87529867e-03  8.66382233e-01  1.10590248e+00  1.01083182e-01
+  -2.56289037e-07 -3.06491062e-03]
+ [ 3.10529066e-04  6.37035699e-02  1.01083182e-01  9.80232165e-03
+  -2.05364754e-08 -2.75207343e-04]
+ [-9.63772751e-07 -2.64627369e-07 -2.56289037e-07 -2.05364754e-08
+   5.73854335e-11 -1.01811309e-08]
+ [ 1.72314100e-04 -2.51128954e-03 -3.06491062e-03 -2.75207343e-04
+  -1.01811309e-08  1.07602054e-05]]</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.6406046885966465</v>
+      </c>
+      <c r="V31" t="n">
+        <v>12.39981713917467</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.354944068864303</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.05067159649741249</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>15.43443722462975</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.6361119464235158</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1.923373519437699e-06</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.01913418833842121</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.5029749752264986</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>1.008997203321288</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.513503915568362</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>50157</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>13</v>
+      </c>
+      <c r="C32" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.683203125</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.7119564470249238</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.057421875</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8.568165463703966</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.1529800619708482</v>
+      </c>
+      <c r="J32" t="n">
+        <v>34.84446709842488</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>[[ 1.57615200e-02  7.33016936e-04  2.13468920e-03  2.33241156e-04
+  -3.19733583e-07  2.57341446e-05]
+ [ 3.33461047e-05  5.12910216e-02 -2.85086500e-03 -2.90942726e-03
+  -1.23778498e-08  4.80501541e-06]
+ [ 2.37557310e-04 -2.85086500e-03  2.12324638e-02  4.69853767e-03
+  -8.81401250e-08 -7.33438581e-05]
+ [ 4.68446073e-05 -2.90942726e-03  4.69853767e-03  1.20938157e-03
+  -1.73801468e-08 -1.57852164e-05]
+ [-7.14577994e-08 -1.23778498e-08 -8.81401250e-08 -1.73801468e-08
+   2.56371318e-11 -2.32788319e-09]
+ [ 6.53202471e-06  4.80501541e-06 -7.33438581e-05 -1.57852164e-05
+  -2.32788319e-09  6.04992902e-07]]</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.2205172547015688</v>
+      </c>
+      <c r="M32" t="n">
+        <v>27.36073436709331</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.203298941910046</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.02296424219788618</v>
+      </c>
+      <c r="P32" t="n">
+        <v>8.516776843010863</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.3808415873475077</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.510758473079592e-05</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.02786586726751631</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>[[ 1.25359046e-01  4.08510313e-02  3.18179096e-02  1.73737066e-03
+  -2.01451740e-06  3.02431763e-04]
+ [ 4.37324882e-03  1.29299953e+00  8.33321517e-01  6.35401092e-02
+  -2.80377503e-07 -2.41568442e-03]
+ [ 4.08804471e-03  8.33321517e-01  1.02693822e+00  9.78703109e-02
+  -2.62090595e-07 -2.84686531e-03]
+ [ 3.41531900e-04  6.35401092e-02  9.78703109e-02  9.90655521e-03
+  -2.18960357e-08 -2.66550622e-04]
+ [-9.41146311e-07 -2.80377503e-07 -2.62090595e-07 -2.18960357e-08
+   5.43049431e-11 -9.57620631e-09]
+ [ 1.67368306e-04 -2.41568442e-03 -2.84686531e-03 -2.66550622e-04
+  -9.57620631e-09  1.00346786e-05]]</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
+        <v>-0.6354029258091143</v>
+      </c>
+      <c r="V32" t="n">
+        <v>12.45369841802132</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.354873137185977</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.05045236440034073</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>14.83393594542654</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.6420864205537222</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>5.697264184017415e-06</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.01923740650921042</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>-0.502974648775001</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1.008998622231347</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1.513504079289294</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>50028</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>13</v>
+      </c>
+      <c r="C33" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D33" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.69421875</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.7227034909438426</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.0725</v>
+      </c>
+      <c r="H33" t="n">
+        <v>8.888448736283902</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.1536203669393194</v>
+      </c>
+      <c r="J33" t="n">
+        <v>35.07102086275134</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>[[ 1.59892321e-02  7.55831240e-04  2.24953668e-03  2.35489236e-04
+  -3.36990309e-07  2.71189881e-05]
+ [ 3.63147680e-05  5.51720451e-02 -2.96889004e-03 -3.11866662e-03
+  -1.40361861e-08  4.80257742e-06]
+ [ 2.60081975e-04 -2.96889004e-03  2.38972641e-02  5.10186007e-03
+  -1.00479250e-07 -8.25899203e-05]
+ [ 4.94203348e-05 -3.11866662e-03  5.10186007e-03  1.27502814e-03
+  -1.90923564e-08 -1.71436398e-05]
+ [-7.85862854e-08 -1.40361861e-08 -1.00479250e-07 -1.90923564e-08
+   2.93158700e-11 -2.66257519e-09]
+ [ 7.18746256e-06  4.80257742e-06 -8.25899203e-05 -1.71436398e-05
+  -2.66257519e-09  6.87442509e-07]]</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.2221532704467788</v>
+      </c>
+      <c r="M33" t="n">
+        <v>27.50259594639852</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.203335068484015</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.02284578997351838</v>
+      </c>
+      <c r="P33" t="n">
+        <v>8.869823650468049</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.4001504227238645</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.483069798013045e-05</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.02731675738159193</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>[[ 1.16244264e-01  2.83681355e-02  2.28233210e-02  1.21610859e-03
+  -1.92187803e-06  3.07620496e-04]
+ [ 2.99220421e-03  1.20902852e+00  8.12769243e-01  5.92909785e-02
+  -1.97645893e-07 -2.35848328e-03]
+ [ 2.86893843e-03  8.12769243e-01  1.01583969e+00  9.21147911e-02
+  -1.89503240e-07 -2.82279778e-03]
+ [ 2.28248158e-04  5.92909785e-02  9.21147911e-02  8.87759443e-03
+  -1.50765675e-08 -2.51422724e-04]
+ [-8.73981281e-07 -1.97645893e-07 -1.89503240e-07 -1.50765675e-08
+   5.17928511e-11 -9.31249097e-09]
+ [ 1.58156934e-04 -2.35848328e-03 -2.82279778e-03 -2.51422724e-04
+  -9.31249097e-09  9.89081483e-06]]</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
+        <v>-0.6483586647526463</v>
+      </c>
+      <c r="V33" t="n">
+        <v>12.41153037037968</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.355049816528473</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.05062377579298771</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>15.51746428250825</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.6602352982945476</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>2.84912947198724e-06</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.01859089292429612</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>-0.5029745399579301</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1.008994911244237</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1.513505716500566</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>50281</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>13</v>
+      </c>
+      <c r="C34" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D34" t="n">
+        <v>32</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.70109375</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.7334505348627616</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.09203125</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9.017347422411484</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.1572698750654429</v>
+      </c>
+      <c r="J34" t="n">
+        <v>35.62199409934122</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>[[ 1.52396057e-02  7.29283312e-04  2.18560697e-03  2.24060558e-04
+  -3.27014903e-07  2.63107220e-05]
+ [ 3.73155730e-05  5.70596637e-02 -3.34976608e-03 -3.24265015e-03
+  -1.45980262e-08  5.69903120e-06]
+ [ 2.81139998e-04 -3.34976608e-03  2.60837514e-02  5.49788491e-03
+  -1.09932279e-07 -8.99585417e-05]
+ [ 5.28107970e-05 -3.24265015e-03  5.49788491e-03  1.34789816e-03
+  -2.06496908e-08 -1.84442220e-05]
+ [-8.35544557e-08 -1.45980262e-08 -1.09932279e-07 -2.06496908e-08
+   3.15960424e-11 -2.86364239e-09]
+ [ 7.62422712e-06  5.69903120e-06 -8.99585417e-05 -1.84442220e-05
+  -2.86364239e-09  7.43426605e-07]]</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.2219624967257805</v>
+      </c>
+      <c r="M34" t="n">
+        <v>27.39141197655273</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.203330855749027</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.02293852289381082</v>
+      </c>
+      <c r="P34" t="n">
+        <v>8.941980880616063</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.380134221217333</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.446382549587789e-05</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.02786312483625411</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>[[ 1.24645133e-01  3.68801174e-02  2.99431760e-02  1.51758672e-03
+  -2.11167065e-06  3.26615395e-04]
+ [ 3.35924227e-03  1.20725697e+00  8.18558262e-01  6.09311329e-02
+  -2.21993867e-07 -2.38689794e-03]
+ [ 3.28658165e-03  8.18558262e-01  1.07017500e+00  9.90167663e-02
+  -2.17191146e-07 -2.97329999e-03]
+ [ 2.66364966e-04  6.09311329e-02  9.90167663e-02  9.69838982e-03
+  -1.76024892e-08 -2.70139493e-04]
+ [-9.48449872e-07 -2.21993867e-07 -2.17191146e-07 -1.76024892e-08
+   5.66701632e-11 -1.01578454e-08]
+ [ 1.71084231e-04 -2.38689794e-03 -2.97329999e-03 -2.70139493e-04
+  -1.01578454e-08  1.05020142e-05]]</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.6457103725554858</v>
+      </c>
+      <c r="V34" t="n">
+        <v>12.38590014874323</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.355013697626417</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.05072853189291315</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>15.29140225224879</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.606011082956415</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>4.485616863169327e-06</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.01981337720489973</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.5029748664092858</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>1.008998185643212</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.513506371386067</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>49486</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>13</v>
+      </c>
+      <c r="C35" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D35" t="n">
+        <v>33</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.71421875</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.7441975787816806</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.111015625</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8.978476923356142</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.15462742565764</v>
+      </c>
+      <c r="J35" t="n">
+        <v>35.21663006588141</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>[[ 1.53564018e-02  7.14839221e-04  2.19201629e-03  2.29634089e-04
+  -3.25675366e-07  2.61455787e-05]
+ [ 3.30392858e-05  5.13280651e-02 -3.23994904e-03 -2.93163336e-03
+  -1.27827018e-08  5.74888292e-06]
+ [ 2.57092967e-04 -3.23994904e-03  2.39195475e-02  5.07543039e-03
+  -9.94221371e-08 -8.24357936e-05]
+ [ 4.86892180e-05 -2.93163336e-03  5.07543039e-03  1.24336883e-03
+  -1.88284585e-08 -1.70213268e-05]
+ [-7.59245195e-08 -1.27827018e-08 -9.94221371e-08 -1.88284585e-08
+   2.84464399e-11 -2.57705192e-09]
+ [ 6.92248340e-06  5.74888292e-06 -8.24357936e-05 -1.70213268e-05
+  -2.57705192e-09  6.74190626e-07]]</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.222149533245708</v>
+      </c>
+      <c r="M35" t="n">
+        <v>27.22950072082848</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.203334985957622</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.02307491926347893</v>
+      </c>
+      <c r="P35" t="n">
+        <v>8.829555560636708</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.3562883280776732</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.655694499030162e-05</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.02752856995328019</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>[[ 1.18105507e-01  2.82224067e-02  2.28497536e-02  1.20419540e-03
+  -1.96826425e-06  3.16483880e-04]
+ [ 2.85557661e-03  1.29485173e+00  8.76181256e-01  6.42580189e-02
+  -1.89665588e-07 -2.55611801e-03]
+ [ 2.77738960e-03  8.76181256e-01  1.12414249e+00  1.02586343e-01
+  -1.84471939e-07 -3.13116168e-03]
+ [ 2.22188312e-04  6.42580189e-02  1.02586343e-01  9.93277893e-03
+  -1.47575599e-08 -2.80559081e-04]
+ [-9.79325055e-07 -1.89665588e-07 -1.84471939e-07 -1.47575599e-08
+   5.85695808e-11 -1.06168762e-08]
+ [ 1.78470572e-04 -2.55611801e-03 -3.13116168e-03 -2.80559081e-04
+  -1.06168762e-08  1.10388417e-05]]</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
+        <v>-0.6498721991133549</v>
+      </c>
+      <c r="V35" t="n">
+        <v>12.40905254764434</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.355070459828116</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.0506338842796854</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>15.46858520844716</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.6354463593722264</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2.727342194203466e-06</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.01908495609383699</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>-0.5029742135069977</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>1.008995566122331</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>1.513505389058028</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>50090</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>13</v>
+      </c>
+      <c r="C36" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D36" t="n">
+        <v>34</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.729375</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.7549446227005994</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.134296875</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8.920635323876906</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.1544444139222096</v>
+      </c>
+      <c r="J36" t="n">
+        <v>35.19637118505359</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>[[ 1.57835324e-02  7.52261542e-04  2.29665084e-03  2.42686048e-04
+  -3.32551039e-07  2.64869227e-05]
+ [ 3.74193627e-05  5.74807276e-02 -3.53345286e-03 -3.28744207e-03
+  -1.44565218e-08  6.26672864e-06]
+ [ 2.88211220e-04 -3.53345286e-03  2.60735910e-02  5.58460855e-03
+  -1.11293475e-07 -8.96811233e-05]
+ [ 5.50774311e-05 -3.28744207e-03  5.58460855e-03  1.38449739e-03
+  -2.12677168e-08 -1.86934744e-05]
+ [-8.38974006e-08 -1.44565218e-08 -1.11293475e-07 -2.12677168e-08
+   3.13731040e-11 -2.83520233e-09]
+ [ 7.63233768e-06  6.26672864e-06 -8.96811233e-05 -1.86934744e-05
+  -2.83520233e-09  7.38363498e-07]]</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.2264375780630323</v>
+      </c>
+      <c r="M36" t="n">
+        <v>27.3364160834419</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.203429680373036</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.0229846710263728</v>
+      </c>
+      <c r="P36" t="n">
+        <v>8.766302699473467</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.3633872917503662</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.317196043463435e-05</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.02788876894948979</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>[[ 1.22226652e-01  2.98921933e-02  2.39929837e-02  1.26020376e-03
+  -2.02834247e-06  3.25258081e-04]
+ [ 3.19782741e-03  1.37190186e+00  9.39519571e-01  6.78280240e-02
+  -2.09755079e-07 -2.71278824e-03]
+ [ 3.04753275e-03  9.39519571e-01  1.15655068e+00  1.02778065e-01
+  -1.99896239e-07 -3.20430866e-03]
+ [ 2.37804674e-04  6.78280240e-02  1.02778065e-01  9.70112726e-03
+  -1.55982675e-08 -2.79775148e-04]
+ [-9.55779018e-07 -2.09755079e-07 -1.99896239e-07 -1.55982675e-08
+   5.61260361e-11 -1.01100943e-08]
+ [ 1.73258103e-04 -2.71278824e-03 -3.20430866e-03 -2.79775148e-04
+  -1.01100943e-08  1.10965025e-05]]</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
+        <v>-0.6505044841970453</v>
+      </c>
+      <c r="V36" t="n">
+        <v>12.32224256260553</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.355079083836066</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.05099059911583992</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>15.73762446306757</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.6688260764204537</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>3.957650683313098e-06</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.01797747537842576</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>-0.502974648775001</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>1.008997312468074</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1.513505061615632</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>50099</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>13</v>
+      </c>
+      <c r="C37" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D37" t="n">
+        <v>35</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7440625</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.7656916666195184</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.159765625</v>
+      </c>
+      <c r="H37" t="n">
+        <v>8.927372165066741</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.1554505333144422</v>
+      </c>
+      <c r="J37" t="n">
+        <v>35.34435162369533</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>[[ 1.59807086e-02  7.65443587e-04  2.29825736e-03  2.38929411e-04
+  -3.39505731e-07  2.72073590e-05]
+ [ 3.74342748e-05  5.69185580e-02 -3.31449097e-03 -3.23776090e-03
+  -1.45603795e-08  5.66276889e-06]
+ [ 2.80506696e-04 -3.31449097e-03  2.55810000e-02  5.43743428e-03
+  -1.09053690e-07 -8.81227505e-05]
+ [ 5.31369902e-05 -3.23776090e-03  5.43743428e-03  1.34475898e-03
+  -2.06577041e-08 -1.82221482e-05]
+ [-8.26541800e-08 -1.45603795e-08 -1.09053690e-07 -2.06577041e-08
+   3.10755754e-11 -2.81265201e-09]
+ [ 7.53240890e-06  5.66276889e-06 -8.81227505e-05 -1.82221482e-05
+  -2.81265201e-09  7.29460293e-07]]</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.2242493818920277</v>
+      </c>
+      <c r="M37" t="n">
+        <v>27.41803094277557</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.203381356643475</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.02291625288589572</v>
+      </c>
+      <c r="P37" t="n">
+        <v>8.869574888352941</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.3806906458656112</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.314545463386668e-05</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.02798112884681277</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>[[ 1.20897422e-01  2.90773271e-02  2.36454445e-02  1.26134857e-03
+  -2.01143188e-06  3.22328707e-04]
+ [ 3.10248761e-03  1.35708840e+00  9.15599169e-01  6.64285992e-02
+  -2.07514040e-07 -2.66656394e-03]
+ [ 3.01422393e-03  9.15599169e-01  1.16475768e+00  1.05419804e-01
+  -2.01609582e-07 -3.24420408e-03]
+ [ 2.39271599e-04  6.64285992e-02  1.05419804e-01  1.01409758e-02
+  -1.60039172e-08 -2.88341534e-04]
+ [-1.00748202e-06 -2.07514040e-07 -2.01609582e-07 -1.60039172e-08
+   6.05237999e-11 -1.09393233e-08]
+ [ 1.83151567e-04 -2.66656394e-03 -3.24420408e-03 -2.88341534e-04
+  -1.09393233e-08  1.14291355e-05]]</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
+        <v>-0.6473661372180195</v>
+      </c>
+      <c r="V37" t="n">
+        <v>12.44219825019353</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.355036279652787</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.05049899688812509</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>15.58465705843538</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.6546413291016395</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>5.028993868484332e-06</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.01846012817115747</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>-0.5029752472697364</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1.008996111854726</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1.513505716500566</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>49917</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>13</v>
+      </c>
+      <c r="C38" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.7503125</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7764387105384372</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.194140625</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8.769028383941565</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.1547877652697209</v>
+      </c>
+      <c r="J38" t="n">
+        <v>35.21176070019428</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>[[ 1.59611950e-02  7.63748548e-04  2.29163093e-03  2.44597170e-04
+  -3.32419110e-07  2.64984041e-05]
+ [ 3.68692176e-05  5.59523838e-02 -3.45326248e-03 -3.19453114e-03
+  -1.39841483e-08  6.14589957e-06]
+ [ 2.80733201e-04 -3.45326248e-03  2.50550528e-02  5.42221528e-03
+  -1.06428752e-07 -8.61111713e-05]
+ [ 5.42243550e-05 -3.19453114e-03  5.42221528e-03  1.35492617e-03
+  -2.05564511e-08 -1.81382727e-05]
+ [-8.11646859e-08 -1.39841483e-08 -1.06428752e-07 -2.05564511e-08
+   2.98109099e-11 -2.69176126e-09]
+ [ 7.37707988e-06  6.14589957e-06 -8.61111713e-05 -1.81382727e-05
+  -2.69176126e-09  7.04434129e-07]]</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.2249138284545871</v>
+      </c>
+      <c r="M38" t="n">
+        <v>27.23125130846167</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.203396029937426</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.02307343586971777</v>
+      </c>
+      <c r="P38" t="n">
+        <v>8.657639108111871</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.3568133567955862</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.338258450162362e-05</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.02825530485290462</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>[[ 1.15434369e-01  2.57523687e-02  2.04633056e-02  1.10410428e-03
+  -1.88441240e-06  3.06530811e-04]
+ [ 2.97176447e-03  1.31811858e+00  8.93977103e-01  6.34701745e-02
+  -1.96280756e-07 -2.57402961e-03]
+ [ 2.80424339e-03  8.93977103e-01  1.07219928e+00  9.39840202e-02
+  -1.85215571e-07 -2.97199592e-03]
+ [ 2.16163125e-04  6.34701745e-02  9.39840202e-02  8.78060088e-03
+  -1.42771964e-08 -2.56027754e-04]
+ [-8.71423160e-07 -1.96280756e-07 -1.85215571e-07 -1.42771964e-08
+   5.12398299e-11 -9.22313947e-09]
+ [ 1.57911268e-04 -2.57402961e-03 -2.97199592e-03 -2.56027754e-04
+  -9.22313947e-09  1.02617040e-05]]</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
+        <v>-0.6520161985487216</v>
+      </c>
+      <c r="V38" t="n">
+        <v>12.37706241996773</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.355099703202663</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.05076475413942338</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>15.90052156717163</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.7092106057062987</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>3.552731417022797e-07</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.01807802885012739</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>-0.5029745399579301</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>1.008996548441067</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1.513505389058028</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>49929</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>13</v>
+      </c>
+      <c r="C39" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D39" t="n">
+        <v>37</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.762890625</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7656916666195184</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.22984375</v>
+      </c>
+      <c r="H39" t="n">
+        <v>8.816082583280892</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.1555820516813836</v>
+      </c>
+      <c r="J39" t="n">
+        <v>35.34667469154379</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>[[ 1.77410393e-02  8.63574280e-04  2.53942044e-03  2.65999239e-04
+  -3.73100968e-07  2.98555860e-05]
+ [ 3.98984426e-05  5.98555318e-02 -3.32375556e-03 -3.39451298e-03
+  -1.53673509e-08  5.55102767e-06]
+ [ 2.90137618e-04 -3.32375556e-03  2.60143490e-02  5.58299258e-03
+  -1.11696196e-07 -8.96075554e-05]
+ [ 5.54567180e-05 -3.39451298e-03  5.58299258e-03  1.39850906e-03
+  -2.13489230e-08 -1.87057978e-05]
+ [-8.54601452e-08 -1.53673509e-08 -1.11696196e-07 -2.13489230e-08
+   3.17918908e-11 -2.87673568e-09]
+ [ 7.78745946e-06  5.55102767e-06 -8.96075554e-05 -1.87057978e-05
+  -2.87673568e-09  7.44283761e-07]]</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.2245975887883112</v>
+      </c>
+      <c r="M39" t="n">
+        <v>27.46923950850685</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.203389046239958</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.02287353206569032</v>
+      </c>
+      <c r="P39" t="n">
+        <v>8.805113389301358</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.3908152369063789</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.695008271123667e-05</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.02758591527095873</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>[[ 1.24743562e-01  3.19947368e-02  2.55277196e-02  1.35132639e-03
+  -2.05669987e-06  3.26706999e-04]
+ [ 3.11246331e-03  1.28468369e+00  8.60128646e-01  6.39720328e-02
+  -2.03475796e-07 -2.50420461e-03]
+ [ 2.98371427e-03  8.60128646e-01  1.08753527e+00  1.00469762e-01
+  -1.95058316e-07 -3.02413895e-03]
+ [ 2.41641869e-04  6.39720328e-02  1.00469762e-01  9.84440372e-03
+  -1.57971650e-08 -2.74352481e-04]
+ [-9.56595594e-07 -2.03475796e-07 -1.95058316e-07 -1.57971650e-08
+   5.63173120e-11 -1.01570668e-08]
+ [ 1.73543476e-04 -2.50420461e-03 -3.02413895e-03 -2.74352481e-04
+  -1.01570668e-08  1.06367486e-05]]</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
+        <v>-0.6482691343148606</v>
+      </c>
+      <c r="V39" t="n">
+        <v>12.39125803250103</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.355048595430438</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.05070659726961879</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>15.26912811042017</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.6335550689332029</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>2.073240848963108e-06</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.01971902643292615</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>-0.5029751384524054</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1.008996111854726</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1.513505716500566</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>49845</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>13</v>
+      </c>
+      <c r="C40" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D40" t="n">
+        <v>38</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7670312500000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7549446227005994</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.263984375</v>
+      </c>
+      <c r="H40" t="n">
+        <v>8.950284373106614</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.1563414295265949</v>
+      </c>
+      <c r="J40" t="n">
+        <v>35.55207724404846</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>[[ 1.53321670e-02  6.87502995e-04  2.10041167e-03  2.20479123e-04
+  -3.28647647e-07  2.69246181e-05]
+ [ 3.46212894e-05  5.39144447e-02 -3.21809028e-03 -3.05824239e-03
+  -1.33618437e-08  5.42786603e-06]
+ [ 2.56535836e-04 -3.21809028e-03  2.48777117e-02  5.27459171e-03
+  -9.89678216e-08 -8.65841816e-05]
+ [ 4.84921685e-05 -3.05824239e-03  5.27459171e-03  1.29471948e-03
+  -1.87071361e-08 -1.78526650e-05]
+ [-8.01221709e-08 -1.33618437e-08 -9.89678216e-08 -1.87071361e-08
+   2.99098090e-11 -2.74499762e-09]
+ [ 7.39929282e-06  5.42786603e-06 -8.65841816e-05 -1.78526650e-05
+  -2.74499762e-09  7.14282849e-07]]</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.2286454587463016</v>
+      </c>
+      <c r="M40" t="n">
+        <v>27.26967860219827</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.203478440960187</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.02304092174622507</v>
+      </c>
+      <c r="P40" t="n">
+        <v>8.854019658199102</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.3691574172429408</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.48646544054553e-05</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.02801526864940886</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>[[ 1.16678770e-01  2.98040922e-02  2.40768611e-02  1.25355310e-03
+  -1.95067001e-06  3.10297297e-04]
+ [ 4.97911768e-03  1.21981389e+00  8.35233567e-01  6.11577067e-02
+  -3.27182120e-07 -2.39786500e-03]
+ [ 4.80423488e-03  8.35233567e-01  1.05779424e+00  9.56052402e-02
+  -3.15686812e-07 -2.91020004e-03]
+ [ 3.80774773e-04  6.11577067e-02  9.56052402e-02  9.15988912e-03
+  -2.50205917e-08 -2.58576469e-04]
+ [-9.00804606e-07 -3.27182120e-07 -3.15686812e-07 -2.50205917e-08
+   5.32618531e-11 -9.22398573e-09]
+ [ 1.57649075e-04 -2.39786500e-03 -2.91020004e-03 -2.58576469e-04
+  -9.22398573e-09  1.01052483e-05]]</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
+        <v>-0.6490171228875297</v>
+      </c>
+      <c r="V40" t="n">
+        <v>12.33125887845681</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.355058797250646</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.05095331603293607</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>15.55023486152871</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.6362988445917074</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>7.993023452781036e-06</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.01828175388329797</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>-0.5029749208178862</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>1.00899633014785</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.513506043943245</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>49609</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>13</v>
+      </c>
+      <c r="C41" t="n">
+        <v>23999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>39</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.7714062500000001</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.7441975787816804</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.2615625</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8.62086397478021</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.1542359522270079</v>
+      </c>
+      <c r="J41" t="n">
+        <v>35.06674560012844</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>[[ 1.65761183e-02  7.83767213e-04  2.31943309e-03  2.52894328e-04
+  -3.38348552e-07  2.70050099e-05]
+ [ 3.96852616e-05  6.03872013e-02 -3.53728343e-03 -3.44460166e-03
+  -1.48711097e-08  6.19501327e-06]
+ [ 2.93021616e-04 -3.53728343e-03  2.57028764e-02  5.66168175e-03
+  -1.09750753e-07 -8.84171847e-05]
+ [ 5.75676305e-05 -3.44460166e-03  5.66168175e-03  1.44550372e-03
+  -2.15612788e-08 -1.89521673e-05]
+ [-8.53738360e-08 -1.48711097e-08 -1.09750753e-07 -2.15612788e-08
+   3.09526482e-11 -2.79737736e-09]
+ [ 7.76777849e-06  6.19501327e-06 -8.84171847e-05 -1.89521673e-05
+  -2.79737736e-09  7.28282079e-07]]</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.2263680644017163</v>
+      </c>
+      <c r="M41" t="n">
+        <v>27.34062834502294</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.203428145213279</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.0229811298697653</v>
+      </c>
+      <c r="P41" t="n">
+        <v>8.53309607373267</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.3685033824116375</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.369953657115471e-05</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.02823761927304085</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>[[ 1.39006752e-01  4.04120976e-02  3.14407179e-02  1.71326349e-03
+  -2.23272885e-06  3.45055944e-04]
+ [ 3.69655334e-03  1.39385618e+00  9.10972255e-01  6.90103730e-02
+  -2.36855248e-07 -2.64689075e-03]
+ [ 3.46133016e-03  9.10972255e-01  1.12148329e+00  1.05633810e-01
+  -2.21782201e-07 -3.11530394e-03]
+ [ 2.85867318e-04  6.90103730e-02  1.05633810e-01  1.05606456e-02
+  -1.83166990e-08 -2.88203132e-04]
+ [-1.00621661e-06 -2.36855248e-07 -2.21782201e-07 -1.83166990e-08
+   5.79989868e-11 -1.03993485e-08]
+ [ 1.81609296e-04 -2.64689075e-03 -3.11530394e-03 -2.88203132e-04
+  -1.03993485e-08  1.09461485e-05]]</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
+        <v>-0.6419433717041789</v>
+      </c>
+      <c r="V41" t="n">
+        <v>12.40466010969572</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.35496232446227</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.05065181352505199</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>14.97082838924593</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.6417572914160102</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>3.248444003351083e-06</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.01968464448828824</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>-0.5029748664092858</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>1.00899633014785</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.513507189993739</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>90.00002493749997</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>25.5029</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>6.775275000000001</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>11.09699999999999</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>49831</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO41" t="b">
         <v>1</v>
       </c>
     </row>

--- a/dump_files/temp_data_xrv.xlsx
+++ b/dump_files/temp_data_xrv.xlsx
@@ -644,138 +644,138 @@
         <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>23999</v>
+        <v>201</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.386484375</v>
+        <v>0.369375</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3895451294573561</v>
+        <v>0.3569568925567829</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.019375</v>
+        <v>-0.029609375</v>
       </c>
       <c r="H2" t="n">
-        <v>14.38470768370964</v>
+        <v>15.65304865962676</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1630193781351665</v>
+        <v>0.2394277101936094</v>
       </c>
       <c r="J2" t="n">
-        <v>25.20210797539058</v>
+        <v>77.64586441693002</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[[ 3.34323263e-09  1.37253246e-10  4.48108361e-10  6.15178112e-08
-  -1.30800621e-07  2.85545815e-07]
- [ 5.02919562e-12  8.07071605e-09 -5.58822965e-10 -6.15817844e-07
-  -3.52227708e-09  8.81095146e-09]
- [ 4.07220739e-11 -5.58822965e-10  4.12996262e-09  1.13759582e-06
-  -2.84871382e-08  4.12720119e-08]
- [ 1.00247748e-08 -6.15817844e-07  1.13759582e-06  3.58721905e-04
-  -7.01264694e-06  9.74130915e-06]
- [-2.24539386e-08 -3.52227708e-09 -2.84871382e-08 -7.01264694e-06
-   1.52451431e-05 -3.33815694e-05]
- [ 4.91751047e-08  8.81095146e-09  4.12720119e-08  9.74130915e-06
-  -3.33815694e-05  7.32290460e-05]]</t>
+          <t>[[ 2.11883804e-09  2.18614701e-10  3.76726249e-10  2.91462550e-08
+  -1.73975983e-07  3.80124134e-07]
+ [ 4.66093519e-11  1.27223367e-08  2.50934392e-09  4.17531611e-07
+  -7.16715509e-09  7.91359046e-10]
+ [ 3.50531918e-11  2.50934392e-09  3.18934886e-09  1.18553331e-06
+  -5.38963933e-09 -4.80943059e-09]
+ [ 1.13743336e-08  4.17531611e-07  1.18553331e-06  4.77683950e-04
+  -1.74884994e-06 -2.18418660e-06]
+ [-2.64211871e-08 -7.16715509e-09 -5.38963933e-09 -1.74884994e-06
+   3.77024297e-06 -8.24896767e-06]
+ [ 5.78235104e-08  7.91359046e-10 -4.80943059e-09 -2.18418660e-06
+  -8.24896767e-06  1.81390155e-05]]</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>-0.1995191749448844</v>
+        <v>0.09485455998490266</v>
       </c>
       <c r="M2" t="n">
-        <v>26.3703380250261</v>
+        <v>18.70175401583757</v>
       </c>
       <c r="N2" t="n">
-        <v>2.20283536651915</v>
+        <v>2.196356942856633</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02382671508122759</v>
+        <v>0.0335967701310726</v>
       </c>
       <c r="P2" t="n">
-        <v>0.006749365298061104</v>
+        <v>0.004274572089244658</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3310399441423864</v>
+        <v>0.5401422563457589</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01955543805103895</v>
+        <v>-0.01231029476212248</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.01269619445519747</v>
+        <v>0.05901414903216214</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[[ 1.24920316e-08 -2.66258375e-09 -2.22615906e-09 -1.49386697e-07
-  -4.04619988e-07  5.55845343e-07]
- [-8.21472967e-11  4.71065846e-08  3.36866008e-08  3.19540080e-06
-   1.04204789e-08 -1.48795569e-07]
- [-8.18142685e-11  3.36866008e-08  4.35307493e-08  5.08036906e-06
-   1.03785922e-08 -1.80423383e-07]
- [-8.38119236e-09  3.19540080e-06  5.08036906e-06  6.29240770e-04
-   1.06320688e-06 -2.04914025e-05]
- [-6.44692578e-08  1.04204789e-08  1.03785922e-08  1.06320688e-06
-   7.33224650e-06 -9.97490996e-06]
- [ 8.76656103e-08 -1.48795569e-07 -1.80423383e-07 -2.04914025e-05
-  -9.97490996e-06  1.42190943e-05]]</t>
+          <t>[[ 1.33943563e-09 -2.97528621e-10 -3.20197919e-10 -2.86688100e-08
+  -9.79766332e-08  1.32895650e-07]
+ [-2.13374982e-11  2.45966841e-08  1.08710293e-08  2.68637174e-06
+   2.04567946e-09 -5.73241844e-08]
+ [-1.15006980e-11  1.08710293e-08  8.32423853e-09  2.37435420e-06
+   1.10268280e-09 -4.06791095e-08]
+ [-2.86713010e-09  2.68637174e-06  2.37435420e-06  7.01028091e-04
+   2.74902314e-07 -1.13392467e-05]
+ [-3.58898420e-08  2.04567946e-09  1.10268280e-09  2.74902314e-07
+   3.19052559e-06 -4.28320679e-06]
+ [ 4.81765169e-08 -5.73241844e-08 -4.06791095e-08 -1.13392467e-05
+  -4.28320679e-06  5.93899608e-06]]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>-0.5971245776998035</v>
+        <v>0.457217074810301</v>
       </c>
       <c r="V2" t="n">
-        <v>12.31190331064625</v>
+        <v>14.37017792968727</v>
       </c>
       <c r="W2" t="n">
-        <v>1.354351398701363</v>
+        <v>1.340136898903675</v>
       </c>
       <c r="X2" t="n">
-        <v>0.05103341984294531</v>
+        <v>0.04372378225184805</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.01199494571473045</v>
+        <v>0.004770433835121583</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.6582492635724109</v>
+        <v>0.3127109533062383</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.003382710706803671</v>
+        <v>-0.02000823415928051</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.02401624282889409</v>
+        <v>0.06172066823352594</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.5029742135069977</v>
+        <v>-1.00899797207166</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.008995566122331</v>
+        <v>0.5044999538885565</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.513508827211741</v>
+        <v>1.513497550107272</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>90.00002493749997</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>25.5029</v>
+        <v>-16.4081625</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.775275000000001</v>
+        <v>6.704812499999999</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11.09699999999999</v>
+        <v>11.139375</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.7</v>
+        <v>0.34</v>
       </c>
       <c r="AL2" t="n">
-        <v>50177</v>
+        <v>85240</v>
       </c>
       <c r="AM2" t="n">
         <v>1</v>
